--- a/file/exercise.xlsx
+++ b/file/exercise.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hiện tại đơn" sheetId="1" r:id="rId1"/>
     <sheet name="12 thì" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="81">
   <si>
     <t>question</t>
   </si>
@@ -104,6 +104,198 @@
   </si>
   <si>
     <t>Test</t>
+  </si>
+  <si>
+    <t>In the summer, John often_____(play) tennis once or twice a week.</t>
+  </si>
+  <si>
+    <t>play</t>
+  </si>
+  <si>
+    <t>plays</t>
+  </si>
+  <si>
+    <t>is playing</t>
+  </si>
+  <si>
+    <t>played</t>
+  </si>
+  <si>
+    <t>B là chính xác
+- vì đây là diễn tả 1 sự lặp đi lặp lại. Chủ ngữ là "John" (số ít) =&gt; chia động từ thêm 's'
+- Dịch: Vào mùa hè John thường chơi quần vợt một hoặc hai lần một tuần.</t>
+  </si>
+  <si>
+    <t>What time you usually_____(get) home after work?</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>gets</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>have got</t>
+  </si>
+  <si>
+    <t>A là chính xác
+- Căn cứ vào trạng từ “usually” thì động từ trong câu phải chia thì hiện tại đơn
+- Dịch: Sau khi làm việc xong bạn thường về nhà lúc mấy giờ?</t>
+  </si>
+  <si>
+    <t>The swimming pool_____(open) at 9:00 and_____(close) at 6:30 every day.</t>
+  </si>
+  <si>
+    <t>open-close</t>
+  </si>
+  <si>
+    <t>opens-closes</t>
+  </si>
+  <si>
+    <t>opened-closed</t>
+  </si>
+  <si>
+    <t>is opening - is closing</t>
+  </si>
+  <si>
+    <t>B là chính xác
+- vì đây là diễn tả 1 sự lặp đi lặp lại "every day". Chủ ngữ là "The swimming pool" tương ứng với 'it' (số ít) =&gt; chia động từ thêm 's'
+- Dịch: Hàng ngày, bể bơi mở cửa lúc 9 giờ sáng và đóng cửa lúc 6 giờ 30 chiều</t>
+  </si>
+  <si>
+    <t> Every year I_____(visit) Britain to improve my English.</t>
+  </si>
+  <si>
+    <t>visit</t>
+  </si>
+  <si>
+    <t>visits</t>
+  </si>
+  <si>
+    <t>visited</t>
+  </si>
+  <si>
+    <t>is visiting</t>
+  </si>
+  <si>
+    <t>A là chính xác
+- vì đây là diễn tả 1 sự lặp đi lặp lại "every year".
+- Dịch: Hàng năm, tôi đến thăm Anh để cải thiện tiếng anh của tôi</t>
+  </si>
+  <si>
+    <t>In the United State, elementary education is compulsory. All children _____ (study) six years of elementary school.</t>
+  </si>
+  <si>
+    <t>studied</t>
+  </si>
+  <si>
+    <t>studies</t>
+  </si>
+  <si>
+    <t>study</t>
+  </si>
+  <si>
+    <t>is studying</t>
+  </si>
+  <si>
+    <t>C là chính xác
+- vì đây là diễn tả 1 sự thật. "All children"số nhiều =&gt; không chia
+- Dịch: Ở Mỹ, giáo dục cơ bản là bắt buộc. Tất cả trẻ em phải học sáu năm học ở trường học sơ cấp.</t>
+  </si>
+  <si>
+    <t>I_____(not like) feel going to the library to study this afternoon.</t>
+  </si>
+  <si>
+    <t>don't feel like</t>
+  </si>
+  <si>
+    <t>doesn't feel like</t>
+  </si>
+  <si>
+    <t>didn't feel like</t>
+  </si>
+  <si>
+    <t>not feel like</t>
+  </si>
+  <si>
+    <t>A là chính xác
+- Căn cứ vào trạng từ “usually” thì động từ trong câu phải chia thì hiện tại đơn.
+- Dịch: Người Mỹ thường có bữa ăn lớn nhất vào buổi tối</t>
+  </si>
+  <si>
+    <t>Can you tell me when the train for HCM city_____(leave)? - In fifteen minutes. At 7.05.</t>
+  </si>
+  <si>
+    <t>Of course, you are Lisa, aren’t you? I_____(recognize) you now.</t>
+  </si>
+  <si>
+    <t>recognize</t>
+  </si>
+  <si>
+    <t>recognizes</t>
+  </si>
+  <si>
+    <t>recognized</t>
+  </si>
+  <si>
+    <t>is recognizing</t>
+  </si>
+  <si>
+    <t>A là chính xác
+- Căn cứ vào trạng từ " now" =&gt; chia thì hiện tại tiếp diễn. Tuy nhiên, động từ “recognize” trong trường hợp này `chỉ nhận thức` nên không chia thì tiếp diễn nên ta chọn chia ở thì hiện tại đơn.
+- Dịch: Dĩ nhiên, bạn là Lisa phải không? Bây giờ tôi nhận ra bạn rồi.</t>
+  </si>
+  <si>
+    <t>A là chính xác
+- Căn cứ vào cách dùng của thì hiện tại đơn: “nói về lịch trình hoặc thời gian biểu” thì động từ trong câu phải chia thì hiện tại đơn.
+- Dịch: Bạn có thể nói cho tôi khi nào chuyến tàu từ thành phố HCM rời đi không? - Trong vòng 15 phút nữa. Vào lúc 7.05</t>
+  </si>
+  <si>
+    <t>I can see from what you say that your mornings are very busy! But what you (do)_____in the afternoons?</t>
+  </si>
+  <si>
+    <t>do you do</t>
+  </si>
+  <si>
+    <t>did you did</t>
+  </si>
+  <si>
+    <t>D là chính xác
+- Căn cứ vào ngữ cảnh của câu thì động từ trong câu phải chia thì hiện tại đơn.
+- Dịch: Dịch: Tôi có thể nhìn thấy từ những gì bạn nói rằng buổi sáng của bạn rất bận! Nhưng bạn làm gì trong buổi chiều?</t>
+  </si>
+  <si>
+    <t>Before our director_____(come back), I_____(want) to remind everyone that we should not use the internet on personal purposes.</t>
+  </si>
+  <si>
+    <t>come back - want</t>
+  </si>
+  <si>
+    <t>comes back - want</t>
+  </si>
+  <si>
+    <t>C là chính xác
+- Căn cứ vào cách hợp thì với mệnh đề trạng ngữ chỉ thời gian: “Trong mệnh đề trạng ngữ chỉ thời gian ta dùng thì hiện tại đơn cho dù muốn diễn đạt hành động chưa xảy ra”. Trong ngữ cảnh trên, ông giám đốc chưa quay trở lại, nhưng vì mệnh đề này là mệnh đề trạng ngữ chỉ thời gian nên ta không dùng thì tương lai.
+- Dịch: Trước khi giám đốc quay trở lại, tôi muốn nhắc nhở mọi người rằng chúng ta không được phép sử dụng internet cho những mục đích cá nhân.</t>
+  </si>
+  <si>
+    <t>Are you writing to him now?
+- Yes, I always_____(write) to him on his birthday. You_____ (want) to send any message?
+- Certainly</t>
+  </si>
+  <si>
+    <t>write-Do you want</t>
+  </si>
+  <si>
+    <t>B là chính xác
+- Căn cứ vào trạng từ “always” thì động từ trong câu phải chia thì hiện tại đơn. Tuy nhiên trạng từ “always” có thể dùng với thì hiện tại tiếp diễn để nói về sự phàn nàn. Nhưng trong trường hợp này “always” đi với thì hiện tại đơn để diễn đạt sự “thường xuyên lặp đi lặp lại”.
+-  Dịch:
+  - "Bây giờ bạn đang viết thư cho anh ấy phải không?"
+  - " Đúng vậy, tôi luôn luôn viết cho anh ấy vào ngày sinh nhật. Bạn muốn gửi lời nhắn nào không?"
+  - “Chắc chắn rồi."</t>
   </si>
 </sst>
 </file>
@@ -147,7 +339,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -163,6 +355,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -444,25 +648,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="67.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="2"/>
     <col min="7" max="7" width="39.42578125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -485,7 +689,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -508,7 +712,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -531,7 +735,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -551,6 +755,240 @@
       </c>
       <c r="G4" s="3" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="195" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="225" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -563,7 +1001,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/file/exercise.xlsx
+++ b/file/exercise.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Hiện tại đơn" sheetId="1" r:id="rId1"/>
-    <sheet name="12 thì" sheetId="2" r:id="rId2"/>
+    <sheet name="12 thì" sheetId="1" r:id="rId1"/>
+    <sheet name="12 thì (2)" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="221">
   <si>
     <t>question</t>
   </si>
@@ -96,14 +96,6 @@
     <t>D là chính xác
 - Căn cứ vào: "every morning" là dấu hiệu nhận biết thì hiện tại đơn.
 - Dịch: Mỗi buổi sáng Liz thức dậy lúc 6 giờ.</t>
-  </si>
-  <si>
-    <t>B là chính xác
-- vì đây là diễn tả 1 chân lý. "The sun" chỉ có 1 nên ta có thể coi là "it" (số ít) =&gt; chia động từ thêm 's'
-- Dịch: Trái đất quay quanh mặt trời.</t>
-  </si>
-  <si>
-    <t>Test</t>
   </si>
   <si>
     <t>In the summer, John often_____(play) tennis once or twice a week.</t>
@@ -297,12 +289,704 @@
   - " Đúng vậy, tôi luôn luôn viết cho anh ấy vào ngày sinh nhật. Bạn muốn gửi lời nhắn nào không?"
   - “Chắc chắn rồi."</t>
   </si>
+  <si>
+    <t>While they_____to Wyoming, their car ran out of gas.</t>
+  </si>
+  <si>
+    <t>drove</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>had been driving</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>have driven</t>
+  </si>
+  <si>
+    <t>were driving</t>
+  </si>
+  <si>
+    <t>Đáp án D
+Dịch: Trong khi họ đang lái xe đến Wyoming, xe của họ hết xăng.
+=&gt; Diễn tả một hành động đang xảy ra thì có hành động khác xen vào, hành động nào xảy ra
+trước chia thì quá khứ tiếp diễn, hành động xảy ra sau chia thì quá khứ đơn.</t>
+  </si>
+  <si>
+    <t>Alice looked much slimmer because she_____for a few months.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>had been dieting</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>has been dieting</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>was dieting</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>diets</t>
+  </si>
+  <si>
+    <t>Đáp án A
+- Căn cứ vào trạng từ “for a few months” nên mệnh đề sau chia thì hiện tại hoàn thành. Tuy
+nhiên, căn cứ vào động từ “looked” ở mệnh đề trước chia thì quá khứ đơn nên mệnh đề sau phải
+lùi một thì thành thì quá khứ hoàn thành.
+- Dịch nghĩa: Alice trông gầy hơn nhiều vì cô ấy đã ăn kiêng mấy tháng rồi.
+=&gt; Căn cứ theo nghĩa của câu: Nhấn mạnh tính liên tục của hành động “ăn kiêng” dẫn đến kết
+quả “trông gầy hơn” nên ta chia ở thì quá khứ hoàn thành tiếp diễn.</t>
+  </si>
+  <si>
+    <t>When she’s done the ironing, she_____the length of the dress for me.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>is altering</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>altered</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>will alter</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>has altered</t>
+  </si>
+  <si>
+    <t>Đáp án C
+- Đáp án: will alter.
+- Giải thích: when S + V (hiện tại đơn/ hiện tại hoàn thành), S + will Vo: diễn tả 2 hành động
+xảy ra lần lượt từ hiện tại tới tương lai.
+- Dịch nghĩa: Sau khi là xong, cô ta sẽ sửa lại chiều dài váy cho tôi</t>
+  </si>
+  <si>
+    <t>You are too slow. I’m sure that by the time you phone them, they_____that car to someone else.</t>
+  </si>
+  <si>
+    <t>will sell</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>will have sold</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>are going to sell</t>
+  </si>
+  <si>
+    <t>are selling</t>
+  </si>
+  <si>
+    <t>Đáp án B
+- Dịch nghĩa: Bạn chậm quá. Tôi dám chắc là đến khi bạn gọi cho họ, họ đã bán chiếc xe đó cho
+ai khác rồi.
+- Căn cứ vào: By the time + S + V(hiện tại đơn), S + V(tương lai hoàn thành).
+- Đáp án: will have sold.</t>
+  </si>
+  <si>
+    <t>As soon as they_____my last book, I_____you a copy with my autograph.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>will print - will send</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>had printed - will send</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>printed - will be sending</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>print - will send</t>
+  </si>
+  <si>
+    <t>Đáp án D
+- Dịch nghĩa: Ngay khi họ in quyển sách cuối cùng của tôi, tôi sẽ gửi bản sao có chữ ký của tôi
+cho anh.
+- Căn cứ vào: kiến thức về sự phối thì: As soon as + S + V(hiện tại đơn), S + V(tương lai đơn)</t>
+  </si>
+  <si>
+    <t>had been looking</t>
+  </si>
+  <si>
+    <t>were looking</t>
+  </si>
+  <si>
+    <t>have been looking</t>
+  </si>
+  <si>
+    <t>looked</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Because the children_____forward to seeing Harry Potter for so long, I took them even though it was really inconvenient for me.
+</t>
+  </si>
+  <si>
+    <t>=&gt; Đáp án A
+- Dịch nghĩa: Bởi vì lũ trẻ đã mong chờ được xem Harry Potter quá lâu, tôi đã đưa chúng đi dù
+nó khá là bất tiện với tôi.
+- “Việc lũ trẻ mong chờ” chia thì quá khứ hoàn thành vì:
++ “for so long” nhấn mạnh tính liên tục, việc mong chờ này đã rất lâu rồi.
++ Chúng mong chờ trước khi “có người” đưa chúng đi.</t>
+  </si>
+  <si>
+    <t>B là chính xác
+- vì đây là diễn tả 1 chân lý. "The sun" chỉ có 1 nên ta có thể coi là "it" (số ít) =&gt; chia động từ thêm 's/es'. Nên 'go' =&gt; 'goes'
+- Dịch: Trái đất quay quanh mặt trời.</t>
+  </si>
+  <si>
+    <t>When we_____at the airport we_____that we_____our passports at the office</t>
+  </si>
+  <si>
+    <t>arrived - had noticed - had left</t>
+  </si>
+  <si>
+    <t>arrived - noticed - had left</t>
+  </si>
+  <si>
+    <t xml:space="preserve">have arrived - noticed – left </t>
+  </si>
+  <si>
+    <t>had arrived - have noticed - have left</t>
+  </si>
+  <si>
+    <t>Đáp án B
+- Dịch nghĩa: Khi chúng tôi đến sân bay chúng tôi nhận ra rằng chúng tôi đã quên hộ chiếu ở văn
+phòng.
+- Căn cứ:
++ cách dùng của thì quá khứ đơn: dùng để liệt kê các hành động trong quá khứ.
++ hành động để quên passports đã diễn ra trước đó nên chia quá khứ hoàn thành.
+- Đáp án: arrived – noticed – had left.</t>
+  </si>
+  <si>
+    <t>wrote-Did you want</t>
+  </si>
+  <si>
+    <t>will write-Do you want</t>
+  </si>
+  <si>
+    <t>write-Did you want</t>
+  </si>
+  <si>
+    <t>came back - wanted</t>
+  </si>
+  <si>
+    <t>comes back - wants</t>
+  </si>
+  <si>
+    <t>Generally he_____to work by car, but today he_____by bus because his car is in the garage</t>
+  </si>
+  <si>
+    <t>went – went</t>
+  </si>
+  <si>
+    <t>was going - is going</t>
+  </si>
+  <si>
+    <t>goes - is going</t>
+  </si>
+  <si>
+    <t>has been going - goes</t>
+  </si>
+  <si>
+    <t>goes – is going
+* Giải thích:
+- dùng hiện tại đơn diễn tả thói quen hằng ngày.
+- dùng hiện tại tiếp diễn: diễn tả hành động sẽ xảy ra trong tương lai (“today”: ngày hôm nay)
+* Dịch: Bình thường anh ấy đi làm bằng ô tô những hôm nay anh sẽ đi bus vì xe của anh ấy đang
+ở garage</t>
+  </si>
+  <si>
+    <t>He_____for over three hours when he finished the report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">will have typed </t>
+  </si>
+  <si>
+    <t>was typing</t>
+  </si>
+  <si>
+    <t>has been typing</t>
+  </si>
+  <si>
+    <t>had been typing</t>
+  </si>
+  <si>
+    <t>Đáp án D
+* Đáp án: had been typing.
+* Căn cứ: dùng quá khứ hoàn thành để diễn tả 1 hành động đã diễn ra trong 1 khoảng thời gian
+dài trong quá khứ.
+* Dịch nghĩa: Anh ta đã đánh máy hơn 3 tiếng cho đến khi hoàn thành bài báo cáo.</t>
+  </si>
+  <si>
+    <t>Three days ago her boyfriend_____her and she_____continually ever since.</t>
+  </si>
+  <si>
+    <t>left - is crying</t>
+  </si>
+  <si>
+    <t>had left - cried</t>
+  </si>
+  <si>
+    <t>left - has been crying</t>
+  </si>
+  <si>
+    <t>had left - was crying</t>
+  </si>
+  <si>
+    <t>Đáp án C
+* Ta có: ago =&gt; chia thì quá khứ đơn
+- ever since =&gt; Hiện tại hoàn thành. Tuy nhiên, có “continually” càng nhấn mạnh tính liên tục
+của hành động trong suốt quá trình, nên ta dùng thì hiện tại hoàn thành tiếp diễn
+* Dịch nghĩa: Ba ngày trước bạn trai cô ta bỏ cô ta và cô ta đã khóc suốt từ hôm đó</t>
+  </si>
+  <si>
+    <t>This is the first customer we_____something today</t>
+  </si>
+  <si>
+    <t>have sold</t>
+  </si>
+  <si>
+    <t>sold</t>
+  </si>
+  <si>
+    <t>had sold</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> were selling</t>
+  </si>
+  <si>
+    <t>Andrew_____the plants in the garden right now but I_____sure that it will rain this afternoon.</t>
+  </si>
+  <si>
+    <t>is watering - was</t>
+  </si>
+  <si>
+    <t>is watering - am</t>
+  </si>
+  <si>
+    <t>waters - am</t>
+  </si>
+  <si>
+    <t>watered - was</t>
+  </si>
+  <si>
+    <t>Đáp án B
+- Dịch nghĩa: Andrew đang tưới cây trong vườn bây giờ nhưng tôi chắc rằng trời sẽ mưa chiều
+nay.
+- Vế 1 có “right now” =&gt; chia thì hiện tại tiếp diễn.
+=&gt; Loại C, D vì không hợp thì (vế trước hiện tại - vế sau quá khứ)</t>
+  </si>
+  <si>
+    <t>She should have informed the police as soon as she_____that her purse had been stolen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">would discover </t>
+  </si>
+  <si>
+    <t>had discovered</t>
+  </si>
+  <si>
+    <t>has discovered</t>
+  </si>
+  <si>
+    <t>discovered</t>
+  </si>
+  <si>
+    <t>My father_____to rent a car when one of his friends phoned him to offer his own car for the trip.</t>
+  </si>
+  <si>
+    <t>had decided</t>
+  </si>
+  <si>
+    <t>was deciding</t>
+  </si>
+  <si>
+    <t>has decided</t>
+  </si>
+  <si>
+    <t>decided</t>
+  </si>
+  <si>
+    <t>When he_____he_____on a bed in a room with no windows.</t>
+  </si>
+  <si>
+    <t>had woken up - was lying</t>
+  </si>
+  <si>
+    <t>woke up - was lying</t>
+  </si>
+  <si>
+    <t>wakes up - is lying</t>
+  </si>
+  <si>
+    <t>woke up - lay</t>
+  </si>
+  <si>
+    <t>The teacher_____to the class before the students_____the problems</t>
+  </si>
+  <si>
+    <t>will come back - have solved</t>
+  </si>
+  <si>
+    <t>had come back - solved</t>
+  </si>
+  <si>
+    <t>came back - have solved</t>
+  </si>
+  <si>
+    <t>is coming back - solve</t>
+  </si>
+  <si>
+    <t>Đáp án B
+- Dịch nghĩa: Giáo viên đã quay trở lại trước khi học sinh giải quyết được vấn đề.
+Quy tắc: Trước BEFORE chia quá khứ hoàn thành sau BEFORE chia quá khứ đơn.
+*Note: Come - came - come (v): đến
+=&gt; Lưu ý ở đây không dùng đáp án A được. Vì nếu dùng thì tương lai với “before” như vậy thì
+phải theo cấu trúc, ta chia tương lai hoàn thành, diễn tả một hành động xảy ra trước một thời
+điểm xác định hoặc một hành động khác trong tương lai, không thể dùng đơn thuần dùng thì
+tương lai mô tả một sự việc sẽ xảy ra trong tương lai khi đi kèm với mệnh đề thời gian có
+“before” như vậy:
+- S + will have Vp2 + ….. + before + S + V (hiện tại đơn/hiện tại hoàn thành)</t>
+  </si>
+  <si>
+    <t>Đáp án B
+- Dịch: Khi tỉnh dậy hắn thấy mình đang nằm trên 1 chiếc giường trong 1 căn phòng không có cửa
+sổ.
+=&gt; Một hành động đang xảy ra thì có hành động khác xen vào, hành động nào xảy ra trước chia
+thì quá khứ tiếp diễn, hành động nào xảy ra sau chia thì quá khứ đơn.
+- Ta thấy: hành động thức giấc là hành động xảy ra sau -&gt; quá khứ đơn (woke up)
+hành động đang nằm xảy ra trước và vẫn còn đang xảy ra -&gt; quá khứ tiếp diễn (was
+lying)</t>
+  </si>
+  <si>
+    <t>Đáp án A
+- Tạm dịch: Bố tôi đã quyết định thuê một chiếc xe hơi thì một trong số những người bạn của bố
+đã gọi điện để đề nghị dùng xe của ông ấy cho chuyến đi.
+=&gt; Việc bố tôi quyết định thuê một chiếc xe hơi xảy ra trước hành động bạn bố tôi gọi. =&gt; Trước
+của quá khứ ta chia thì quá khứ hoàn thành.
+*Hành động “decide” trong ngữ cảnh này không thể chia thì tiếp diễn, vì nó là hành động tức
+thời nên không chọn B để hiểu nó theo cách một hành động đang diễn ra thì có một hành động
+khác xen vào.</t>
+  </si>
+  <si>
+    <t>Đáp án A
+- Dịch nghĩa: Cô ấy lẽ ra nên thông báo cho cảnh sát ngay khi cô ấy phát hiện ra cái ví của mình
+đã bị mất trộm.
+=&gt; Ta có hành động “mất ví” xảy ra trước hành động “phát hiện” nên ta chia thì quá khứ đơn cho
+hành động diễn ra sau là “phát hiện”; hành động diễn ra trước chia quá khứ hoàn thành.</t>
+  </si>
+  <si>
+    <t>Đáp án A
+- Cấu trúc: This is the first/second/third… + S + V(hiện tại hoàn thành)
+=&gt; Đáp án: A
+- Tạm dịch: Đây là vị khách hàng đầu tiên mà hôm nay chúng tôi đã bán cho.</t>
+  </si>
+  <si>
+    <t>Yesterday on TV they_____a heavy shower for today, but I_____ even a single drop yet.</t>
+  </si>
+  <si>
+    <t>announced - am not seeing</t>
+  </si>
+  <si>
+    <t>announced - didn’t see</t>
+  </si>
+  <si>
+    <t>have announced - haven’t seen</t>
+  </si>
+  <si>
+    <t>announced - haven’t seen</t>
+  </si>
+  <si>
+    <t>You don’t have to worry about the children, they_____all about this by the end of the semester.</t>
+  </si>
+  <si>
+    <t>will be forgetting</t>
+  </si>
+  <si>
+    <t>will have forgotten</t>
+  </si>
+  <si>
+    <t>will forget</t>
+  </si>
+  <si>
+    <t>are going to forget</t>
+  </si>
+  <si>
+    <t>Đáp án B
+* Đáp án: will have forgotten.
+* Giải thích: by + mốc thời gian tương lai =&gt; chia thì tương lai hoàn thành.
+* Dịch nghĩa: Không cần lo về lũ trẻ đâu, chúng sẽ quên hết sau khi hết kỳ học này thôi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I’ve just noticed that she_____a haircut. It_____wonderful.</t>
+  </si>
+  <si>
+    <t>will have - has looked</t>
+  </si>
+  <si>
+    <t>had had - looked</t>
+  </si>
+  <si>
+    <t>has had - looks</t>
+  </si>
+  <si>
+    <t>had - is looking</t>
+  </si>
+  <si>
+    <t>While she_____for her sister outside the supermarket, someone __her handbag.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">had to wait - had stolen </t>
+  </si>
+  <si>
+    <t>waited - had been stealing</t>
+  </si>
+  <si>
+    <t>had waited - was stealing</t>
+  </si>
+  <si>
+    <t>was waiting - stole</t>
+  </si>
+  <si>
+    <t>Đáp án D
+- was waiting – stole
+- Giải thích: while S –Ving: Trong khi ai đó đang làm gì
+- Dịch: Trong khi cô ấy chờ chị gái ngoài siêu thị, ai đó đã trộm túi của cô.</t>
+  </si>
+  <si>
+    <t>Đáp án D
+- announced – haven’t seen
+* Giải thích: yesterday =&gt; Qk đơn; yet =&gt; hiện tại hoàn thành
+* Dịch nghĩa: Hôm qua TV báo hôm nay sẽ mưa rào nhưng tôi chưa thấy hạt mưa nào cả.</t>
+  </si>
+  <si>
+    <t>Đáp án C
+- has had - looks
+- Giải thích: hiện tại hoàn thành diễn tả 1 hành động mới xảy ra và kết quả còn ở hiện tại.
+- Chú ý: look với nghĩa là “trông” nên không chia thì tiếp diễn
+Dịch nghĩa: Tôi vừa mới nhận ra là cô ấy đã cắt tóc. Trông thật tuyệt.</t>
+  </si>
+  <si>
+    <t>The spokesperson_____her speech yet when an angry audience member_____shouting at her</t>
+  </si>
+  <si>
+    <t xml:space="preserve">won’t finish - begins </t>
+  </si>
+  <si>
+    <t>didn’t finish - was beginning</t>
+  </si>
+  <si>
+    <t>hadn’t finished - began</t>
+  </si>
+  <si>
+    <t>doesn’t finish - is beginning</t>
+  </si>
+  <si>
+    <t>Đáp án C
+hadn’t finished – began
+Giải thích: yet =&gt; thì hoàn thành
+Dịch: Phát thanh viên vẫn chưa nói xong khi mà một khán giả bắt đầu tức giận quát mắng cô.</t>
+  </si>
+  <si>
+    <t>This is the forty-second composition paper I__so far, and there __seventyfive more.</t>
+  </si>
+  <si>
+    <t>will have checked - are going to be</t>
+  </si>
+  <si>
+    <t>had checked - were</t>
+  </si>
+  <si>
+    <t>have checked – are</t>
+  </si>
+  <si>
+    <t>checked - will be</t>
+  </si>
+  <si>
+    <t>The carelessness of parents often_____children to be subject to many household accidents.</t>
+  </si>
+  <si>
+    <t>causes</t>
+  </si>
+  <si>
+    <t>is caused</t>
+  </si>
+  <si>
+    <t>Đáp án C
+=&gt; Ta có: This is the first/second/… + S + (have) P2: đây là cái thứ mấy, lần thứ mấy … ai đó
+làm gì đó
+=&gt; Dùng thì hiện tại hoàn thành cho vế đầu.
+Dịch: Đây là bản thảo thứ 42 tôi kiểm tra, và vẫn còn 75 bản nữa.</t>
+  </si>
+  <si>
+    <t>Đáp án A
+* Đáp án: causes
+* Giải thích: hiện tại đơn diễn tả 1 sự thật hiển nhiên, 1 chân lý.
+* Dịch nghĩa: Sự bất cẩn của cha mẹ thường khiến trẻ em chịu nhiều tai nạn trong gia đình.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -317,6 +1001,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -339,11 +1036,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -365,8 +1059,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -648,347 +1364,891 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="C3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A36" sqref="A2:XFD36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="67.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="2"/>
-    <col min="7" max="7" width="39.42578125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="67.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="87.85546875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="B5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F11" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="G11" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="G13" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="G15" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="G17" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="F19" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="2" t="s">
+      <c r="G19" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="2" t="s">
+      <c r="G21" s="16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F10" s="2" t="s">
+      <c r="G23" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="135" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="2" t="s">
+      <c r="G26" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G11" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F12" s="2" t="s">
+      <c r="G28" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F13" s="2" t="s">
+      <c r="G29" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="195" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F14" s="2" t="s">
+      <c r="G32" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="225" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15" t="s">
-        <v>79</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>80</v>
+      <c r="G34" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -999,67 +2259,891 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A36" sqref="A2:XFD36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="2"/>
-    <col min="7" max="7" width="39.42578125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="67.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="87.85546875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="C5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>24</v>
+      <c r="G5" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>220</v>
       </c>
     </row>
   </sheetData>

--- a/file/exercise.xlsx
+++ b/file/exercise.xlsx
@@ -2,13 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr showObjects="none" filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="12 thì" sheetId="1" r:id="rId1"/>
     <sheet name="Sự phối thì" sheetId="6" r:id="rId2"/>
+    <sheet name="Hòa hợp giữa chủ ngữ và động tu" sheetId="7" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="919">
   <si>
     <t>question</t>
   </si>
@@ -2708,12 +2710,899 @@
 – Căn cứ vào đây là mệnh đề trạng ngữ chỉ thời gian: V (nguyên dạng)/Don’t + V (nguyên dạng) + until/As soon as + S + V (hiện tại đơn/ hiện tại hoàn thành).
 – Dịch: Hãy gửi cho chúng tôi bưu thiếp ngay sau khi bạn đến London</t>
   </si>
+  <si>
+    <t>A large number of students in Chu Van An high school_______English fluently.</t>
+  </si>
+  <si>
+    <t>speaks</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> is speaking</t>
+  </si>
+  <si>
+    <t>has spoken</t>
+  </si>
+  <si>
+    <t>speak</t>
+  </si>
+  <si>
+    <t>Five billion dollars _____ not enough to aid the victims of the earthquake.</t>
+  </si>
+  <si>
+    <t>were</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>are</t>
+  </si>
+  <si>
+    <t>A series of lectures _____ being presented at the Central Hall this week.</t>
+  </si>
+  <si>
+    <t>will be</t>
+  </si>
+  <si>
+    <t>has become</t>
+  </si>
+  <si>
+    <t>- Đáp án D
+* Giải thích: A series of + N(số nhiều) + V(số ít).
+* Dịch nghĩa: Một chuỗi bài giảng sẽ được trình bày ở trung tâm hội nghị tuần này.</t>
+  </si>
+  <si>
+    <t>- Đáp án D
+- Cụm danh từ “A number of + N (số nhiều)” thì V (chia số nhiều).
+=&gt; Dùng “large” trước “number” để bổ nghĩa và nhấn mạnh thêm hàm ý muốn nói là “rất nhiều”
+- Dịch nghĩa: Những học sinh ở trường cấp ba Chu Văn An nói tiếng anh rất trôi chảy.</t>
+  </si>
+  <si>
+    <t>Beauty as well as health ___ failed her term</t>
+  </si>
+  <si>
+    <t>have</t>
+  </si>
+  <si>
+    <t>Two years in a strange country ___ like a long time for lonely people.</t>
+  </si>
+  <si>
+    <t>is appearing</t>
+  </si>
+  <si>
+    <t>has appeared</t>
+  </si>
+  <si>
+    <t>appears</t>
+  </si>
+  <si>
+    <t>appeared</t>
+  </si>
+  <si>
+    <t>- Đáp án A
+Trong câu hai danh từ nối với nhau bằng “as well as” nên động từ chia theo chủ ngữ thứ nhất.
+- Chủ ngữ một là “beauty” nên động từ chia số ít. Do đó ta loại B,D
+- Sau động từ “failed” có tân ngữ “her term” nên ta xác định câu này là câu chủ động, không thể chia ở thể bị động
+- Dịch nghĩa: Sức khỏe cũng như sắc đẹp đã làm nhiệm kì này của cô ấy thất bại</t>
+  </si>
+  <si>
+    <t>- Đáp án C
+- Trong câu chủ ngữ là đại lượng chỉ tiền bạc nên động từ chia số ít. Khi chủ ngữ là đại lượng, đơn vị liên quan đến tiền bạc thì ta luôn chia số ít.
+- Dịch nghĩa: Năm tỷ đô-la thì không đủ để cứu trợ các nạn nhân của trận động đất.</t>
+  </si>
+  <si>
+    <t>-Đáp án C
+- Câu diễn tả một sự thật, một thực tế mà ai cũng thừa nhận như một điều đương nhiên =&gt; chia hiện tại đơn
+=&gt; Trong câu chủ ngữ là đại lượng chỉ thời gian nên động từ chia số ít.
+- Dịch nghĩa: Hai năm ở một đất nước xa lạ dường như quá lâu với những người cô đơn</t>
+  </si>
+  <si>
+    <t>Peter, with his two buddies, ____ the cherry tree now.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> has split</t>
+  </si>
+  <si>
+    <t>have split</t>
+  </si>
+  <si>
+    <t>is splitting</t>
+  </si>
+  <si>
+    <t>are splitting</t>
+  </si>
+  <si>
+    <t>- Đáp án C
+- Trong câu khi hai danh từ nối với nhau bằng “with” thì động từ chia theo chủ ngữ thứ nhất.
+- Chủ ngữ một là “Peter” nên động từ chia số ít.
+- “Now” là dấu hiệu của thì hiện tại tiếp diễn.
+- Dịch nghĩa: Bây giờ Peter cùng với hai người bạn thân của anh ấy đang chẻ cây anh đào màu đỏ.</t>
+  </si>
+  <si>
+    <t>Bread and butter ___ what Jane asks for.</t>
+  </si>
+  <si>
+    <t>- Đáp án A
+- Trong câu hai danh từ nối với nhau bằng“and” nên động từ chia số nhiều. Tuy nhiên nếu hai danh từ nối với nhau bằng “and” mà chỉ cùng một người/một món ăn/một bộ phận thì động từ lại chia số ít.
+- Dịch nghĩa: Bánh mỳ bơ là những gì Jane yêu cầu</t>
+  </si>
+  <si>
+    <t>If anyone ____, tell them I will call when I come back.</t>
+  </si>
+  <si>
+    <t>was calling</t>
+  </si>
+  <si>
+    <t>called</t>
+  </si>
+  <si>
+    <t>call</t>
+  </si>
+  <si>
+    <t>calls</t>
+  </si>
+  <si>
+    <t>- Đáp án D
+- Khi chủ ngữ là “anyone” thì động từ chia số ít.
+- Dịch nghĩa: Nếu ai đó gọi, hãy nói họ tôi sẽ gọi khi tôi quay trở lại.</t>
+  </si>
+  <si>
+    <t>The film “Titanic” __ very interesting and romantic.</t>
+  </si>
+  <si>
+    <t>- Đáp án A
+-Khi chủ ngữ là tựa đề của một bộ phim thì động từ chia số ít. Và đó là sự thật hiển nhiên, một đặc điểm, tính chất của sự vật hiện tượng được nhiều người công nhận, nên ta chia hiện tại đơn.
+- Dịch nghĩa: Bộ phim Titanic thì rất thú vị và lãng mạn.</t>
+  </si>
+  <si>
+    <t>Mathematics ___ my favorite subject.</t>
+  </si>
+  <si>
+    <t>- Đáp án A
+- Chủ ngữ là danh từ chỉ tên môn học ở dạng số nhiều nhưng theo quy tắc động chia số ít.
+- Dịch nghĩa: Toán là môn học yêu thích của tôi.</t>
+  </si>
+  <si>
+    <t>Neither the parents nor the children _____ aware of the danger.</t>
+  </si>
+  <si>
+    <t>- Đáp án C
+- Dịch nghĩa: Cả bố mẹ và con cái đều không nhận thức được sự nguy hiểm đó.
+* Cấu trúc:
+- Be aware of st: ý thức về cái gì
+- Neither + S1 + nor + S2 + V(chia theo chủ ngữ 2). Do đó, ta loại B, D vì “children” là danh từ số nhiều
+- Câu này mang ý đưa ra nhận xét nên ta chọn chia ở thì hiện tại đơn</t>
+  </si>
+  <si>
+    <t>The Browns ____ in New York since they migrated to America in 2000.</t>
+  </si>
+  <si>
+    <t>are living</t>
+  </si>
+  <si>
+    <t>have lived</t>
+  </si>
+  <si>
+    <t>have been living</t>
+  </si>
+  <si>
+    <t>has been living</t>
+  </si>
+  <si>
+    <t>- Đáp án C
+- Chủ ngữ “the Browns” (gia đình nhà Browns) là danh từ số nhiều.
+* Cấu trúc: S + V (hiện tại hoàn thành) since S + V (quá khứ đơn).
+- Dịch nghĩa: Gia đình Brown đã sống ở New York từ khi họ di cư đến Mỹ năm 2000.
+=&gt; Khi muốn nhấn mạnh quá trình của hành động ta dùng thì hiện tại hoàn thành tiếp diễn thay cho thì hiện tại hoàn thành</t>
+  </si>
+  <si>
+    <t>Each of the boys in my class ____ the football team.</t>
+  </si>
+  <si>
+    <t>joins</t>
+  </si>
+  <si>
+    <t>have joined</t>
+  </si>
+  <si>
+    <t>are joining</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>- Đáp án A
+- Each + of + danh từ/ đại từ số nhiều thì V (chia số ít).
+- Dịch nghĩa: Mỗi cậu bé trong lớp học của tôi tham gia vào đội bóng đá.</t>
+  </si>
+  <si>
+    <t>Neither of the restaurants we went to ____ expensive.</t>
+  </si>
+  <si>
+    <t>- Đáp án C
+- Neither + of + danh từ/ đại từ số nhiều + V(số ít)
+- Dịch nghĩa: Chẳng nhà hàng nào chúng tôi đến là đắt cả</t>
+  </si>
+  <si>
+    <t>Neither Mary nor her brothers _____ a consent form for tomorrow’s field trip.</t>
+  </si>
+  <si>
+    <t>need</t>
+  </si>
+  <si>
+    <t>needs</t>
+  </si>
+  <si>
+    <t>is needing</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> has needed</t>
+  </si>
+  <si>
+    <t>- Đáp án A
+* Giải thích:
+- Trong câu khi hai chủ ngữ nối với nhau bằng cấu trúc “neither … nor” thì động từ chia theo chủ ngữ hai.
+- Chủ ngữ hai là “her brothers” nên động từ chia số nhiều.</t>
+  </si>
+  <si>
+    <t>Here ___ notebook and report that I promised you last week.</t>
+  </si>
+  <si>
+    <t>is the</t>
+  </si>
+  <si>
+    <t>are the</t>
+  </si>
+  <si>
+    <t>was the</t>
+  </si>
+  <si>
+    <t>were the</t>
+  </si>
+  <si>
+    <t>- Đáp án A
+=&gt; Vì: khi Here đứng đầu câu thì động từ chia theo chủ ngữ đứng sau là the notebook and report. Vì the notebook and report là cùng một vật (cuốn sổ ghi chép và báo cáo) nên động từ chia theo số ít.
+=&gt; Dịch: Đây là cuốn sổ ghi chép và báo cáo mà tôi đã hứa với bạn cuối tuần trước.</t>
+  </si>
+  <si>
+    <t>Mr. John, accompanied by several members of the committee, ____ proposed some changes of the rules.</t>
+  </si>
+  <si>
+    <t>- Đáp án B
+- Trong câu khi hai danh từ nối với nhau bằng “accompanied by” thì động từ chia theo chủ ngữ thứ nhất.
+- Chủ ngữ một “Mr.John” nên động từ chia số ít.
+* Dịch nghĩa: Mr. John cùng với một vài thành viên của hội đồng đã đề xuất một vài thay đổi trong quy định</t>
+  </si>
+  <si>
+    <t>Advertisements on YouTube ____ becoming more competitive than ever before.</t>
+  </si>
+  <si>
+    <t>- Đáp án C
+- Chủ ngữ “advertisements” là danh từ số nhiều nên V (chia số nhiều).
+- Dịch nghĩa: Những quảng cáo trên YouTube ngày càng trở nên có sức cạnh tranh hơn trước đây.</t>
+  </si>
+  <si>
+    <t>A number of sheep ___ died of a strange illness.</t>
+  </si>
+  <si>
+    <t>- Đáp án A
+* Giải thích:
+- Cụm danh từ “A number of “+ N (số nhiều) + V (chia số nhiều). Từ đó, ta loại B, C
+- Do “die” là nội động từ nên không có dạng bị động nên ta loại D
+- Sheep (n): con cừu (vừa là danh từ số ít vừa là danh từ số nhiều)
+* Dịch: Nhiều con cừu đã chết vì bệnh lạ.</t>
+  </si>
+  <si>
+    <t>Half of the letters she sent him ____ in purple ink.</t>
+  </si>
+  <si>
+    <t>wrote</t>
+  </si>
+  <si>
+    <t>has written</t>
+  </si>
+  <si>
+    <t>was written</t>
+  </si>
+  <si>
+    <t>were written</t>
+  </si>
+  <si>
+    <t>- Đáp án D
+- Half + N (số nhiều) thì V (chia số nhiều) vì cấu trúc: “Half of + N + V(chia theo N)”
+- Dịch nghĩa: Một nửa số lá thư cô ấy gửi cho anh ấy đã được viết bằng mực tím.</t>
+  </si>
+  <si>
+    <t>Either Laura or her husband _____ breakfast each morning</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> is making</t>
+  </si>
+  <si>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>- Đáp án C
+=&gt; Trong câu khi hai danh từ nối với nhau bằng cấu trúc “either … or” thì động từ chia theo chủ
+ngữ hai.
+- Chủ ngữ hai là “her husband” nên động từ chia số ít.
+* Dịch nghĩa: Hoặc Laura hoặc chồng cô ấy làm bữa sáng.</t>
+  </si>
+  <si>
+    <t>The army ____ eliminated this section of the training test</t>
+  </si>
+  <si>
+    <t>is having</t>
+  </si>
+  <si>
+    <t>What he told you ___ to be of no importance.</t>
+  </si>
+  <si>
+    <t>seems</t>
+  </si>
+  <si>
+    <t>seem</t>
+  </si>
+  <si>
+    <t>must seem</t>
+  </si>
+  <si>
+    <t>have seemed</t>
+  </si>
+  <si>
+    <t>- Đáp án A
+*Theo cấu trúc mệnh đề danh từ: That/wh_/…+ S + V1(chia theo S) + V(chính, luôn chia ở dạng số ít)+…..
+=&gt; Do đó, động từ cần chia chỉ có thể là A hoặc C. Xét nghĩa ta chọn A
+* Dịch: Điều anh ta đã nói với bạn dường như là không quan trọng</t>
+  </si>
+  <si>
+    <t>- Đáp án D
+- Căn cứ vào danh từ army (quân đội) là danh từ chỉ tập hợp nên động từ chia ở dạng số nhiều.
+* Ta loại phương án A và B. Đây là một quy tắc cần ghi nhớ trong sự hòa hợp giữa chủ ngữ và động từ. Ta hiểu rằng “quân đội” ở đây ám chỉ những người/cán bộ trong quân đội nên nó sẽ mang tính chất số nhiều -&gt; động từ chia số nhiều.
+- Căn cứ vào nghĩa của câu: Quân đội đã loại bỏ phần này trong bài kiểm tra huấn luyện.
+=&gt; Câu mang nghĩa chủ động nên ta loại phương án C.</t>
+  </si>
+  <si>
+    <t>Psychologists have found that the number of social contacts we have _____ only reason for loneliness.</t>
+  </si>
+  <si>
+    <t>are not the</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> is not the</t>
+  </si>
+  <si>
+    <t>are not an</t>
+  </si>
+  <si>
+    <t>is not an</t>
+  </si>
+  <si>
+    <t>- Đáp án B
+- Cụm danh từ “The number of” + N (số nhiều) thì V (chia số ít): số lượng cái gì….
+- Ta dùng cụm từ: “the only + N: cái gì duy nhất”, do đó chọn B
+* Dịch nghĩa: Những nhà tâm lí học đã phát hiện ra rằng số lượng những mối quan hệ xã hội mà chúng ta có không phải là lí do duy nhất cho sự cô đơn.</t>
+  </si>
+  <si>
+    <t>The flock of birds_____ circling overhead.</t>
+  </si>
+  <si>
+    <t>- Đáp án C
+- Khi hai danh từ nối với nhau bằng “of” thì động từ chia theo chủ ngữ thứ nhất.
+- Chủ ngữ một là “the flock”-bầy/đàn như một thể thống nhất, không phải riêng biệt dù chúng bao gồm nhiêu con trong đó, nên động từ chia số ít.
+*Dịch nghĩa: Đàn chim đang bay vòng tròn trên bầu trời.</t>
+  </si>
+  <si>
+    <t>The use of credit cards in place of cash ______ increased rapidly in recently years.</t>
+  </si>
+  <si>
+    <t>- Đáp án C
+* Căn cứ: Khi hai danh từ nối với nhau bằng “of” thì động từ chia theo chủ ngữ thứ nhất.
+* Chủ ngữ một là “the use” là số ít, ở đây đơn thuần mang nghĩa chủ động vì “việc sử dụng đó” tự nó tăng lên do nhu cầu sử dụng nhiều của con người chứ không phải con người cố ý làm cho nó tăng lên
+* Dịch nghĩa: Việc sử dụng những chiếc thẻ tín dụng thay thế tiền mặt đã tăng lên nhanh chóng trong những năm gần đây.</t>
+  </si>
+  <si>
+    <t>The fact that the new staff members were complimented on their achievement ____ known to the whole company</t>
+  </si>
+  <si>
+    <t>- Đáp án C
+- Trong mệnh đề quan hệ động từ chia theo danh từ ở mệnh đề chính là “the fact”. Vì câu đã có mệnh đề quan hệ “that the new….their achievement” nên vị trí còn thiếu phải là động từ chính của câu.
+=&gt; Danh từ “the fact” nên động từ chia số ít. Động từ cần chia bị động “được biết đến” nên còn thiếu “tobe” -&gt; chia “was”
+* Dịch nghĩa: Thực tế rằng việc toàn thể nhân viên mới đã được khen ngợi vì thành tích của họ đã
+được biết đến trong toàn bộ công ty.</t>
+  </si>
+  <si>
+    <t>If nobody ___ bought that car from the dealer, then you should return and make another offer.</t>
+  </si>
+  <si>
+    <t>- Đáp án D
+=&gt; Key: D. has
+=&gt; Vì: khi chủ ngữ là đại từ bất định như nobody thì động từ chia số ít và không dùng thì tương lai trong mệnh đề If
+=&gt; Dịch: Nếu không có ai mua chiếc xe đó từ đại lý, thì bạn nên quay lại và đưa ra một đề nghị khác.</t>
+  </si>
+  <si>
+    <t>Massachusetts and Connecticut ___ located in New England.</t>
+  </si>
+  <si>
+    <t>- Đáp án D
+=&gt; Vì: chủ ngữ là số nhiều và diễn tả sự thật hiển nhiên
+* Dịch: Massachusetts and Connecticut nằm ở New England</t>
+  </si>
+  <si>
+    <t>Everything ___ bright and clean.</t>
+  </si>
+  <si>
+    <t>looking</t>
+  </si>
+  <si>
+    <t>to look</t>
+  </si>
+  <si>
+    <t>looks</t>
+  </si>
+  <si>
+    <t>is looking</t>
+  </si>
+  <si>
+    <t>- Đáp án C
+- Vì đại từ bất định “everything” đi với động từ số ít. Loại đáp án D vì động từ tri giác “look” khi mang nghĩa “trông ra làm sao” thì nó không bao giờ dùng ở dạng tiếp diễn.
+*Dịch: Mọi thứ trông sáng sủa và sạch sẽ.</t>
+  </si>
+  <si>
+    <t>Much homework ___ given to students every day</t>
+  </si>
+  <si>
+    <t>- Đáp án B
+=&gt; Vì: Homework là danh từ không đếm được. Ta dùng: Much + N(không đếm được) + V(số ít):
+nhiều cái gì. Hơn nữa, có everyday nên ta chia thì hiện tại đơn
+* Dịch: Nhiều bài tập về nhà được giao cho học sinh mỗi ngày</t>
+  </si>
+  <si>
+    <t>The facilities at the new research library, including an excellent microfilm file,____ wonderful.</t>
+  </si>
+  <si>
+    <t>- Đáp án A
+=&gt; Vì: động từ chia theo chủ ngữ “facilities”, là danh từ số nhiều =&gt; động từ ở dạng số nhiều
+*Dịch: Cơ sở vật chất tại thư viện nghiên cứu mới, bao gồm một tệp vi phim thì tuyệt vời</t>
+  </si>
+  <si>
+    <t>The police ___ making enquiries about the murder.</t>
+  </si>
+  <si>
+    <t>be</t>
+  </si>
+  <si>
+    <t>To do such a hard work___ so many people.</t>
+  </si>
+  <si>
+    <t>needing</t>
+  </si>
+  <si>
+    <t>to need</t>
+  </si>
+  <si>
+    <t>- Đáp án D
+=&gt; Key: D. needs
+=&gt; Vì: khi chủ ngữ là cụm To + V thì động từ theo sau phải chia ở dạng số it
+*Dịch: Để thực hiện một công việc khó cần rất nhiều người</t>
+  </si>
+  <si>
+    <t>The methods for studying the world _____ been developed slowly through the work of many people.</t>
+  </si>
+  <si>
+    <t>having</t>
+  </si>
+  <si>
+    <t>to have</t>
+  </si>
+  <si>
+    <t>- Đáp án A
+=&gt; Vì: Chủ ngữ là “The methods for studying the world” =&gt; Danh từ số nhiều =&gt; động từ chia ở dạng số nhiều
+* Dịch: Các phương pháp nghiên cứu thế giới được phát triển chậm thông qua công việc của nhiều người.</t>
+  </si>
+  <si>
+    <t>The regulations governing animal research ___ many provisions to safeguard animal welfare.</t>
+  </si>
+  <si>
+    <t>contains</t>
+  </si>
+  <si>
+    <t>contain</t>
+  </si>
+  <si>
+    <t>have been contained</t>
+  </si>
+  <si>
+    <t>is containing</t>
+  </si>
+  <si>
+    <t>- Đáp án B
+=&gt; Key: B. contain
+=&gt; Vì: câu mang nghĩa là một sự thật hiển nhiên, chia hiện tại đơn; với chủ ngữ là “The regulations governing animal research”, danh từ số nhiều =&gt; động từ chia số nhiều
+* Dịch: Các quy định quản lý nghiên cứu động vật bao gồm nhiều quy định để bảo vệ sức khỏe động vật.</t>
+  </si>
+  <si>
+    <t>Thanks to the recent anti-smoking campaign, the number of smokers in the country ___.</t>
+  </si>
+  <si>
+    <t>has reduced</t>
+  </si>
+  <si>
+    <t>reduce</t>
+  </si>
+  <si>
+    <t>to reduce</t>
+  </si>
+  <si>
+    <t>having reduced</t>
+  </si>
+  <si>
+    <t>- Đáp án A
+- Vì: the number of + N + V chia số ít: số lượng ai/cái gì….
+*Dịch: Nhờ chiến dịch chống hút thuốc gần đây, số người hút thuốc trong nước đã giảm</t>
+  </si>
+  <si>
+    <t>Each of the 4 types of human ___ suited for a specific purpose.</t>
+  </si>
+  <si>
+    <t>tooth are</t>
+  </si>
+  <si>
+    <t>teeth is</t>
+  </si>
+  <si>
+    <t>tooth is</t>
+  </si>
+  <si>
+    <t>teeth are</t>
+  </si>
+  <si>
+    <t>- Đáp án B
+=&gt; Vì: rằng người là sô nhiều =&gt; dùng teeth, nguyên tắc each of + N số nhiều + V số ít =&gt; chọn teeth is
+*Dịch: Mỗi loại trong số 4 loại răng của con người đều phù hợp cho một mục đích cụ thể</t>
+  </si>
+  <si>
+    <t>There ____ shops on either side of the street many years ago.</t>
+  </si>
+  <si>
+    <t>- Đáp án A
+=&gt; Key: A. were
+=&gt; Vì: khi câu bắt đầu bằng There thì động từ chia theo danh từ phía sau, ở đây shops là danh từ
+số nhiều =&gt; động từ ở dạng số nhiều, có dấu hiệu nhận biết củ thì quá khứ đơn ago =&gt; were
+*Dịch: Đã từng có nhiều cửa hàng ở hai bên đường nhiều năm trước</t>
+  </si>
+  <si>
+    <t>Neither of my parents ____my boyfriend.</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>likes</t>
+  </si>
+  <si>
+    <t>liked</t>
+  </si>
+  <si>
+    <t>has liked</t>
+  </si>
+  <si>
+    <t>- Đáp án B
+- Neither + of + danh từ/ đại từ số nhiều + V(số ít)
+*Dịch nghĩa: Cả hai bố mẹ tôi đều không thích bạn trai tôi.</t>
+  </si>
+  <si>
+    <t>The teams ______ends at half-time so that neither side has an unfair advantage.</t>
+  </si>
+  <si>
+    <t>has changed</t>
+  </si>
+  <si>
+    <t>change</t>
+  </si>
+  <si>
+    <t>changes</t>
+  </si>
+  <si>
+    <t>- Đáp án B
+=&gt; Key: B. change
+=&gt; Vì: động từ sau teams chia ở dạng số nhiều và ở đây là thì hiện tại đơn =&gt; change
+*Dịch: Các đội thay đổi kết thúc ở một nửa thời gian để không bên nào có lợi thế không công bằng</t>
+  </si>
+  <si>
+    <t>Physics ____ my favorite subject when I was at high school.</t>
+  </si>
+  <si>
+    <t>- Đáp án C
+- Physics (môn vật lý) mặc dù tận cùng bằng -s nhưng chỉ tên một môn học -&gt; danh từ số ít.
+- Do đó, động từ cần chia ở dạng số ít. Ta loại phương án B và D.
+*Dịch nghĩa: Môn vật lý là môn học yêu thích của tôi khi còn học phổ thông.
+=&gt; Do có mệnh đề trạng ngữ chỉ thời gian (when I was at high school) nên động từ trong mệnh đề chính chia thì quá khứ đơn.</t>
+  </si>
+  <si>
+    <t>The unemployed ___ to live on the unemployment benefits</t>
+  </si>
+  <si>
+    <t>- Đáp án B
+* Vì:
+- The unemployed (những người thất nghiệp) + động từ ở dạng số nhiều
+- Ở đây diễn tả sự việc diễn ra thường xuyên =&gt; hiện tại đơn
+*Note: “The + adj”: chỉ tập thể những người có đặc điểm, tính chất adj đó.
+*Dịch: Những người thất nghiệp phải sống dựa vào khoản trợ cấp thất nghiệp</t>
+  </si>
+  <si>
+    <t>Why he was absent from the class yesterday ___ unknown.</t>
+  </si>
+  <si>
+    <t>- Đáp án A
+- Căn cứ: chủ ngữ là mệnh đề danh từ: “why + S + V” =&gt; Động từ “to be” chia số ít =&gt; chia “is”.
+*Dịch nghĩa: Việc tại sao anh ấy vắng mặt ở lớp ngày hôm qua thì không được biết đến.</t>
+  </si>
+  <si>
+    <t>I’m poor! Nobody ____ me.” “I know a person who ____ you. It’s me.”</t>
+  </si>
+  <si>
+    <t>love/likes</t>
+  </si>
+  <si>
+    <t>loves/like</t>
+  </si>
+  <si>
+    <t>loves/likes</t>
+  </si>
+  <si>
+    <t>love/like</t>
+  </si>
+  <si>
+    <t>- Đáp án C
+=&gt; Key: C. loves/likes
+=&gt; Vì: chỗ trống đầu tiên: động từ sau Nobody phải chia ở dạng số ít, chỗ trống thứ 2 thì động từ có chủ ngữ là a person =&gt; chia ở dạng số ít
+*Dịch: “Tôi rất đáng thương. Không ai yêu thích tôi cả “. “ Tôi biết một người thích bạn. Đó là tôi”</t>
+  </si>
+  <si>
+    <t>The furniture he has in his bedroom ____ a bed and a table</t>
+  </si>
+  <si>
+    <t>- Đáp án A
+=&gt; Key: A. is
+=&gt; Vì: Furniture là danh từ không đếm được =&gt; động từ chia ở dạng số ít, câu này ở hiện tại đơn =&gt; is
+* Dịch: Nội thất anh ta có trong phòng ngủ của anh ta là một cái giường và một cái bàn.</t>
+  </si>
+  <si>
+    <t>Learning English to find a better job ____ my aim in the next time.</t>
+  </si>
+  <si>
+    <t>- Đáp án A
+=&gt; Key: A. is
+=&gt; Vì: chủ ngữ là learning english =&gt; chia động từ số ít, do đang diễn tả mục đích hiện tại =&gt; hiện tại đơn
+* Dịch: Việc học tiếng anh để tìm một công việc tốt hơn là mục tiêu của tôi trong thời gian tới</t>
+  </si>
+  <si>
+    <t>Can I borrow your dictionary for a moment? Mine ____</t>
+  </si>
+  <si>
+    <t>have been lef</t>
+  </si>
+  <si>
+    <t>has been lef</t>
+  </si>
+  <si>
+    <t>was left</t>
+  </si>
+  <si>
+    <t>were left</t>
+  </si>
+  <si>
+    <t>- Đáp án B
+=&gt; Key: B. has been left
+=&gt; Vì: Mine là cái của tôi =&gt; danh từ số ít =&gt; động từ chia số ít, mà ở đây diễn tả việc bỏ quên từ điển ở 1 thời điểm không xác định trong quá khứ =&gt; dùng thì hiện tại hoàn thành
+* Dịch: Tôi có thể mượn từ điển của bạn một lúc không? Quyển của tôi đã bị để quên rồi</t>
+  </si>
+  <si>
+    <t>According to the announcement, only 30% of the applicants _____selected for the next interview.</t>
+  </si>
+  <si>
+    <t>been</t>
+  </si>
+  <si>
+    <t>- Đáp án A
+=&gt; Key: A. are
+=&gt; Vì: chủ ngữ là 30% =&gt; dựa vào danh từ sau of để chia, applicants là danh từ số nhiều =&gt; động từ chia ở dạng sso nhiều
+* Dịch: Theo thông báo, chỉ có 30% số người nộp đơn được chọn cho cuộc phỏng vấn tiếp theo</t>
+  </si>
+  <si>
+    <t>The development of popular music through the ages _____by the documentary.</t>
+  </si>
+  <si>
+    <t>was traced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">were traced </t>
+  </si>
+  <si>
+    <t>have been traced</t>
+  </si>
+  <si>
+    <t>are traced</t>
+  </si>
+  <si>
+    <t>- Đáp án A
+- Trong câu khi hai danh từ nối với nhau bằng “of” thì động từ chia theo danh từ thứ nhất.
+- Danh từ “the development” nên động từ chia số ít.
+* Dịch nghĩa: Sự phát triển phổ biến của âm nhạc qua nhiều năm đã được đánh dấu bằng phim tài liệu.</t>
+  </si>
+  <si>
+    <t>Living expenses in this country, as well as in many others, is at an all-time high.</t>
+  </si>
+  <si>
+    <t>Living</t>
+  </si>
+  <si>
+    <t>as well as</t>
+  </si>
+  <si>
+    <t>all-time</t>
+  </si>
+  <si>
+    <t>- Đáp án C
+- Trong câu hai danh từ nối với nhau bằng “as well as” nên động từ chia theo chủ ngữ thứ nhất.
+- Chủ ngữ một “Living expenses” là danh từ số nhiều nên động từ phải chia ở dạng số nhiều (is =&gt; are)
+*Dịch nghĩa: Chi phí sinh hoạt ở vùng này cũng như nhiều nơi khác ở mức cao chưa từng thấy</t>
+  </si>
+  <si>
+    <t>The effects of cigarette smoking has been proven to be extremely harmful.</t>
+  </si>
+  <si>
+    <t>The</t>
+  </si>
+  <si>
+    <t>cigarette smoking</t>
+  </si>
+  <si>
+    <t>extremely</t>
+  </si>
+  <si>
+    <t>- Đáp án C
+- Đáp án: has =&gt; have
+*Giải thích:
+- Trong câu hai danh từ nối với nhau bằng “of” thì động từ chia theo chủ ngữ thứ nhất.
+- Chủ ngữ một là “the effects” nên động từ chia số nhiều.
+*Dịch nghĩa: Những ảnh hưởng của việc hút thuốc lá đã được chứng minh cực kì có hại</t>
+  </si>
+  <si>
+    <t>It is impossible to believe that somebody actually admire that man.</t>
+  </si>
+  <si>
+    <t>impossible</t>
+  </si>
+  <si>
+    <t>believe</t>
+  </si>
+  <si>
+    <t>actually</t>
+  </si>
+  <si>
+    <t>admire</t>
+  </si>
+  <si>
+    <t>- Đáp án D
+- admire =&gt; admires
+- Khi chủ ngữ là đại từ bất định như: someone, anyone,… thì động từ chia số ít.
+- Trong câu chủ ngữ là “somebody”.
+*Dịch nghĩa: Không thể tin rằng mọi người thực sự ngưỡng mộ người đàn ông đó.</t>
+  </si>
+  <si>
+    <t>Every Elementary School teacher have to take a training course.</t>
+  </si>
+  <si>
+    <t>Every</t>
+  </si>
+  <si>
+    <t>Elementary</t>
+  </si>
+  <si>
+    <t>have to</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>- Đáp án C
+- have =&gt; has to
+- Khi chủ ngữ bắt đầu bằng “every” thì động từ chia số ít.
+- Chủ ngữ của câu “Every Elementary School teacher”.
+*Dịch nghĩa: Mỗi giáo viên ở trường tiểu học phải tham gia một khóa học đào tạo</t>
+  </si>
+  <si>
+    <t>John, along with twenty friends, are celebrating a party.</t>
+  </si>
+  <si>
+    <t>along with</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>a party</t>
+  </si>
+  <si>
+    <t>- Đáp án C
+- Đáp án: C (are =&gt; is)
+- Trong câu hai danh từ nối với nhau bằng “along with” thì động từ chia theo chủ ngữ thứ nhất.
+- Chủ ngữ một là “John” nên động từ chia số ít.
+*Dịch nghĩa: John cùng với 20 người bạn của anh ấy đang tổ chức một bữa tiệc.</t>
+  </si>
+  <si>
+    <t>Linguistics bring us to further understanding of cultures, societies and civilizations.</t>
+  </si>
+  <si>
+    <t>bring</t>
+  </si>
+  <si>
+    <t>further</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>societies</t>
+  </si>
+  <si>
+    <t>- Đáp án A
+-bring =&gt; brings
+- Chủ ngữ là “Linguistics” là danh từ đặc biệt chỉ tên môn học (ở dạng số nhiều) nhưng động từ chia số ít.
+*Dịch nghĩa: Ngôn ngữ học mang đến cho chúng ta nhiều hơn hiểu biết về văn hóa, xã hội và những nên văn minh.</t>
+  </si>
+  <si>
+    <t>English is one of the most popular language in the world.</t>
+  </si>
+  <si>
+    <t>most</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>- Đáp án C
+- languge =&gt; languages
+- Ta có “one of + Danh từ số nhiều”: một trong những.
+*Dịch nghĩa: Tiếng anh là một trong những ngôn ngữ phổ biến nhất trên thế giới.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It is disconcerting to believe that every possible candidate have been rejected for
+one reason or another.</t>
+  </si>
+  <si>
+    <t>disconcerting</t>
+  </si>
+  <si>
+    <t>possible</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>- Đáp án C
+- have =&gt; has
+- Khi chủ ngữ bắt đầu bằng “every” thì động từ chia số ít.
+- Chủ ngữ của câu “every possible candidate”.
+* Dịch nghĩa: Thật bối rối để tin rằng mỗi ứng viên có thể đã bị từ chối vì lí do này hoặc lí do khác.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2742,6 +3631,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2763,7 +3658,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2813,6 +3708,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5582,8 +6489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G17" sqref="G14:G17"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5854,4 +6761,1447 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F56" workbookViewId="0">
+      <selection activeCell="G59" sqref="G59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="91.5703125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" style="19" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="19" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="19"/>
+    <col min="7" max="7" width="111.42578125" style="16" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>681</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>682</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>683</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>684</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>685</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>686</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>526</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>687</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>688</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>689</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>690</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>689</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>691</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>692</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>688</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
+        <v>695</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>696</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>688</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>689</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>697</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>698</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>699</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>700</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>701</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
+        <v>705</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>706</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>707</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>708</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>709</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>711</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>688</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>689</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>691</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>526</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
+        <v>713</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>714</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>715</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>716</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>717</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>719</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>688</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>689</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>527</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>687</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
+        <v>721</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>688</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>689</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>526</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>723</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>687</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>527</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>689</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="21" t="s">
+        <v>725</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>726</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>727</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>728</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>729</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>731</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>732</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>733</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>734</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>735</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
+        <v>737</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>526</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>689</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>527</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>687</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>739</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>740</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>741</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>742</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>743</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="21" t="s">
+        <v>745</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>746</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>747</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>748</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>749</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>751</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>696</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>689</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>688</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="21" t="s">
+        <v>753</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>696</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>689</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>688</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>755</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>696</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>688</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>689</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="21" t="s">
+        <v>757</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>758</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>759</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>760</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>761</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
+        <v>763</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>764</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>765</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>766</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>767</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A23" s="21" t="s">
+        <v>769</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>770</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>689</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>696</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="s">
+        <v>771</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>772</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>773</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>774</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>775</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A25" s="21" t="s">
+        <v>778</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>779</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>780</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>781</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>782</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
+        <v>784</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>689</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>688</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A27" s="21" t="s">
+        <v>786</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>526</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>696</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>696</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>527</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>689</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" s="16" t="s">
+        <v>790</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>696</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="21" t="s">
+        <v>792</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>527</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>687</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>688</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>689</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A31" s="16" t="s">
+        <v>794</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>795</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>796</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>797</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>798</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A32" s="16" t="s">
+        <v>800</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>689</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>688</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>687</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>527</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="16" t="s">
+        <v>802</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>689</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>688</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>527</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="16" t="s">
+        <v>804</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>689</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>688</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>527</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>805</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A35" s="16" t="s">
+        <v>806</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>740</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>807</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>808</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>741</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="16" t="s">
+        <v>810</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>696</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>811</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>812</v>
+      </c>
+      <c r="F36" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A37" s="16" t="s">
+        <v>814</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>815</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>816</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>817</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>818</v>
+      </c>
+      <c r="F37" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="16" t="s">
+        <v>820</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>821</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>822</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>823</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>824</v>
+      </c>
+      <c r="F38" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="16" t="s">
+        <v>826</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>827</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>828</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>829</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>830</v>
+      </c>
+      <c r="F39" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A40" s="16" t="s">
+        <v>832</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>687</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>527</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>688</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>689</v>
+      </c>
+      <c r="F40" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="16" t="s">
+        <v>834</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>835</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>836</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>837</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>838</v>
+      </c>
+      <c r="F41" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A42" s="16" t="s">
+        <v>840</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>841</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>842</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>843</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>843</v>
+      </c>
+      <c r="F42" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A43" s="16" t="s">
+        <v>845</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>688</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>689</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>527</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>687</v>
+      </c>
+      <c r="F43" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A44" s="16" t="s">
+        <v>847</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>696</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>689</v>
+      </c>
+      <c r="F44" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A45" s="21" t="s">
+        <v>849</v>
+      </c>
+      <c r="B45" s="19" t="s">
+        <v>688</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>689</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>526</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>687</v>
+      </c>
+      <c r="F45" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A46" s="16" t="s">
+        <v>851</v>
+      </c>
+      <c r="B46" s="19" t="s">
+        <v>852</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>853</v>
+      </c>
+      <c r="D46" s="19" t="s">
+        <v>854</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>855</v>
+      </c>
+      <c r="F46" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A47" s="16" t="s">
+        <v>857</v>
+      </c>
+      <c r="B47" s="19" t="s">
+        <v>688</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>689</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>526</v>
+      </c>
+      <c r="F47" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A48" s="16" t="s">
+        <v>859</v>
+      </c>
+      <c r="B48" s="19" t="s">
+        <v>688</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>689</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>691</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="F48" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A49" s="16" t="s">
+        <v>861</v>
+      </c>
+      <c r="B49" s="19" t="s">
+        <v>862</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>863</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>864</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>865</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A50" s="16" t="s">
+        <v>867</v>
+      </c>
+      <c r="B50" s="19" t="s">
+        <v>689</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>688</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>527</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>868</v>
+      </c>
+      <c r="F50" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A51" s="16" t="s">
+        <v>870</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>871</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>872</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>873</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>874</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>876</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>877</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>878</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>688</v>
+      </c>
+      <c r="E52" s="17" t="s">
+        <v>879</v>
+      </c>
+      <c r="F52" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" s="18" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>881</v>
+      </c>
+      <c r="B53" s="19" t="s">
+        <v>882</v>
+      </c>
+      <c r="C53" s="17" t="s">
+        <v>883</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="E53" s="17" t="s">
+        <v>884</v>
+      </c>
+      <c r="F53" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>886</v>
+      </c>
+      <c r="B54" s="19" t="s">
+        <v>887</v>
+      </c>
+      <c r="C54" s="17" t="s">
+        <v>888</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>889</v>
+      </c>
+      <c r="E54" s="17" t="s">
+        <v>890</v>
+      </c>
+      <c r="F54" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>892</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>893</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>894</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>895</v>
+      </c>
+      <c r="E55" s="19" t="s">
+        <v>896</v>
+      </c>
+      <c r="F55" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="B56" s="17" t="s">
+        <v>899</v>
+      </c>
+      <c r="C56" s="17" t="s">
+        <v>900</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>689</v>
+      </c>
+      <c r="E56" s="17" t="s">
+        <v>901</v>
+      </c>
+      <c r="F56" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>903</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>904</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>905</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>906</v>
+      </c>
+      <c r="E57" s="19" t="s">
+        <v>907</v>
+      </c>
+      <c r="F57" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A58" s="16" t="s">
+        <v>909</v>
+      </c>
+      <c r="B58" s="19" t="s">
+        <v>688</v>
+      </c>
+      <c r="C58" s="19" t="s">
+        <v>910</v>
+      </c>
+      <c r="D58" s="19" t="s">
+        <v>911</v>
+      </c>
+      <c r="E58" s="19" t="s">
+        <v>912</v>
+      </c>
+      <c r="F58" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>915</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>916</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>696</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>917</v>
+      </c>
+      <c r="F59" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>918</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="68.5703125" customWidth="1"/>
+    <col min="7" max="7" width="109.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="16"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="16"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/file/exercise.xlsx
+++ b/file/exercise.xlsx
@@ -3319,13 +3319,6 @@
     <t>Physics ____ my favorite subject when I was at high school.</t>
   </si>
   <si>
-    <t>- Đáp án C
-- Physics (môn vật lý) mặc dù tận cùng bằng -s nhưng chỉ tên một môn học -&gt; danh từ số ít.
-- Do đó, động từ cần chia ở dạng số ít. Ta loại phương án B và D.
-*Dịch nghĩa: Môn vật lý là môn học yêu thích của tôi khi còn học phổ thông.
-=&gt; Do có mệnh đề trạng ngữ chỉ thời gian (when I was at high school) nên động từ trong mệnh đề chính chia thì quá khứ đơn.</t>
-  </si>
-  <si>
     <t>The unemployed ___ to live on the unemployment benefits</t>
   </si>
   <si>
@@ -3387,12 +3380,6 @@
     <t>Can I borrow your dictionary for a moment? Mine ____</t>
   </si>
   <si>
-    <t>have been lef</t>
-  </si>
-  <si>
-    <t>has been lef</t>
-  </si>
-  <si>
     <t>was left</t>
   </si>
   <si>
@@ -3596,6 +3583,19 @@
 - Khi chủ ngữ bắt đầu bằng “every” thì động từ chia số ít.
 - Chủ ngữ của câu “every possible candidate”.
 * Dịch nghĩa: Thật bối rối để tin rằng mỗi ứng viên có thể đã bị từ chối vì lí do này hoặc lí do khác.</t>
+  </si>
+  <si>
+    <t>- Đáp án C
+- Physics (môn vật lý) mặc dù tận cùng bằng "s" nhưng chỉ tên một môn học -&gt; danh từ số ít.
+- Do đó, động từ cần chia ở dạng số ít. Ta loại phương án B và D.
+*Dịch nghĩa: Môn vật lý là môn học yêu thích của tôi khi còn học phổ thông.
+=&gt; Do có mệnh đề trạng ngữ chỉ thời gian (when I was at high school) nên động từ trong mệnh đề chính chia thì quá khứ đơn.</t>
+  </si>
+  <si>
+    <t>have been left</t>
+  </si>
+  <si>
+    <t>has been left</t>
   </si>
 </sst>
 </file>
@@ -6767,8 +6767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F56" workbookViewId="0">
-      <selection activeCell="G59" sqref="G59"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7769,12 +7769,12 @@
         <v>3</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>846</v>
+        <v>916</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A44" s="16" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B44" s="19" t="s">
         <v>228</v>
@@ -7792,12 +7792,12 @@
         <v>2</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="21" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B45" s="19" t="s">
         <v>688</v>
@@ -7815,35 +7815,35 @@
         <v>1</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
+        <v>850</v>
+      </c>
+      <c r="B46" s="19" t="s">
         <v>851</v>
       </c>
-      <c r="B46" s="19" t="s">
+      <c r="C46" s="19" t="s">
         <v>852</v>
       </c>
-      <c r="C46" s="19" t="s">
+      <c r="D46" s="19" t="s">
         <v>853</v>
       </c>
-      <c r="D46" s="19" t="s">
+      <c r="E46" s="7" t="s">
         <v>854</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>855</v>
       </c>
       <c r="F46" s="19" t="s">
         <v>3</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A47" s="16" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B47" s="19" t="s">
         <v>688</v>
@@ -7861,12 +7861,12 @@
         <v>1</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A48" s="16" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B48" s="19" t="s">
         <v>688</v>
@@ -7884,35 +7884,35 @@
         <v>1</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A49" s="16" t="s">
+        <v>860</v>
+      </c>
+      <c r="B49" s="19" t="s">
+        <v>917</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>918</v>
+      </c>
+      <c r="D49" s="11" t="s">
         <v>861</v>
       </c>
-      <c r="B49" s="19" t="s">
+      <c r="E49" s="11" t="s">
         <v>862</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>863</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>864</v>
-      </c>
-      <c r="E49" s="11" t="s">
-        <v>865</v>
       </c>
       <c r="F49" s="11" t="s">
         <v>2</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" s="16" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="B50" s="19" t="s">
         <v>689</v>
@@ -7924,220 +7924,220 @@
         <v>527</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="F50" s="19" t="s">
         <v>1</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="16" t="s">
+        <v>867</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>868</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>869</v>
+      </c>
+      <c r="D51" s="11" t="s">
         <v>870</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="E51" s="11" t="s">
         <v>871</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>872</v>
-      </c>
-      <c r="D51" s="11" t="s">
-        <v>873</v>
-      </c>
-      <c r="E51" s="11" t="s">
-        <v>874</v>
       </c>
       <c r="F51" s="11" t="s">
         <v>1</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="D52" s="17" t="s">
         <v>688</v>
       </c>
       <c r="E52" s="17" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="F52" s="17" t="s">
         <v>3</v>
       </c>
       <c r="G52" s="18" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="D53" s="17" t="s">
         <v>228</v>
       </c>
       <c r="E53" s="17" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="F53" s="19" t="s">
         <v>3</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
+        <v>883</v>
+      </c>
+      <c r="B54" s="19" t="s">
+        <v>884</v>
+      </c>
+      <c r="C54" s="17" t="s">
+        <v>885</v>
+      </c>
+      <c r="D54" s="17" t="s">
         <v>886</v>
       </c>
-      <c r="B54" s="19" t="s">
+      <c r="E54" s="17" t="s">
         <v>887</v>
-      </c>
-      <c r="C54" s="17" t="s">
-        <v>888</v>
-      </c>
-      <c r="D54" s="17" t="s">
-        <v>889</v>
-      </c>
-      <c r="E54" s="17" t="s">
-        <v>890</v>
       </c>
       <c r="F54" s="19" t="s">
         <v>4</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
+        <v>889</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>890</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>891</v>
+      </c>
+      <c r="D55" s="5" t="s">
         <v>892</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="E55" s="19" t="s">
         <v>893</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>894</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>895</v>
-      </c>
-      <c r="E55" s="19" t="s">
-        <v>896</v>
       </c>
       <c r="F55" s="19" t="s">
         <v>3</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="D56" s="17" t="s">
         <v>689</v>
       </c>
       <c r="E56" s="17" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="F56" s="19" t="s">
         <v>3</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
+        <v>900</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>902</v>
+      </c>
+      <c r="D57" s="5" t="s">
         <v>903</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="E57" s="19" t="s">
         <v>904</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>905</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>906</v>
-      </c>
-      <c r="E57" s="19" t="s">
-        <v>907</v>
       </c>
       <c r="F57" s="19" t="s">
         <v>1</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A58" s="16" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="B58" s="19" t="s">
         <v>688</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="D58" s="19" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="E58" s="19" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="F58" s="19" t="s">
         <v>3</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>696</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="F59" s="19" t="s">
         <v>3</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
     </row>
   </sheetData>

--- a/file/exercise.xlsx
+++ b/file/exercise.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr showObjects="none" filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="12 thì" sheetId="1" r:id="rId1"/>
     <sheet name="Sự phối thì" sheetId="6" r:id="rId2"/>
     <sheet name="Hòa hợp giữa chủ ngữ và động tu" sheetId="7" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="8" r:id="rId4"/>
+    <sheet name="danh động từ" sheetId="9" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="919">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1605" uniqueCount="1210">
   <si>
     <t>question</t>
   </si>
@@ -3596,6 +3597,1068 @@
   </si>
   <si>
     <t>has been left</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It was his own fault, but I couldn’t help_______sorry for him.</t>
+  </si>
+  <si>
+    <t>feeling</t>
+  </si>
+  <si>
+    <t>to feel</t>
+  </si>
+  <si>
+    <t>having felt</t>
+  </si>
+  <si>
+    <t>to have felt</t>
+  </si>
+  <si>
+    <t>- Đáp án A
+- Căn cứ vào cụm từ: “can’t help + Ving” : không thể không làm gì
+- Khi ngữ cảnh ở quá khứ: couldn’t help + Ving: đã không thể không làm gì
+- Dịch nghĩa: Đó là lỗi của chính anh ấy, nhưng tôi không thể không cảm thấy có lỗi với anh ấy.</t>
+  </si>
+  <si>
+    <t>The medical authorities warned everyone not to drink the water without first ___ it.</t>
+  </si>
+  <si>
+    <t>being boiled</t>
+  </si>
+  <si>
+    <t>boiling</t>
+  </si>
+  <si>
+    <t>having boiled</t>
+  </si>
+  <si>
+    <t>having to boil</t>
+  </si>
+  <si>
+    <t>- Đáp án B
+- Căn cứ: sau giới từ + Ving. Xét trong câu, sau giới từ “without” ta dùng Ving. “First” ở đây là
+trạng từ bổ nghĩa cho động từ “boil” phía sau
+=&gt; Loại D vì “have to” mang nghĩa “phải làm gì”, mang tính bắt buộc, không hợp nghĩa
+=&gt; Loại A vì câu động từ “boild” ở đây có chủ ngữ vẫn là “everyone” chứ không phải là “the
+water” nên nó mang nghĩa chủ động
+=&gt; Loại C vì nếu dùng “have Vp2” ý muốn nhấn mạnh hành động “boil” xảy ra trước hành động
+“warn” trong quá khứ, điều này hoàn toàn không phù hợp; vì chính quyền cảnh báo là “sau này
+không được làm vậy”, mặc dù lời cảnh báo đã diễn ra trong quá khứ, nên việc nhấn mạnh hành
+động “boil” xảy ra trước hành động “warn” trong quá khứ là sai. Hay ý nhấn mạnh “boil” xảy ra
+trước “drink” cũng vậy, “drink” ở đây ngầm hiểu nó là ở hiện tại hoặc tương lai, vì như đã nói là
+“cảnh báo rằng sau này không được làm vậy”.
+Tóm lại là ở đây ta dùng theo cấu trúc thông thường, không nhất thiết phải dùng cấu trúc nhấn
+mạnh vì nó sẽ làm trật tự các hành động trong câu không rõ ràng và nhất quán.
+- Dịch nghĩa: Các cơ quan y tế cảnh báo tất cả mọi người không nên uống nước mà không đun
+sôi trước.</t>
+  </si>
+  <si>
+    <t>Most people talk too much and don’t realize how important ______ is.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to be listening </t>
+  </si>
+  <si>
+    <t xml:space="preserve">to be listened </t>
+  </si>
+  <si>
+    <t>have listened</t>
+  </si>
+  <si>
+    <t>listening</t>
+  </si>
+  <si>
+    <t>- Đáp án D
+- Căn cứ: Danh động từ đóng vai trò làm chủ ngữ.
+* Lưu ý: “How + adj + S + to be: cái gì đó như thế nào”
+- Dịch nghĩa: Hầu hết mọi người nói quá nhiều và không nhận thức được tầm quan trọng của
+việc lắng nghe như thế nào.</t>
+  </si>
+  <si>
+    <t>If you’ve finished ________ the dictionary, I’d like to borrow it.</t>
+  </si>
+  <si>
+    <t>to have used</t>
+  </si>
+  <si>
+    <t>to use</t>
+  </si>
+  <si>
+    <t>using</t>
+  </si>
+  <si>
+    <t>having used</t>
+  </si>
+  <si>
+    <t>- Đáp án C
+- Căn cứ: finish + Ving.
+- Dịch nghĩa: Nếu bạn dùng xong cuốn từ điển này, tôi muốn mượn nó.</t>
+  </si>
+  <si>
+    <t>Would you mind ________?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> that I am reading aloud</t>
+  </si>
+  <si>
+    <t>explaining it once again, please</t>
+  </si>
+  <si>
+    <t xml:space="preserve">what causes you a lot of trouble </t>
+  </si>
+  <si>
+    <t>to bring the books back by tomorrow</t>
+  </si>
+  <si>
+    <t>On the whole, I enjoy ________ our local club, but I think there are far too many rules and regulations to feel completely at ease.</t>
+  </si>
+  <si>
+    <t>attending</t>
+  </si>
+  <si>
+    <t>attend</t>
+  </si>
+  <si>
+    <t>to attend</t>
+  </si>
+  <si>
+    <t>being attended</t>
+  </si>
+  <si>
+    <t>- Đáp án A
+- Key: A. attending
+- Giải thích: enjoy Ving: thích làm gì
+- Dịch: Nhìn chung, tôi thích tham dự câu lạc bộ địa phương của chúng tôi, nhưng tôi nghĩ có quá nhiều quy tắc và quy định để cảm thấy hoàn toàn thoải mái.
+*Note: At ease: thoải mái, thư giãn</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I deeply regret ________ to her so severely yesterday. She was badly hurt</t>
+  </si>
+  <si>
+    <t>to be speaking</t>
+  </si>
+  <si>
+    <t>to speak</t>
+  </si>
+  <si>
+    <t>having spoken</t>
+  </si>
+  <si>
+    <t>being spoken</t>
+  </si>
+  <si>
+    <t>- Đáp án C
+- Căn cứ: “regret + ving” hối hận vì đã làm gì.
+* Lưu ý: “regret + having+ Vp2” =&gt; nhấn mạnh hành động đó xảy ra trước hành động còn lại
+trong quá khứ
+- Dịch nghĩa: Tôi rất hối tiếc vì đã nói chuyện với cô ấy một cách gay gắt như vậy ngày hôm
+qua. Cô ấy đã rất tổn thương.</t>
+  </si>
+  <si>
+    <t>Smokers generally do know that smoking is extremely harmful, but it’s just that they can’t help _____________ it.</t>
+  </si>
+  <si>
+    <t>doing</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to do </t>
+  </si>
+  <si>
+    <t>do</t>
+  </si>
+  <si>
+    <t>having done</t>
+  </si>
+  <si>
+    <t>She thanked me for ___________her a lot when she was in trouble.</t>
+  </si>
+  <si>
+    <t>having helped</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to help</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> help</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> _____________cigarettes for years, he was diagnosed with lung cancer</t>
+  </si>
+  <si>
+    <t>Smoking</t>
+  </si>
+  <si>
+    <t>Having smoked</t>
+  </si>
+  <si>
+    <t>Having been smoked</t>
+  </si>
+  <si>
+    <t>Being smoked</t>
+  </si>
+  <si>
+    <t>- Đáp án B
+- Dịch nghĩa: Vì đã hút thuốc trong khoảng nhiều năm nên anh ấy được chuẩn đoán bị ung thư phổi.
+=&gt; Khi 2 vế của câu đồng chủ ngữ và nhấn mạnh một hành động đã xảy ra xong rồi mới tới hành
+động khác, ta bỏ chủ ngữ của vế đầu thay bằng Having + Vp2.</t>
+  </si>
+  <si>
+    <t>While ________ the historical building, they had to get some of the missing tiles specially made</t>
+  </si>
+  <si>
+    <t>to restore</t>
+  </si>
+  <si>
+    <t>restore</t>
+  </si>
+  <si>
+    <t>restoring</t>
+  </si>
+  <si>
+    <t>being restored</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I think ________ outside in the open air is much more enjoyable than ________
+exercise in some stuffy gyms.</t>
+  </si>
+  <si>
+    <t>to walk – done</t>
+  </si>
+  <si>
+    <t>walking – doing</t>
+  </si>
+  <si>
+    <t>walk – to be doing</t>
+  </si>
+  <si>
+    <t>having walked – do</t>
+  </si>
+  <si>
+    <t>Authorities should warn people against ________ hazardous foods containing additives.</t>
+  </si>
+  <si>
+    <t>to be using</t>
+  </si>
+  <si>
+    <t>being used produced</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> _________ contaminated water from a nearby river, lots of people in this village suffer from cancers</t>
+  </si>
+  <si>
+    <t>Drinking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Having drunk </t>
+  </si>
+  <si>
+    <t>Having been drunk</t>
+  </si>
+  <si>
+    <t>Drunk</t>
+  </si>
+  <si>
+    <t>- Đáp án B
+- Dịch nghĩa: Đã uống nước bị ô nhiễm từ một con sông gần đó, rất nhiều người trong ngôi làng
+này bị ung thư.
+=&gt; Khi hai vế của câu đồng chủ ngữ ta sẽ lược bỏ chủ ngữ của vế đầu và thay bằng:
+* 1: + Ving/Having + Vp2: cho câu chủ động
+* 2: + Vp2: cho câu bị động
+- Do câu này mang nghĩa chủ động nên ta loại phương án C và D
+* Sự khác nhau giữa cách dùng Ving và Having Vp2:
+- Ving…, clause: diễn tả hành động xảy ra nối tiếp nhau
+- Having Vp2…, clause: diễn tả một hành động đã xảy ra xong mới tới hành động khác</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Every member of the team praised him for _________the team win the championship.</t>
+  </si>
+  <si>
+    <t>having been helped</t>
+  </si>
+  <si>
+    <t>being helped</t>
+  </si>
+  <si>
+    <t>There’s someone _____________on the door. Come to see who he/she is.</t>
+  </si>
+  <si>
+    <t>knock</t>
+  </si>
+  <si>
+    <t>knocking</t>
+  </si>
+  <si>
+    <t>to knock</t>
+  </si>
+  <si>
+    <t>having knocked</t>
+  </si>
+  <si>
+    <t>- Đáp án B
+- Key: B. knocking
+- Giải thích: rút gọn mệnh đề quan hệ: There’s some one who is knocking
+* Dịch: Có ai đó đang gõ cửa. Ra xem ai đi!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ________ between the two attacks, the commander tried to prevent the enemy troops  ___ their strength</t>
+  </si>
+  <si>
+    <t>Without delaying – to gather</t>
+  </si>
+  <si>
+    <t>By not delaying – from gathering</t>
+  </si>
+  <si>
+    <t>In delaying – for gathering</t>
+  </si>
+  <si>
+    <t>Having delayed – without gathering</t>
+  </si>
+  <si>
+    <t>- Đáp án B
++ Căn cứ vào: “prevent sb from sth”: ngăn cản ai làm gì.
++ By + Ving/N: bằng cách làm gì/bằng cách gì
+- Dịch nghĩa: Bằng cách không trì hoãn giữa hai cuộc tấn công, chỉ huy đã cố gắng ngăn chặn quân địch tập hợp sức mạnh của chúng.</t>
+  </si>
+  <si>
+    <t>- Đáp án B
+- Key: B. explaining it once again, please
+- Giải thích: Would you mind Ving? = bạn không phiền làm gì đó chứ?
+* Dịch: Bạn có phiền giải thích lại một lần nữa giúp mình được không?</t>
+  </si>
+  <si>
+    <t>- Đáp án A
+- Key: A. doing
+- Giải thích: can’t help Ving: không thể nhịn làm gì
+* Dịch: Những người hút thuốc thường biết rằng hút thuốc là cực kỳ có hại, nhưng họ không thể cai được.</t>
+  </si>
+  <si>
+    <t>- Đáp án A
+- Key: A. having helped
+* Giải thích: thank sb for Ving/having Vp2: cảm ơn ai vì đã làm gì
+-&gt; Xét ngữ cảnh câu, cho thấy hành động “help” đã xảy ra trước hành động “thank”, thậm chí trước đó đã làm nhiều lần rồi. Nên ta dùng “having Vp2” để nhấn mạnh tính xảy ra trước một hành động khác trong quá khứ, thay vì dùng “Ving” đơn thuần mặc dù nó không sai nhưng chưa phải là lựa chọn chính xác nhất
+* Dịch: Cô ấy cảm ơn tôi vì đã giúp đỡ cô ấy rất nhiều khi cô ấy gặp khó khăn</t>
+  </si>
+  <si>
+    <t>- Đáp án C
+- Giải thích: while Ving: trong khi đang làm gì
+=&gt; Câu mang nghĩa chủ động (họ khôi phục tòa nhà) nên ta loại D
+* Dịch: Trong khi khôi phục tòa nhà cổ, họ đã phải đặt làm đặc biệt cho một vài viên gạch bị mất</t>
+  </si>
+  <si>
+    <t>- Đáp án B
+- Giải thích: Ving đóng vai trò là danh từ làm chủ ngữ, 2 vế song song nên đều phải để Ving
+- Dịch: Tôi nghĩ rằng đi bộ ngoài trời sẽ thú vị hơn nhiều so với việc tập thể dục ở một số phòng tập ngột ngạt</t>
+  </si>
+  <si>
+    <t>- Đáp án C
+-Key: C. using
+* Giải thích: warn sb against Ving: cảnh bảo ai không làm điều gì
+* Dịch: Cơ quan chức năng nên cảnh báo người dân không sử dụng thực phẩm độc hại có chứa chất phụ gia.</t>
+  </si>
+  <si>
+    <t>- Đáp án A
+- Căn cứ:
++ praise sb for + Ving: khen ngợi ai vì điều gì hay làm gì
++ praise sb for + having Vp2: khen ngợi ai vì đã làm gì trong quá khứ (nhấn mạnh hành động sau xảy ra trước hành động "praise" trong quá khứ)
+=&gt; Ta thấy động từ chính ở đây là “praised”-chia ở quá khứ đơn. Do đó, hành động “help the team win” phải xảy ra trước hành động “praised” một khoảng thời gian nhất định, do đó ta dùng cấu trúc thứ hai với Having Vp2 để đặc biệt nhấn mạnh hành động “giúp” đã xảy ra trước hành động còn lại là “khen ngợi” trong quá khứ
+*Note: Dù đáp án B vẫn không sai, nhưng với bài làm trắc nghiệm có hai đáp án cùng lúc như vậy thì ta phải cân nhắc để chọn đáp án đúng nhất. Chọn B nó sẽ không nhấn mạnh được việc giúp đỡ xảy ra trước khi được khen, mà ngầm hiểu nó xảy ra kế tiếp nhau trong quá khứ, như vậy thì không thực thi cho lắm
+- Dịch nghĩa: Mọi thành viên trong đội đều ca ngợi anh vì đã giúp đội giành chức vô địch</t>
+  </si>
+  <si>
+    <t>The power failure resulted in many of the underground trains ________ for up to one hour.</t>
+  </si>
+  <si>
+    <t>to delay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to have delayed </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to be delayed</t>
+  </si>
+  <si>
+    <t>being delayed</t>
+  </si>
+  <si>
+    <t>- Đáp án D
+- Giải thích: result in Ving: gây ra điều gì
+=&gt; Động từ mang nghĩa bị động (bị trì hoãn) nên ta dùng “result in being Vp2”
+* Dịch: Sự cố mất điện dẫn đến nhiều chuyến tàu ngầm bị trì hoãn tới một giờ</t>
+  </si>
+  <si>
+    <t>Did you actually see the boy ________ over the fence into Mr. Jones’ garden, or did you just hear other boys ______ about it?</t>
+  </si>
+  <si>
+    <t>jumping – talking</t>
+  </si>
+  <si>
+    <t>to jump – being talked</t>
+  </si>
+  <si>
+    <t>having jumped – to talk</t>
+  </si>
+  <si>
+    <t>to be jumping – talk</t>
+  </si>
+  <si>
+    <t>- Đáp án A
+- Giải thích: see sb Ving: nhìn thấy ai đang làm gì; hear sb talking: nghe ai kể lại
+* Dịch: Bạn nhìn thấy thằng bé nhảy qua hàng rào vào nhà ông Jone thật hay chỉ nghe bọn trẻ kể lại thôi?</t>
+  </si>
+  <si>
+    <t>She is looking forward to _________ you again.</t>
+  </si>
+  <si>
+    <t>meet</t>
+  </si>
+  <si>
+    <t>meeting</t>
+  </si>
+  <si>
+    <t>be met</t>
+  </si>
+  <si>
+    <t>- Đáp án B
+- Căn cứ vào cấu trúc:
+* + looking forward to Ving: mong đợi điều gì.
+- Dịch nghĩa: Cô ấy mong được gặp lại bạn lần nữa.</t>
+  </si>
+  <si>
+    <t>______ photographs of the place, I had no desire to go there</t>
+  </si>
+  <si>
+    <t>Have seen</t>
+  </si>
+  <si>
+    <t>Had seen</t>
+  </si>
+  <si>
+    <t>Having seen</t>
+  </si>
+  <si>
+    <t>To have seen</t>
+  </si>
+  <si>
+    <t>- Đáp án C
+* Căn cứ cách dùng của “Having + Vp2”:
+- Dùng để đề cập đến một hành động xảy ra trước hành động khác trong quá khứ. ( “Nhìn thấy
+những bức ảnh” xảy ra trước. “không khao khát” xảy ra sau.)
+- Hai về đồng chủ ngữ “I”.
+- Xét câu gốc: After I had seen photographs of the place, I had no desire to go there
+- Dịch nghĩa: Sau khi nhìn thấy những bức ảnh ở nơi này, tôi không còn khao khát đến đó nữa.</t>
+  </si>
+  <si>
+    <t>Visited</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Having visited </t>
+  </si>
+  <si>
+    <t>Have visited</t>
+  </si>
+  <si>
+    <t>Visiting</t>
+  </si>
+  <si>
+    <t>- Đáp án B
+- Căn cứ cách dùng của “having + Vp2”:
+* + Đề cập đến hành động xảy ra trước hành động khác trong quá khứ. ( thăm viện bảo tàng -&gt; quyết định ăn trưa ở công viên).
+* + Hai vế động chủ ngữ. (Câu gốc: After we had visited the museum, we decided to have lunch in the park).
+- Dịch nghĩa: Sau khi thăm viện bảo tàng, chúng tôi quyết định ăn trưa ở công viên.</t>
+  </si>
+  <si>
+    <t>_____the museum, we decided to have lunch in the park.</t>
+  </si>
+  <si>
+    <t>____ the story before, she didn’t want to hear the story again.</t>
+  </si>
+  <si>
+    <t>Heard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To hear </t>
+  </si>
+  <si>
+    <t>Having heard</t>
+  </si>
+  <si>
+    <t>Hearing</t>
+  </si>
+  <si>
+    <t>- Đáp án C
+- Giải thích: Ving đóng vai trò là danh từ đứng đầu câu thể hiện lí do
+=&gt; Dùng “Having Vp2” để diễn tả hành động đó diễn ra trước hành động còn lại trong quá khứ
+* Dịch: Vì đã nghe câu chuyện rồi nên cô ấy không muốn nghe lần nữa.</t>
+  </si>
+  <si>
+    <t>We can’t count on _______by our parents every time we get into financial difficulty.</t>
+  </si>
+  <si>
+    <t>rescuing</t>
+  </si>
+  <si>
+    <t>being rescued</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to rescue </t>
+  </si>
+  <si>
+    <t>to be rescued</t>
+  </si>
+  <si>
+    <t>- Đáp án B
+- Key: B. being rescued
+- Giải thích: count on V-ing: dựa vào/trông mong vào điều gì
+* Dịch nghĩa: Cứ mỗi lúc gặp khó khăn về tài chính, chúng ta không thể trông chờ được bố mẹ cứu giúp mãi thế được.
+=&gt; Câu mang nghĩa bị động</t>
+  </si>
+  <si>
+    <t>Mary’s children are used to ____ up after school every day.</t>
+  </si>
+  <si>
+    <t>picking</t>
+  </si>
+  <si>
+    <t>pick</t>
+  </si>
+  <si>
+    <t>be picked</t>
+  </si>
+  <si>
+    <t>being picked</t>
+  </si>
+  <si>
+    <t>- Đáp án D
+- Giải thích: be used to V-ing: quen với điều gì
+- Dịch: Những đứa trẻ nhà Mary quen với việc được đón mỗi ngày sau khi tan học.
+=&gt; Câu mang nghĩa bị động -&gt; be used to being + Vp2: quen với việc được làm gì
+* Note: Pick up sb (phr.v): đón ai</t>
+  </si>
+  <si>
+    <t>____ the red light, he was fined 120 thousand VND by the police.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Having run </t>
+  </si>
+  <si>
+    <t>Being run</t>
+  </si>
+  <si>
+    <t>Running</t>
+  </si>
+  <si>
+    <t>Being running</t>
+  </si>
+  <si>
+    <t>- Đáp án A
+* Dịch nghĩa: Vượt đèn đỏ, anh ấy bị cảnh sát phạt 120.000 đồng.
+=&gt; Khi hai mệnh đề đồng chủ ngữ, ta có thể bỏ chủ ngữ của vế đầu rồi thay bằng:
+* Ving/Having + Vp2: với câu chủ động
+- Ving -&gt; khi diễn tả hành động xảy ra nối tiếp nhau
+- Having Vp2 -&gt; khi diễn tả hành động xảy ra xong mới tới hành động khác
+=&gt; Đã vượt đèn nên mới bị phạt</t>
+  </si>
+  <si>
+    <t>The soldier was punished for ___ to obey his commanding officer’s orders.</t>
+  </si>
+  <si>
+    <t>being refusing</t>
+  </si>
+  <si>
+    <t>having refusing</t>
+  </si>
+  <si>
+    <t>having refused</t>
+  </si>
+  <si>
+    <t>being refused</t>
+  </si>
+  <si>
+    <t>- Đáp án C
+- Key: C. having refused
+- Giải thích: be punished for V-ing: bị phạt vì làm gì
+* Dịch: Người lính đã bị trừng phạt vì đã từ chối tuân theo lệnh của sĩ quan chỉ huy.</t>
+  </si>
+  <si>
+    <t>___ the money, they began quarrelling about how to divide it</t>
+  </si>
+  <si>
+    <t>Have found</t>
+  </si>
+  <si>
+    <t>Found</t>
+  </si>
+  <si>
+    <t>Having found</t>
+  </si>
+  <si>
+    <t>Finding</t>
+  </si>
+  <si>
+    <t>- Đáp án C
+* Dịch: Sau khi tìm thấy tiền, họ bắt đầu tranh cãi việc phân chia như thế nào.
+* Giải thích:
+- Khi hai vế của câu đồng chủ ngữ ta có thể lược bỏ chủ ngữ của vế đầu rồi thay bằng:
++ Ving …., clause: diễn tả hành động xảy ra nối tiếp nhau
++ Having + Vp2, clause: diễn tả hành động xảy ra xong trước mới tới hành động khác
+=&gt; Đáp án C</t>
+  </si>
+  <si>
+    <t>__ all his money, he decided to go home and ask his father for a job.</t>
+  </si>
+  <si>
+    <t>Having spent</t>
+  </si>
+  <si>
+    <t>Spent</t>
+  </si>
+  <si>
+    <t>Spending</t>
+  </si>
+  <si>
+    <t>Have spent</t>
+  </si>
+  <si>
+    <t>- Đáp án A
+- Giải thích: V-ing đứng đầu vừa thể hiện việc hoàn thành một hành động vừa là lí do cho một
+hành động khác. Dùng Having Vp2 để nhấn mạnh hành động đó xảy ra trước hành động còn lại
+trong quá khứ. Do đó, ta chọn A hợp lý nhất
+- Dịch nghĩa: Sau khi tiêu hết tiền, anh ta quyết định về nhà và bảo bố anh ta cho một công việc.</t>
+  </si>
+  <si>
+    <t>You can’t prevent him from ____ alcohol</t>
+  </si>
+  <si>
+    <t>drink</t>
+  </si>
+  <si>
+    <t>to drink</t>
+  </si>
+  <si>
+    <t>drinking</t>
+  </si>
+  <si>
+    <t>drank</t>
+  </si>
+  <si>
+    <t>- Đáp án C
+- drinking.
+- Căn cứ: “prevent sb from V-ing”: ngăn ai khỏi làm gì.
+- Dịch nghĩa: Bạn không thể ngăn anh ta uống rượu được.</t>
+  </si>
+  <si>
+    <t>to be</t>
+  </si>
+  <si>
+    <t>being</t>
+  </si>
+  <si>
+    <t>am</t>
+  </si>
+  <si>
+    <t>- Đáp án C
+- being.
+- Giải thích: “In spite of Ving/ Cụm Danh Từ” (Mặc dù)
+- Dịch nghĩa: Dù cực kỳ mệt, tôi vẫn đi học.</t>
+  </si>
+  <si>
+    <t>He got good marks at his exams because he spent almost his time ___________his lessons.</t>
+  </si>
+  <si>
+    <t>revise</t>
+  </si>
+  <si>
+    <t>revising</t>
+  </si>
+  <si>
+    <t>to revise</t>
+  </si>
+  <si>
+    <t>to be revised</t>
+  </si>
+  <si>
+    <t>- Đáp án B
+- Giải thích: spend time Ving: dành thời gian làm gì.
+- Dịch nghĩa: Anh ấy được điểm cao trong kì thi bởi vì anh ấy dành gần hết thời gian để ôn bài.</t>
+  </si>
+  <si>
+    <t>We saw the first star ____ in the sky.</t>
+  </si>
+  <si>
+    <t>In spite of ___ extremely tired, I went to school.</t>
+  </si>
+  <si>
+    <t>twinkling</t>
+  </si>
+  <si>
+    <t>twinkle</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to twinkle</t>
+  </si>
+  <si>
+    <t>twinkled</t>
+  </si>
+  <si>
+    <t>- Đáp án A
+- Giải thích: “see sb/sth Ving”: nhìn thấy ai/cái gì đang làm gì.
+- Dịch nghĩa: Chúng tôi thấy ngôi sao đầu tiên đang lấp lánh trên bầu trời.
+- Đáp án: twinkling.
+*Note: Các bạn không nhầm lẫn với đáp án C khi hiểu rằng đó là dạng rút gọn mệnh đề quan hệ
+với “to V” khi có the first. Vì câu đang có ý diễn tả hành động “lấp lánh” là hành động đang diễn
+ra ở thời điểm nói, do đó nếu dùng ‘to V’ nó sẽ không diễn tả được sự tiếp diễn này.
+=&gt; Thay vào đó, cần dùng “to be twinking” sẽ phù hợp hơn.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It’s no good ____ to him, he never answers letters.</t>
+  </si>
+  <si>
+    <t>write</t>
+  </si>
+  <si>
+    <t xml:space="preserve">being written </t>
+  </si>
+  <si>
+    <t>writing</t>
+  </si>
+  <si>
+    <t>to write</t>
+  </si>
+  <si>
+    <t>- Đáp án C
+- Giải thích: “It’s no good Ving”: vô ích khi làm gì.
+- Dịch nghĩa: Viết thư cho anh ta cũng vô ích, anh ta chẳng bao giờ trả lời đâu</t>
+  </si>
+  <si>
+    <t>Ask him to come in. Don’t keep him ____ at the door</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to stand </t>
+  </si>
+  <si>
+    <t>standing</t>
+  </si>
+  <si>
+    <t>stand</t>
+  </si>
+  <si>
+    <t>being stood</t>
+  </si>
+  <si>
+    <t>- Đáp án B
+- Key: B. standing.
+- Giải thích: keep sb Ving: bắt ai làm gì.
+- Dịch: Bảo anh ta vào đi, đừng bắt đứng ở cửa mãi thế</t>
+  </si>
+  <si>
+    <t>The children loved ___ the old castle.</t>
+  </si>
+  <si>
+    <t>explore</t>
+  </si>
+  <si>
+    <t>exploring</t>
+  </si>
+  <si>
+    <t>explored</t>
+  </si>
+  <si>
+    <t>to explore</t>
+  </si>
+  <si>
+    <t>- Đáp án B
+- Key: B. exploring
+- Giải thích: love V-ing: yêu thích làm gì.
+- Dịch: Bọn trẻ thích khám phá những lâu đài cổ.</t>
+  </si>
+  <si>
+    <t>He devoted most of his time ___ novels.</t>
+  </si>
+  <si>
+    <t>to having written</t>
+  </si>
+  <si>
+    <t>to writing</t>
+  </si>
+  <si>
+    <t>to have written</t>
+  </si>
+  <si>
+    <t>- Đáp án C
+- Căn cứ vào cấu trúc: “devote one’s time to doing sth”: cống hiến/hi sinh thời gian của ai để làm việc gì.
+- Dịch nghĩa: Anh ấy đã cống hiến cả đời mình viết những cuốn tiểu thuyết.</t>
+  </si>
+  <si>
+    <t>Who suggested _______here for the picnic?</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>came</t>
+  </si>
+  <si>
+    <t>to come</t>
+  </si>
+  <si>
+    <t>coming</t>
+  </si>
+  <si>
+    <t>- Đáp án D
+- Giải thích: suggest Ving: đề xuất làm gì.
+- Dịch nghĩa: Ai đã đề nghị đi dã ngoại ở đây?</t>
+  </si>
+  <si>
+    <t>At last, he admitted _____ that box.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to open </t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to be opened </t>
+  </si>
+  <si>
+    <t>opening</t>
+  </si>
+  <si>
+    <t>- Đáp án D
+- Key: D. opening
+- Giải thích: admit Ving: thừa nhận đã làm gì
+- Dịch nghĩa: Cuối cùng, hắn thừa nhận đã mở chiếc hộp</t>
+  </si>
+  <si>
+    <t>My girlfriend is afraid of___ out alone when it gets dark</t>
+  </si>
+  <si>
+    <t>to go</t>
+  </si>
+  <si>
+    <t>going</t>
+  </si>
+  <si>
+    <t>- Đáp án C
+- Key: C. going
+- Giải thích: afraid of Ving: sợ làm gì.
+- Dịch nghĩa: Bạn gái tối sợ đi ra ngoài một mình khi trời tối</t>
+  </si>
+  <si>
+    <t>From the distance, we could hear the sound of some dogs ________.</t>
+  </si>
+  <si>
+    <t>to bark</t>
+  </si>
+  <si>
+    <t>to be barking</t>
+  </si>
+  <si>
+    <t>barking</t>
+  </si>
+  <si>
+    <t>bark</t>
+  </si>
+  <si>
+    <t>- Đáp án C
+- Giải thích: + hear sb/sth Ving: nghe thấy ai/cái gì đang làm gì (chứng kiến một phần của hành
+động)
++ hear sb/sth do sth: nghe thấy ai/cái gì làm gì (chứng kiến toàn bộ hành động)
+=&gt; Với việc nghe thấy tiếng chó sủa từ xa thì chỉ có thể dùng Ving, không thể nào nghe hết từ
+đầu đến cuối con chó này sủa được nên không dùng D.
+- Dịch: Từ khoảng cách này, chúng tôi có thể nghe thấy tiếng chó đang sủa</t>
+  </si>
+  <si>
+    <t>I demand to see the person who is in charge ________ customers’ complaints here.</t>
+  </si>
+  <si>
+    <t>with handling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to handle </t>
+  </si>
+  <si>
+    <t>to be handled</t>
+  </si>
+  <si>
+    <t>of handling</t>
+  </si>
+  <si>
+    <t>- Đáp án D
+- Giải thích: In charge of Ving: chịu trách nhiệm về việc gì.
+- Dịch nghĩa: Tôi yêu cầu được gặp người chịu trách nhiệm xử lý các khiếu nại của khách hàng
+tại đây.</t>
+  </si>
+  <si>
+    <t>I’m absolutely fed up with ________ to the same place for our holidays year after year. Let’s consider ________ elsewhere this summer, shall we?</t>
+  </si>
+  <si>
+    <t>to go – to go</t>
+  </si>
+  <si>
+    <t>having gone – go</t>
+  </si>
+  <si>
+    <t>gone – going</t>
+  </si>
+  <si>
+    <t>going – going</t>
+  </si>
+  <si>
+    <t>- Đáp án D
+- Giải thích:
+* + fed up with Ving: chán làm gì.
+* + consider Ving: cân nhắc điều gì.
+- Dịch nghĩa: Tôi hoàn toán chán ngấy việc năm nào cùng đi du lịch một nơi rồi. Chúng ta có nên thử cân nhắc nơi nào khác mùa hè này không?</t>
+  </si>
+  <si>
+    <t>Billy really enjoys __________but unfortunately, his parents don’t approve of it and they are making him join the school football team instead.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to dance </t>
+  </si>
+  <si>
+    <t>to be dancing</t>
+  </si>
+  <si>
+    <t>dancing</t>
+  </si>
+  <si>
+    <t>having danced</t>
+  </si>
+  <si>
+    <t>- Đáp án C
+- Giải thích: enjoy Ving: thích làm gì
+* Dịch: Billy thực sự thích khiêu vũ nhưng thật không may, cha mẹ anh không chấp nhận điều đó và họ đang bắt anh tham gia đội bóng đá của trường.</t>
+  </si>
+  <si>
+    <t>I don’t recall ever ________ such a dull film as The English Patient before</t>
+  </si>
+  <si>
+    <t>to watch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">having watched </t>
+  </si>
+  <si>
+    <t>to be watching</t>
+  </si>
+  <si>
+    <t>to have watched</t>
+  </si>
+  <si>
+    <t>- Đáp án B
+- Giải thích: “Recall Ving”: hồi tưởng đã làm gì.
+- Dịch nghĩa: Tôi không nhớ đã xem bộ phim nhàm chán như The English Patient trước đây</t>
+  </si>
+  <si>
+    <t>Why doesn’t he fancy ________ with us to the pub?</t>
+  </si>
+  <si>
+    <t>having come</t>
+  </si>
+  <si>
+    <t>to have come</t>
+  </si>
+  <si>
+    <t>- Đáp án B
+- Giải thích:
+* + “fancy Ving”: hứng thú làm gì.
+- Dịch nghĩa: Tại sao anh ta không hứng thú việc đến pub với chúng ta?</t>
+  </si>
+  <si>
+    <t>Actually I dislike ________ by train, but I still prefer it to ________ because at least on a train you are still on the ground!</t>
+  </si>
+  <si>
+    <t>to travel – have flown</t>
+  </si>
+  <si>
+    <t>having travelled – being flown</t>
+  </si>
+  <si>
+    <t>travelling – flying</t>
+  </si>
+  <si>
+    <t>travelled – be flying</t>
+  </si>
+  <si>
+    <t>- Đáp án C
+- Giải thích:
++ dislike Ving: không thích làm gì.
++ prefer Ving/st to Ving/st: thích làm gì/cái gì hơn làm gì/cái gì.
+- Dịch nghĩa: Thật sự tôi không thích đi bằng xe lửa, nhưng tôi vẫn thích nó hơn là máy bay bởi vì ít nhất khi ở trên xe lửa bạn vẫn đang ở trên mặt đất!</t>
+  </si>
+  <si>
+    <t>When Grandma came to stay with us, she wasn’t accustomed ________ in such a big city, so initially she felt terribly disoriented.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">having lived </t>
+  </si>
+  <si>
+    <t>living</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to living </t>
+  </si>
+  <si>
+    <t>to be living</t>
+  </si>
+  <si>
+    <t>- Đáp án C
+- Giải thích: be accustomed to Ving: quen với điều gì
+- Dịch nghĩa: Khi bà đến sống với chúng tôi, bà chưa quen với cuộc sống ở một thành phố lớn, vì vậy ban đầu bà thấy mất phương hướng khủng khiếp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Your blue shirt has been washed, but it still needs ________. Why do you insist ________ it today anyway?</t>
+  </si>
+  <si>
+    <t>to be ironed – wearing</t>
+  </si>
+  <si>
+    <t>to have ironed – to wear</t>
+  </si>
+  <si>
+    <t>ironing – on wearing</t>
+  </si>
+  <si>
+    <t>being ironed – to be wearing</t>
+  </si>
+  <si>
+    <t>- Đáp án C
+- Giải thích:
++ need Ving = need to be + Vp2: cần được làm gì.
++ insist on Ving: khăng khăng làm gì.
+- Dịch nghĩa: Cái váy xanh của bạn đã được giặt xong, nhưng nó cần phải được là nữa. Sao bạn cứ khăng khăng mặc nó hôm nay thế?</t>
+  </si>
+  <si>
+    <t>You know there is no point in ________ about the past – after all, you can’t change it, can you?</t>
+  </si>
+  <si>
+    <t>to worry</t>
+  </si>
+  <si>
+    <t>having worried</t>
+  </si>
+  <si>
+    <t>to be worrying</t>
+  </si>
+  <si>
+    <t>worrying</t>
+  </si>
+  <si>
+    <t>- Đáp án D
+- Giải thích: "there is no point in + Ving": vô ích khi làm gì.
+- Dịch nghĩa: Bạn biết là vô ích khi lo lắng về quá khứ mà. Rốt cuộc, bạn chẳng thể thay đổi nó được, đúng không?</t>
+  </si>
+  <si>
+    <t>Christopher apologized. He’d forgotten to pay.</t>
+  </si>
+  <si>
+    <t>fsdfsdfdfd</t>
   </si>
 </sst>
 </file>
@@ -3658,7 +4721,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3720,6 +4783,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6767,7 +7834,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+    <sheetView topLeftCell="A45" workbookViewId="0">
       <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
@@ -8148,10 +9215,1206 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G51"/>
+  <sheetViews>
+    <sheetView topLeftCell="E49" workbookViewId="0">
+      <selection activeCell="G57" sqref="G57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.5703125" style="15" customWidth="1"/>
+    <col min="2" max="5" width="9.140625" style="15"/>
+    <col min="6" max="6" width="9.140625" style="15" customWidth="1"/>
+    <col min="7" max="7" width="109.28515625" style="15" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="22"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>920</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>922</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="240" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>926</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>927</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>928</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>929</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>931</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>932</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>933</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>934</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>935</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>937</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>938</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>939</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>940</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>941</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>943</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>944</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>945</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>946</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>947</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>948</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>949</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>950</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>951</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>952</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>954</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>955</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>956</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>957</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>958</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>960</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>961</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>962</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>963</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>964</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>965</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>966</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>967</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>968</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>969</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>970</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>971</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>972</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>973</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>974</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>976</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>977</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>978</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>979</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>980</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>981</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>982</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>983</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>984</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>985</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>986</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>987</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>941</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>940</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>988</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>989</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>990</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>991</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>992</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>993</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="180" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>995</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>966</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>967</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>996</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>997</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>998</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>999</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>1021</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>414</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>1038</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>1056</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G27" s="18" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" s="18" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="18" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30" s="18" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A31" s="15" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>1092</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G31" s="18" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>805</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" s="18" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="15" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G33" s="18" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>1109</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G34" s="18" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="15" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>1114</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>1115</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G35" s="18" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>1120</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>1121</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G36" s="18" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G37" s="18" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="15" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>1132</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G38" s="18" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="15" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G39" s="18" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A40" s="15" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E40" s="17" t="s">
+        <v>1144</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G40" s="18" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G41" s="18" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A42" s="15" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E42" s="17" t="s">
+        <v>1154</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="18" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>1159</v>
+      </c>
+      <c r="E43" s="17" t="s">
+        <v>1160</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" s="18" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A44" s="15" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>1165</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>1166</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" s="18" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A45" s="15" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>1171</v>
+      </c>
+      <c r="E45" s="17" t="s">
+        <v>1172</v>
+      </c>
+      <c r="F45" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G45" s="18" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E46" s="17" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G46" s="18" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>1182</v>
+      </c>
+      <c r="E47" s="17" t="s">
+        <v>1137</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G47" s="18" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A48" s="15" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E48" s="17" t="s">
+        <v>1188</v>
+      </c>
+      <c r="F48" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G48" s="18" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A49" s="15" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>1192</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>1193</v>
+      </c>
+      <c r="E49" s="17" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F49" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49" s="18" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A50" s="15" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>1199</v>
+      </c>
+      <c r="E50" s="17" t="s">
+        <v>1200</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G50" s="18" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A51" s="15" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>1205</v>
+      </c>
+      <c r="E51" s="17" t="s">
+        <v>1206</v>
+      </c>
+      <c r="F51" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G51" s="18" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8184,7 +10447,9 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
+      <c r="A2" s="5" t="s">
+        <v>1208</v>
+      </c>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
       <c r="D2" s="20"/>
@@ -8193,7 +10458,9 @@
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
+      <c r="A3" s="5" t="s">
+        <v>1209</v>
+      </c>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
@@ -8203,5 +10470,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/file/exercise.xlsx
+++ b/file/exercise.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr showObjects="none" filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="12 thì" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1605" uniqueCount="1210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1885" uniqueCount="1402">
   <si>
     <t>question</t>
   </si>
@@ -598,21 +598,9 @@
     <t>arrived - noticed - had left</t>
   </si>
   <si>
-    <t xml:space="preserve">have arrived - noticed – left </t>
-  </si>
-  <si>
     <t>had arrived - have noticed - have left</t>
   </si>
   <si>
-    <t>Đáp án B
-- Dịch nghĩa: Khi chúng tôi đến sân bay chúng tôi nhận ra rằng chúng tôi đã quên hộ chiếu ở văn
-phòng.
-- Căn cứ:
-+ cách dùng của thì quá khứ đơn: dùng để liệt kê các hành động trong quá khứ.
-+ hành động để quên passports đã diễn ra trước đó nên chia quá khứ hoàn thành.
-- Đáp án: arrived – noticed – had left.</t>
-  </si>
-  <si>
     <t>wrote-Did you want</t>
   </si>
   <si>
@@ -631,9 +619,6 @@
     <t>Generally he_____to work by car, but today he_____by bus because his car is in the garage</t>
   </si>
   <si>
-    <t>went – went</t>
-  </si>
-  <si>
     <t>was going - is going</t>
   </si>
   <si>
@@ -641,14 +626,6 @@
   </si>
   <si>
     <t>has been going - goes</t>
-  </si>
-  <si>
-    <t>goes – is going
-* Giải thích:
-- dùng hiện tại đơn diễn tả thói quen hằng ngày.
-- dùng hiện tại tiếp diễn: diễn tả hành động sẽ xảy ra trong tương lai (“today”: ngày hôm nay)
-* Dịch: Bình thường anh ấy đi làm bằng ô tô những hôm nay anh sẽ đi bus vì xe của anh ấy đang
-ở garage</t>
   </si>
   <si>
     <t>He_____for over three hours when he finished the report</t>
@@ -903,18 +880,6 @@
     <t>was waiting - stole</t>
   </si>
   <si>
-    <t>Đáp án D
-- was waiting – stole
-- Giải thích: while S –Ving: Trong khi ai đó đang làm gì
-- Dịch: Trong khi cô ấy chờ chị gái ngoài siêu thị, ai đó đã trộm túi của cô.</t>
-  </si>
-  <si>
-    <t>Đáp án D
-- announced – haven’t seen
-* Giải thích: yesterday =&gt; Qk đơn; yet =&gt; hiện tại hoàn thành
-* Dịch nghĩa: Hôm qua TV báo hôm nay sẽ mưa rào nhưng tôi chưa thấy hạt mưa nào cả.</t>
-  </si>
-  <si>
     <t>Đáp án C
 - has had - looks
 - Giải thích: hiện tại hoàn thành diễn tả 1 hành động mới xảy ra và kết quả còn ở hiện tại.
@@ -937,12 +902,6 @@
     <t>doesn’t finish - is beginning</t>
   </si>
   <si>
-    <t>Đáp án C
-hadn’t finished – began
-Giải thích: yet =&gt; thì hoàn thành
-Dịch: Phát thanh viên vẫn chưa nói xong khi mà một khán giả bắt đầu tức giận quát mắng cô.</t>
-  </si>
-  <si>
     <t>This is the forty-second composition paper I__so far, and there __seventyfive more.</t>
   </si>
   <si>
@@ -950,9 +909,6 @@
   </si>
   <si>
     <t>had checked - were</t>
-  </si>
-  <si>
-    <t>have checked – are</t>
   </si>
   <si>
     <t>checked - will be</t>
@@ -1028,18 +984,6 @@
   </si>
   <si>
     <t>Our local grocers said he ___ the groceries as soon as he ___ my order.</t>
-  </si>
-  <si>
-    <t>had sent – had received</t>
-  </si>
-  <si>
-    <t>will have sent – has received</t>
-  </si>
-  <si>
-    <t>has sent – receives</t>
-  </si>
-  <si>
-    <t>sent – had received</t>
   </si>
   <si>
     <t>Đáp án A
@@ -1141,18 +1085,6 @@
 * Dịch nghĩa: Con mèo kia sẽ cào nếu bạn kéo đuôi nó.</t>
   </si>
   <si>
-    <t>Will – cut off</t>
-  </si>
-  <si>
-    <t>Are – going to cut off</t>
-  </si>
-  <si>
-    <t>Do – cut off</t>
-  </si>
-  <si>
-    <t>Will – be cutting off</t>
-  </si>
-  <si>
     <t>Đáp án B
 * Giải thích: be going to: diễn tả 1 hành động chắc chắn xảy ra trong tương lai hoặc có khả năng
 cao vì có bằng chứng cho điều đó (cái cưa)
@@ -1189,84 +1121,13 @@
     <t>The committee ___ a report when it ___ all the available information.</t>
   </si>
   <si>
-    <t>will submit – has collected</t>
-  </si>
-  <si>
-    <t>submits – collected</t>
-  </si>
-  <si>
-    <t>will submit – will collect</t>
-  </si>
-  <si>
-    <t>will submit – collected</t>
-  </si>
-  <si>
-    <t>Đáp án A: will submit – has collected
-- Giải thích: diễn tả 1 hành động trong tương lai xảy ra sau khi đã hoàn thành 1 hành động khác ở hiện tại
-- Dịch: Ủy ban sẽ gửi báo cáo khi đã thu thập đủ thông tin</t>
-  </si>
-  <si>
     <t>The patient __ after he ___ ill for a long time</t>
   </si>
   <si>
-    <t>died – has been</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> dies – had been </t>
-  </si>
-  <si>
-    <t>died – had been</t>
-  </si>
-  <si>
-    <t>will die – will be</t>
-  </si>
-  <si>
-    <t>Đáp án C
-died – had been
-- Giải thích: câu chứa “for + khoảng thời gian” phải chia thì hoàn thành; Mệnh đề 1(Qk đơn) after
-- Mệnh đề 2 (quá khứ hoàn thành): một hành động trong quá khứ diễn ra sau 1 hành động khác đã
-diễn ra trước đó.
-- Dịch: Bệnh nhân đã chết sau khi bị bệnh 1 thời gian dài.</t>
-  </si>
-  <si>
     <t>By the time the security guards ___ what ___, the gang __already___ inside the bank</t>
   </si>
   <si>
-    <t>realized – was happening – had – been</t>
-  </si>
-  <si>
-    <t>will have realized – will be happening –
-were</t>
-  </si>
-  <si>
-    <t>had realized – happened – are</t>
-  </si>
-  <si>
-    <t>have realized – happened – were</t>
-  </si>
-  <si>
-    <t>Đáp án A
-- realized – was happening – had - been
-- Giải thích: by the time MỆNH ĐỀ 1, Mệnh đề 2 =&gt; Mệnh đề 1 chia quá khứ đơn, Mệnh đề 2
-chia quá khứ hoàn thành: diễn tả 1 hành động trong quá khứ xảy ra khi một hành động khác đã
-xảy ra rồi.
-- Dịch: Khi mà bảo an nhận ra điều gì đang diễn ra khi đó thì bọn cướp đã đột nhập vào ngân hàng
-rồi.</t>
-  </si>
-  <si>
     <t>Although he ___ to listen to the teacher, he ____ of the football match all the time.</t>
-  </si>
-  <si>
-    <t>has pretended – thought</t>
-  </si>
-  <si>
-    <t>pretended – was thinking</t>
-  </si>
-  <si>
-    <t>pretended – has thought</t>
-  </si>
-  <si>
-    <t>pretends – was thinking</t>
   </si>
   <si>
     <t>Đáp án B
@@ -1278,18 +1139,6 @@
   </si>
   <si>
     <t>He ___ so much money that he __ what to do with it.</t>
-  </si>
-  <si>
-    <t>earned – hadn’t known</t>
-  </si>
-  <si>
-    <t>earns – didn’t know</t>
-  </si>
-  <si>
-    <t>earns – doesn’t know</t>
-  </si>
-  <si>
-    <t>has earned – didn’t know</t>
   </si>
   <si>
     <t>Đáp án C
@@ -1323,22 +1172,6 @@
     <t>Ben and Claire ____ to pay us a visit as soon as they ___ in their new apartment.</t>
   </si>
   <si>
-    <t>“You’ve just missed the last bus.” – “Never mind, I ____.”</t>
-  </si>
-  <si>
-    <t>have been promising – were settling</t>
-  </si>
-  <si>
-    <t>promise – settled
-apartment.</t>
-  </si>
-  <si>
-    <t>promised – are settling</t>
-  </si>
-  <si>
-    <t>have promised – have settled</t>
-  </si>
-  <si>
     <t>Đáp án D
 - Giải thích: [hiện tại đơn/hiện tại hoàn thành] as soon as [hiện tại đơn/hiện tại hoàn thành]: diễn
 tả 1 hành động xảy ra ngay khi 1 hành động khác xảy ra.
@@ -1360,37 +1193,6 @@
     <t>Đáp án C
 - Dịch: Ford không ghen tị với bạn của anh ta, vài người trong số họ kiếm tiền nhiều hơn anh ấy.
 =&gt; Căn cứ theo ngữ cảnh của câu ta chia thì hiện tại đơn</t>
-  </si>
-  <si>
-    <t>aren’t doing – will be thinking</t>
-  </si>
-  <si>
-    <t>don’t do – will think</t>
-  </si>
-  <si>
-    <t>haven’t dome – thought</t>
-  </si>
-  <si>
-    <t>won’t do – think</t>
-  </si>
-  <si>
-    <t>Đáp án D
-won’t do – think
-- Giải thích: Diễn đạt một quyết định tại thời điểm nói hoặc dự đoán không có căn cứ, thường sử
-dụng thì tương lai đơn với động từ to think trước nó
-- Dịch: Họ sẽ không làm trừ khi họ không nghĩ ra cách nào khác</t>
-  </si>
-  <si>
-    <t>warned – doesn’t stop</t>
-  </si>
-  <si>
-    <t>warned – didn’t stop</t>
-  </si>
-  <si>
-    <t>warned – hadn’t stopped</t>
-  </si>
-  <si>
-    <t>has warned – didn’t stop</t>
   </si>
   <si>
     <t>Đáp án B
@@ -1402,18 +1204,6 @@
 trong quá khứ cùng với việc cảnh báo.</t>
   </si>
   <si>
-    <t xml:space="preserve"> had studied – came</t>
-  </si>
-  <si>
-    <t>has studied – has come</t>
-  </si>
-  <si>
-    <t xml:space="preserve">has been studying – came </t>
-  </si>
-  <si>
-    <t>studied – came</t>
-  </si>
-  <si>
     <t>Đáp án C
 - Giải thích: S + V(hiện tại hoàn thành/ hiện tại hoàn thành tiếp diễn) + since S + V(quá khứ đơn).
 - Dịch nghĩa: Cô ta đã học tiếng Pháp từ khi cô ta đến Illinois.</t>
@@ -1493,32 +1283,11 @@
 * Dịch nghĩa: Trước khi chúng ta biết chuyện gì đang xảy ra, mái nhà đã rơi xuống rồi</t>
   </si>
   <si>
-    <t>didn’t realize – had affected</t>
-  </si>
-  <si>
-    <t>didn’t realize – have affected</t>
-  </si>
-  <si>
-    <t>will never realize – had affected</t>
-  </si>
-  <si>
     <t>Đáp án A
 * Dịch nghĩa: Họ đã không nhận ra được những cuộc cãi vã giữa cha mẹ đứa trẻ ảnh hưởng sâu
 sắc đến nó như thế nào.
 - việc cãi vã xảy ra trước -&gt; " có ảnh hưởng lên đứa trẻ trước" =&gt; chia thì quá khứ hoàn thành.
 - “không nhận ra được” xảy ra sau .=&gt; chia thì quá khứ đơn.</t>
-  </si>
-  <si>
-    <t>show – was</t>
-  </si>
-  <si>
-    <t>show – is</t>
-  </si>
-  <si>
-    <t>showed – is</t>
-  </si>
-  <si>
-    <t>showed – will be</t>
   </si>
   <si>
     <t>Đáp án B
@@ -1830,32 +1599,10 @@
     <t xml:space="preserve"> didn’t hear </t>
   </si>
   <si>
-    <t>Đáp án B
-haven’t heard
-- Giải thích: Câu chứa “for + khoảng thời gian” sẽ chia thì hoàn thành.
-- Dịch: “Peter sao rồi?” – “Không biết. Mình không gặp anh ấy 5 tháng nay rồi”</t>
-  </si>
-  <si>
     <t>Their children _______ lots of new friends since they ________ to that town.</t>
   </si>
   <si>
-    <t>have made – moved</t>
-  </si>
-  <si>
-    <t>were making – have moved</t>
-  </si>
-  <si>
     <t>made - are moving</t>
-  </si>
-  <si>
-    <t>made – have been moving</t>
-  </si>
-  <si>
-    <t>Đáp án A
-have made – moved
-- Giải thích: [hiện tại hoàn thành] since [quá khứ đơn]: diễn tả một hành động diễn ra kể từ khi
-một hành động khác diễn ra trong quá khứ.
-- Dịch: Lũ trẻ của họ làm quen được nhiều bạn mới kể từ khi chúng chuyển đến thị trấn đó.</t>
   </si>
   <si>
     <t>He ________ a cigarette and _________ to the window.</t>
@@ -2580,11 +2327,6 @@
     <t>has changed/knew</t>
   </si>
   <si>
-    <t>Đáp án B
-- Dịch: Tôi không nghĩ anh ta đã thay đổi trong vòng 30 năm tôi biết anh ấy.
-=&gt; Tôi đã biết anh ấy trong khoảng 30 năm tính đến thời điểm nói và trong vòng 30 năm ấy anh ấy đã thay đổi. =&gt; Dùng thì hiện tại hoàn thành</t>
-  </si>
-  <si>
     <t>When I came to visit her last night, she ____ a bath.</t>
   </si>
   <si>
@@ -2598,33 +2340,6 @@
   </si>
   <si>
     <t>had had</t>
-  </si>
-  <si>
-    <t>Đáp án B
-- Căn cứ vào đây là mệnh đề trạng ngữ chỉ thời gian: Before S + V (quá khứ đơn), S + V (quá khứ hoàn thành).
-*Vế chứa “before” chia thì quá khứ đơn =&gt; Vế còn lại chia thì quá khứ hoàn thành.
-- Tạm dịch: Người quản lí đã đóng cửa trước khi tôi đến.</t>
-  </si>
-  <si>
-    <t>Đáp án A
-- Căn cứ vào đây là mệnh đề trạng ngữ chỉ thời gian: When S + V (hiện tại đơn), S + V (tương lai đơn).
-*Vế chứa “when” chia thì hiện tại đơn =&gt; Vế còn lại chia thì tương lai đơn.
-- Tạm dịch: Ngày mai khi chúng tôi gặp ông Minh, tôi sẽ nhắc nhở ông ấy về điều đó</t>
-  </si>
-  <si>
-    <t>Đáp án D
-- Căn cứ vào đây là mệnh đề trạng ngữ chỉ thời gian: After S + V (quá khứ hoàn thành), S + V
-(quá khứ đơn).
-Vế không chứa “after” chia thì quá khứ đơn =&gt; Vế còn lại chia thì quá khứ hoàn thành.
-- Dịch: Sau khi anh ấy hoàn thành khóa học tiếng anh, anh ấy đã đi đến nước Anh để tiếp tục
-việc học của mình.</t>
-  </si>
-  <si>
-    <t>Đáp án B
-- Căn cứ vào đây là mệnh đề trạng ngữ chỉ thời gian: While S + V (quá khứ tiếp diễn), S + V
-(quá khứ tiếp diễn). (Diễn tả hai hành động xảy ra song song cùng lúc trong quá khứ).
-Vế không chứa “while” chia thì quá khứ tiếp diễn =&gt; Vế còn lại chia thì quá khứ tiếp diễn.
-- Dịch: Trong khi bố của tôi đang xem phim trên TV, mẹ của tôi đang nấu ăn.</t>
   </si>
   <si>
     <t>Đáp án B
@@ -2634,22 +2349,6 @@
 - Dịch: Khi tôi đến thăm cô ấy tối qua, cô ấy đang tắm.</t>
   </si>
   <si>
-    <t>Đáp án B
-- Dịch: Khi tôi về nhà tôi thấy nước đang chảy xuống tường nhà bếp.
-=&gt; Ta chọn đáp án B. Diễn tả hành động “nước chảy” diễn ra tại thời điểm nói “lúc mà tôi về
-nhà”. Ở đây, có thể ngầm hiểu việc nước chảy đã xảy ra từ trước rồi, cụ thể từ lúc nào không rõ
-nhưng nó đã và đang diễn ra cho đến khi tôi về, và tại thời điểm tôi về đó là hành động “run
-down” cần chia đang diễn ra, nên ta chia ở quá khứ tiếp diễn.
-=&gt; Đáp án D chưa chính xác. Vì dùng thì quá khứ hoàn thành tiếp diễn để diễn tả một hành động
-đã xảy ra và kéo dài liên tục đến một hành động hoặc một thời điểm nào đó trong quá khứ và
-chấm dứt tại thời điểm đó. Tức là nếu chia theo đáp án D, ta hiểu tại thời điểm nói, lúc mà “tôi
-về”, nước đã không còn chảy nữa, như vậy lại mâu thuẫn với giả thiết là "tôi thấy nước đang
-chảy’’.
-=&gt; Vì dùng “I found” cho thấy bản thân họ đã chứng kiến điều gì đó đang diễn ra, nên lúc đó họ
-mới về thì họ không thể nào “thấy được việc nước chảy liên tục từ trước đó đến lúc họ về” được.
-*Note: Nếu ngữ cảnh là như ví dụ này, ta sẽ chia quá khứ hoàn thành tiếp diễn cho hành động tương tự</t>
-  </si>
-  <si>
     <t>Tom ____ before we arrive there.</t>
   </si>
   <si>
@@ -2662,13 +2361,6 @@
     <t xml:space="preserve"> will have left </t>
   </si>
   <si>
-    <t>Đáp án C
-– Dịch: Tom sẽ rời đi trước khi chúng tôi đến đó.
-Ta thấy:
-- Before + S + V(hiện tại đơn) -&gt; hành động chưa xảy ra. Do đó, ta loại A, B
-- Căn cứ vào nghĩa của câu: Hành động " tôi rời đi" sẽ xảy ra xong trước hành động "chúng tôi tới". -&gt; chia thì tương lai hoàn thành</t>
-  </si>
-  <si>
     <t>He ____ his Chinese course before he went to China to continue his business.</t>
   </si>
   <si>
@@ -2684,14 +2376,6 @@
     <t>will have finished</t>
   </si>
   <si>
-    <t>Đáp án C
-– Căn cứ vào đây là mệnh đề trạng ngữ chỉ thời gian:
-Before S + V (quá khứ đơn), S + V (quá khứ hoàn thành).
-*Vế chứa “before” chia thì quá khứ đơn =&gt; Vế còn lại chia thì quá khứ hoan thành.
-– Dịch: Anh ấy đã hoàn thành khóa học tiếng Trung Quốc trước khi anh ấy đến Trung Quốc để
-tiếp tục công việc kinh doanh của mình.</t>
-  </si>
-  <si>
     <t>Please send us a postcard as soon as you ____ in London.</t>
   </si>
   <si>
@@ -2705,11 +2389,6 @@
   </si>
   <si>
     <t>arrived</t>
-  </si>
-  <si>
-    <t>Đáp án C
-– Căn cứ vào đây là mệnh đề trạng ngữ chỉ thời gian: V (nguyên dạng)/Don’t + V (nguyên dạng) + until/As soon as + S + V (hiện tại đơn/ hiện tại hoàn thành).
-– Dịch: Hãy gửi cho chúng tôi bưu thiếp ngay sau khi bạn đến London</t>
   </si>
   <si>
     <t>A large number of students in Chu Van An high school_______English fluently.</t>
@@ -3825,18 +3504,6 @@
 exercise in some stuffy gyms.</t>
   </si>
   <si>
-    <t>to walk – done</t>
-  </si>
-  <si>
-    <t>walking – doing</t>
-  </si>
-  <si>
-    <t>walk – to be doing</t>
-  </si>
-  <si>
-    <t>having walked – do</t>
-  </si>
-  <si>
     <t>Authorities should warn people against ________ hazardous foods containing additives.</t>
   </si>
   <si>
@@ -3906,18 +3573,6 @@
     <t xml:space="preserve"> ________ between the two attacks, the commander tried to prevent the enemy troops  ___ their strength</t>
   </si>
   <si>
-    <t>Without delaying – to gather</t>
-  </si>
-  <si>
-    <t>By not delaying – from gathering</t>
-  </si>
-  <si>
-    <t>In delaying – for gathering</t>
-  </si>
-  <si>
-    <t>Having delayed – without gathering</t>
-  </si>
-  <si>
     <t>- Đáp án B
 + Căn cứ vào: “prevent sb from sth”: ngăn cản ai làm gì.
 + By + Ving/N: bằng cách làm gì/bằng cách gì
@@ -3991,18 +3646,6 @@
   </si>
   <si>
     <t>Did you actually see the boy ________ over the fence into Mr. Jones’ garden, or did you just hear other boys ______ about it?</t>
-  </si>
-  <si>
-    <t>jumping – talking</t>
-  </si>
-  <si>
-    <t>to jump – being talked</t>
-  </si>
-  <si>
-    <t>having jumped – to talk</t>
-  </si>
-  <si>
-    <t>to be jumping – talk</t>
   </si>
   <si>
     <t>- Đáp án A
@@ -4497,18 +4140,6 @@
     <t>I’m absolutely fed up with ________ to the same place for our holidays year after year. Let’s consider ________ elsewhere this summer, shall we?</t>
   </si>
   <si>
-    <t>to go – to go</t>
-  </si>
-  <si>
-    <t>having gone – go</t>
-  </si>
-  <si>
-    <t>gone – going</t>
-  </si>
-  <si>
-    <t>going – going</t>
-  </si>
-  <si>
     <t>- Đáp án D
 - Giải thích:
 * + fed up with Ving: chán làm gì.
@@ -4574,18 +4205,6 @@
     <t>Actually I dislike ________ by train, but I still prefer it to ________ because at least on a train you are still on the ground!</t>
   </si>
   <si>
-    <t>to travel – have flown</t>
-  </si>
-  <si>
-    <t>having travelled – being flown</t>
-  </si>
-  <si>
-    <t>travelling – flying</t>
-  </si>
-  <si>
-    <t>travelled – be flying</t>
-  </si>
-  <si>
     <t>- Đáp án C
 - Giải thích:
 + dislike Ving: không thích làm gì.
@@ -4616,18 +4235,6 @@
     <t xml:space="preserve"> Your blue shirt has been washed, but it still needs ________. Why do you insist ________ it today anyway?</t>
   </si>
   <si>
-    <t>to be ironed – wearing</t>
-  </si>
-  <si>
-    <t>to have ironed – to wear</t>
-  </si>
-  <si>
-    <t>ironing – on wearing</t>
-  </si>
-  <si>
-    <t>being ironed – to be wearing</t>
-  </si>
-  <si>
     <t>- Đáp án C
 - Giải thích:
 + need Ving = need to be + Vp2: cần được làm gì.
@@ -4635,9 +4242,6 @@
 - Dịch nghĩa: Cái váy xanh của bạn đã được giặt xong, nhưng nó cần phải được là nữa. Sao bạn cứ khăng khăng mặc nó hôm nay thế?</t>
   </si>
   <si>
-    <t>You know there is no point in ________ about the past – after all, you can’t change it, can you?</t>
-  </si>
-  <si>
     <t>to worry</t>
   </si>
   <si>
@@ -4659,6 +4263,1119 @@
   </si>
   <si>
     <t>fsdfsdfdfd</t>
+  </si>
+  <si>
+    <t>- Đáp án B
+- Căn cứ vào đây là mệnh đề trạng ngữ chỉ thời gian: While S + V (quá khứ tiếp diễn), S + V
+(quá khứ tiếp diễn). (Diễn tả hai hành động xảy ra song song cùng lúc trong quá khứ).
+Vế không chứa “while” chia thì quá khứ tiếp diễn =&gt; Vế còn lại chia thì quá khứ tiếp diễn.
+- Dịch: Trong khi bố của tôi đang xem phim trên TV, mẹ của tôi đang nấu ăn.</t>
+  </si>
+  <si>
+    <t>- Đáp án B
+- Dịch: Tôi không nghĩ anh ta đã thay đổi trong vòng 30 năm tôi biết anh ấy.
+=&gt; Tôi đã biết anh ấy trong khoảng 30 năm tính đến thời điểm nói và trong vòng 30 năm ấy anh ấy đã thay đổi. =&gt; Dùng thì hiện tại hoàn thành</t>
+  </si>
+  <si>
+    <t>- Đáp án B
+- Dịch: Khi tôi về nhà tôi thấy nước đang chảy xuống tường nhà bếp.
+=&gt; Ta chọn đáp án B. Diễn tả hành động “nước chảy” diễn ra tại thời điểm nói “lúc mà tôi về
+nhà”. Ở đây, có thể ngầm hiểu việc nước chảy đã xảy ra từ trước rồi, cụ thể từ lúc nào không rõ
+nhưng nó đã và đang diễn ra cho đến khi tôi về, và tại thời điểm tôi về đó là hành động “run
+down” cần chia đang diễn ra, nên ta chia ở quá khứ tiếp diễn.
+=&gt; Đáp án D chưa chính xác. Vì dùng thì quá khứ hoàn thành tiếp diễn để diễn tả một hành động
+đã xảy ra và kéo dài liên tục đến một hành động hoặc một thời điểm nào đó trong quá khứ và
+chấm dứt tại thời điểm đó. Tức là nếu chia theo đáp án D, ta hiểu tại thời điểm nói, lúc mà “tôi
+về”, nước đã không còn chảy nữa, như vậy lại mâu thuẫn với giả thiết là "tôi thấy nước đang
+chảy’’.
+=&gt; Vì dùng “I found” cho thấy bản thân họ đã chứng kiến điều gì đó đang diễn ra, nên lúc đó họ
+mới về thì họ không thể nào “thấy được việc nước chảy liên tục từ trước đó đến lúc họ về” được.
+*Note: Nếu ngữ cảnh là như ví dụ này, ta sẽ chia quá khứ hoàn thành tiếp diễn cho hành động tương tự</t>
+  </si>
+  <si>
+    <t>-Đáp án A
+- Căn cứ vào đây là mệnh đề trạng ngữ chỉ thời gian: When S + V (hiện tại đơn), S + V (tương lai đơn).
+*Vế chứa “when” chia thì hiện tại đơn =&gt; Vế còn lại chia thì tương lai đơn.
+- Tạm dịch: Ngày mai khi chúng tôi gặp ông Minh, tôi sẽ nhắc nhở ông ấy về điều đó</t>
+  </si>
+  <si>
+    <t>-Đáp án B
+- Căn cứ vào đây là mệnh đề trạng ngữ chỉ thời gian: Before S + V (quá khứ đơn), S + V (quá khứ hoàn thành).
+*Vế chứa “before” chia thì quá khứ đơn =&gt; Vế còn lại chia thì quá khứ hoàn thành.
+- Tạm dịch: Người quản lí đã đóng cửa trước khi tôi đến.</t>
+  </si>
+  <si>
+    <t>-Đáp án D
+- Căn cứ vào đây là mệnh đề trạng ngữ chỉ thời gian: After S + V (quá khứ hoàn thành), S + V
+(quá khứ đơn).
+Vế không chứa “after” chia thì quá khứ đơn =&gt; Vế còn lại chia thì quá khứ hoàn thành.
+- Dịch: Sau khi anh ấy hoàn thành khóa học tiếng anh, anh ấy đã đi đến nước Anh để tiếp tục
+việc học của mình.</t>
+  </si>
+  <si>
+    <t>Đáp án C
+- Dịch: Tom sẽ rời đi trước khi chúng tôi đến đó.
+Ta thấy:
+- Before + S + V(hiện tại đơn) -&gt; hành động chưa xảy ra. Do đó, ta loại A, B
+- Căn cứ vào nghĩa của câu: Hành động " tôi rời đi" sẽ xảy ra xong trước hành động "chúng tôi tới". -&gt; chia thì tương lai hoàn thành</t>
+  </si>
+  <si>
+    <t>- Đáp án C
+- Căn cứ vào đây là mệnh đề trạng ngữ chỉ thời gian:
+Before S + V (quá khứ đơn), S + V (quá khứ hoàn thành).
+*Vế chứa “before” chia thì quá khứ đơn =&gt; Vế còn lại chia thì quá khứ hoan thành.
+- Dịch: Anh ấy đã hoàn thành khóa học tiếng Trung Quốc trước khi anh ấy đến Trung Quốc để
+tiếp tục công việc kinh doanh của mình.</t>
+  </si>
+  <si>
+    <t>- Đáp án C
+- Căn cứ vào đây là mệnh đề trạng ngữ chỉ thời gian: V (nguyên dạng)/Don’t + V (nguyên dạng) + until/As soon as + S + V (hiện tại đơn/ hiện tại hoàn thành).
+- Dịch: Hãy gửi cho chúng tôi bưu thiếp ngay sau khi bạn đến London</t>
+  </si>
+  <si>
+    <t>We ____ for going home when it began to rain.</t>
+  </si>
+  <si>
+    <t>were preparing</t>
+  </si>
+  <si>
+    <t>will be preparing</t>
+  </si>
+  <si>
+    <t>have prepared</t>
+  </si>
+  <si>
+    <t>I ______ you this book when I meet you tomorrow</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>will give</t>
+  </si>
+  <si>
+    <t>has given</t>
+  </si>
+  <si>
+    <t>John ______ in the same house since he left school</t>
+  </si>
+  <si>
+    <t>lived</t>
+  </si>
+  <si>
+    <t>had lived</t>
+  </si>
+  <si>
+    <t>was living</t>
+  </si>
+  <si>
+    <t>has lived</t>
+  </si>
+  <si>
+    <t>I had prepared dinner before I _____ to work.</t>
+  </si>
+  <si>
+    <t>was going</t>
+  </si>
+  <si>
+    <t>had gone</t>
+  </si>
+  <si>
+    <t>is going</t>
+  </si>
+  <si>
+    <t>When she came into the hall, she ____ her arms to the audience, smiled and bowed deeply</t>
+  </si>
+  <si>
+    <t>opened</t>
+  </si>
+  <si>
+    <t>had opened</t>
+  </si>
+  <si>
+    <t>was opening</t>
+  </si>
+  <si>
+    <t>is opening</t>
+  </si>
+  <si>
+    <t>I have never played badminton before. This is the first time I _____ to play it.</t>
+  </si>
+  <si>
+    <t>try</t>
+  </si>
+  <si>
+    <t>tried</t>
+  </si>
+  <si>
+    <t>have tried</t>
+  </si>
+  <si>
+    <t>am trying</t>
+  </si>
+  <si>
+    <t>The car ____ ready for him by the time he comes tomorrow.</t>
+  </si>
+  <si>
+    <t>will being</t>
+  </si>
+  <si>
+    <t>are going to be</t>
+  </si>
+  <si>
+    <t>- Đáp án B
+* Căn cứ vào mệnh đề trạng ngữ chỉ thời gian:
+By the time S + V (hiện tại đơn), S + V (tương lai hoàn thành).
+* Vế chứa “by the time” chia thì hiện tại đơn =&gt; Vế còn lại chia thì tương lai hoàn thành.
+* Dịch: Ngày mai vào lúc anh ấy đến, chiếc xe sẽ sẵn sàng cho anh ấy.</t>
+  </si>
+  <si>
+    <t>looked/saw/had changed</t>
+  </si>
+  <si>
+    <t>looked/saw/changed</t>
+  </si>
+  <si>
+    <t>looked/had seen/had changed</t>
+  </si>
+  <si>
+    <t>had looked/had seen/had changed</t>
+  </si>
+  <si>
+    <t>- Đáp án C
+* Dịch nghĩa: Anh ấy chào cô ấy. Cô ấy trông đẹp hơn khi anh ấy nhìn thấy cô lần cuối. Phải, cô
+ấy đã thay đổi.
+Giải thích:
+- "gặp" và "thay đổi" xảy ra trước. =&gt; chia thì quá khứ hoàn thành.
+- "trông đẹp hơn" xảy ra sau. =&gt; chia thì quá khứ đơn.</t>
+  </si>
+  <si>
+    <t>When I last saw him, he _____ in London.</t>
+  </si>
+  <si>
+    <t>He greeted her. She really ______ better than when he ____ her last. Yes, she__.</t>
+  </si>
+  <si>
+    <t>is living</t>
+  </si>
+  <si>
+    <t>I sat down at the desk and __ why my father’s letter _______ yet. I __ to ask him to send me some money at once.</t>
+  </si>
+  <si>
+    <t>wonder/hasn’t arrive/wrote</t>
+  </si>
+  <si>
+    <t>wondered/hadn’t arrived/wrote</t>
+  </si>
+  <si>
+    <t>wondered/hasn’t arrived/wrote</t>
+  </si>
+  <si>
+    <t>wondered/hadn’t arrived/had written</t>
+  </si>
+  <si>
+    <t xml:space="preserve">have arrived - noticed - left </t>
+  </si>
+  <si>
+    <t>Đáp án B
+- Dịch nghĩa: Khi chúng tôi đến sân bay chúng tôi nhận ra rằng chúng tôi đã quên hộ chiếu ở văn
+phòng.
+- Căn cứ:
++ cách dùng của thì quá khứ đơn: dùng để liệt kê các hành động trong quá khứ.
++ hành động để quên passports đã diễn ra trước đó nên chia quá khứ hoàn thành.
+- Đáp án: arrived - noticed - had left.</t>
+  </si>
+  <si>
+    <t>went - went</t>
+  </si>
+  <si>
+    <t>goes - is going
+* Giải thích:
+- dùng hiện tại đơn diễn tả thói quen hằng ngày.
+- dùng hiện tại tiếp diễn: diễn tả hành động sẽ xảy ra trong tương lai (“today”: ngày hôm nay)
+* Dịch: Bình thường anh ấy đi làm bằng ô tô những hôm nay anh sẽ đi bus vì xe của anh ấy đang
+ở garage</t>
+  </si>
+  <si>
+    <t>Đáp án D
+- announced - haven’t seen
+* Giải thích: yesterday =&gt; Qk đơn; yet =&gt; hiện tại hoàn thành
+* Dịch nghĩa: Hôm qua TV báo hôm nay sẽ mưa rào nhưng tôi chưa thấy hạt mưa nào cả.</t>
+  </si>
+  <si>
+    <t>Đáp án D
+- was waiting - stole
+- Giải thích: while S -Ving: Trong khi ai đó đang làm gì
+- Dịch: Trong khi cô ấy chờ chị gái ngoài siêu thị, ai đó đã trộm túi của cô.</t>
+  </si>
+  <si>
+    <t>Đáp án C
+hadn’t finished - began
+Giải thích: yet =&gt; thì hoàn thành
+Dịch: Phát thanh viên vẫn chưa nói xong khi mà một khán giả bắt đầu tức giận quát mắng cô.</t>
+  </si>
+  <si>
+    <t>have checked - are</t>
+  </si>
+  <si>
+    <t>had sent - had received</t>
+  </si>
+  <si>
+    <t>will have sent - has received</t>
+  </si>
+  <si>
+    <t>has sent - receives</t>
+  </si>
+  <si>
+    <t>sent - had received</t>
+  </si>
+  <si>
+    <t>Will - cut off</t>
+  </si>
+  <si>
+    <t>Are - going to cut off</t>
+  </si>
+  <si>
+    <t>Do - cut off</t>
+  </si>
+  <si>
+    <t>Will - be cutting off</t>
+  </si>
+  <si>
+    <t>will submit - has collected</t>
+  </si>
+  <si>
+    <t>submits - collected</t>
+  </si>
+  <si>
+    <t>will submit - will collect</t>
+  </si>
+  <si>
+    <t>will submit - collected</t>
+  </si>
+  <si>
+    <t>Đáp án A: will submit - has collected
+- Giải thích: diễn tả 1 hành động trong tương lai xảy ra sau khi đã hoàn thành 1 hành động khác ở hiện tại
+- Dịch: Ủy ban sẽ gửi báo cáo khi đã thu thập đủ thông tin</t>
+  </si>
+  <si>
+    <t>died - has been</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dies - had been </t>
+  </si>
+  <si>
+    <t>died - had been</t>
+  </si>
+  <si>
+    <t>will die - will be</t>
+  </si>
+  <si>
+    <t>Đáp án C
+died - had been
+- Giải thích: câu chứa “for + khoảng thời gian” phải chia thì hoàn thành; Mệnh đề 1(Qk đơn) after
+- Mệnh đề 2 (quá khứ hoàn thành): một hành động trong quá khứ diễn ra sau 1 hành động khác đã
+diễn ra trước đó.
+- Dịch: Bệnh nhân đã chết sau khi bị bệnh 1 thời gian dài.</t>
+  </si>
+  <si>
+    <t>realized - was happening - had - been</t>
+  </si>
+  <si>
+    <t>will have realized - will be happening -
+were</t>
+  </si>
+  <si>
+    <t>had realized - happened - are</t>
+  </si>
+  <si>
+    <t>have realized - happened - were</t>
+  </si>
+  <si>
+    <t>Đáp án A
+- realized - was happening - had - been
+- Giải thích: by the time MỆNH ĐỀ 1, Mệnh đề 2 =&gt; Mệnh đề 1 chia quá khứ đơn, Mệnh đề 2
+chia quá khứ hoàn thành: diễn tả 1 hành động trong quá khứ xảy ra khi một hành động khác đã
+xảy ra rồi.
+- Dịch: Khi mà bảo an nhận ra điều gì đang diễn ra khi đó thì bọn cướp đã đột nhập vào ngân hàng
+rồi.</t>
+  </si>
+  <si>
+    <t>has pretended - thought</t>
+  </si>
+  <si>
+    <t>pretended - was thinking</t>
+  </si>
+  <si>
+    <t>pretended - has thought</t>
+  </si>
+  <si>
+    <t>pretends - was thinking</t>
+  </si>
+  <si>
+    <t>earned - hadn’t known</t>
+  </si>
+  <si>
+    <t>earns - didn’t know</t>
+  </si>
+  <si>
+    <t>earns - doesn’t know</t>
+  </si>
+  <si>
+    <t>has earned - didn’t know</t>
+  </si>
+  <si>
+    <t>“You’ve just missed the last bus.” - “Never mind, I ____.”</t>
+  </si>
+  <si>
+    <t>promise - settled
+apartment.</t>
+  </si>
+  <si>
+    <t>have been promising - were settling</t>
+  </si>
+  <si>
+    <t>promised - are settling</t>
+  </si>
+  <si>
+    <t>have promised - have settled</t>
+  </si>
+  <si>
+    <t>aren’t doing - will be thinking</t>
+  </si>
+  <si>
+    <t>don’t do - will think</t>
+  </si>
+  <si>
+    <t>haven’t dome - thought</t>
+  </si>
+  <si>
+    <t>won’t do - think</t>
+  </si>
+  <si>
+    <t>Đáp án D
+won’t do - think
+- Giải thích: Diễn đạt một quyết định tại thời điểm nói hoặc dự đoán không có căn cứ, thường sử
+dụng thì tương lai đơn với động từ to think trước nó
+- Dịch: Họ sẽ không làm trừ khi họ không nghĩ ra cách nào khác</t>
+  </si>
+  <si>
+    <t>warned - doesn’t stop</t>
+  </si>
+  <si>
+    <t>warned - didn’t stop</t>
+  </si>
+  <si>
+    <t>warned - hadn’t stopped</t>
+  </si>
+  <si>
+    <t>has warned - didn’t stop</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> had studied - came</t>
+  </si>
+  <si>
+    <t>has studied - has come</t>
+  </si>
+  <si>
+    <t xml:space="preserve">has been studying - came </t>
+  </si>
+  <si>
+    <t>studied - came</t>
+  </si>
+  <si>
+    <t>didn’t realize - had affected</t>
+  </si>
+  <si>
+    <t>didn’t realize - have affected</t>
+  </si>
+  <si>
+    <t>will never realize - had affected</t>
+  </si>
+  <si>
+    <t>show - was</t>
+  </si>
+  <si>
+    <t>show - is</t>
+  </si>
+  <si>
+    <t>showed - is</t>
+  </si>
+  <si>
+    <t>showed - will be</t>
+  </si>
+  <si>
+    <t>Đáp án B
+haven’t heard
+- Giải thích: Câu chứa “for + khoảng thời gian” sẽ chia thì hoàn thành.
+- Dịch: “Peter sao rồi?” - “Không biết. Mình không gặp anh ấy 5 tháng nay rồi”</t>
+  </si>
+  <si>
+    <t>have made - moved</t>
+  </si>
+  <si>
+    <t>were making - have moved</t>
+  </si>
+  <si>
+    <t>made - have been moving</t>
+  </si>
+  <si>
+    <t>Đáp án A
+have made - moved
+- Giải thích: [hiện tại hoàn thành] since [quá khứ đơn]: diễn tả một hành động diễn ra kể từ khi
+một hành động khác diễn ra trong quá khứ.
+- Dịch: Lũ trẻ của họ làm quen được nhiều bạn mới kể từ khi chúng chuyển đến thị trấn đó.</t>
+  </si>
+  <si>
+    <t>- Đáp án A
+- Căn cứ vào đây là mệnh đề trạng ngữ chỉ thời gian: When S + V (quá khứ đơn), S + V (quá
+khứ tiếp diễn).
+Vế chứa “when” chia thì quá khứ đơn =&gt; Vế còn lại chia thì quá khứ tiếp diễn.
+- Dịch: Chúng tôi đang chuẩn bị về nhà thì trời mưa.</t>
+  </si>
+  <si>
+    <t>- Đáp án B
+- Căn cứ vào đây là mệnh đề trạng ngữ chỉ thời gian: When S + V (hiện tại đơn), S + V (tương
+lai đơn).
+Vế chứa “when” chia thì hiện tại đơn =&gt; Vế còn lại chia thì tương lai đơn.
+- Dịch: Tôi sẽ cho bạn cuốn sách này khi tôi gặp bạn ngày mai.</t>
+  </si>
+  <si>
+    <t>- Đáp án D
+- Căn cứ vào đây là mệnh đề trạng ngữ chỉ thời gian: S + V (hiện tại hoàn thành) + since + S + V
+(quá khứ đơn).
+- Dịch: John đã sống ở cùng căn nhà đó kể từ khi anh ấy rời trường.</t>
+  </si>
+  <si>
+    <t>- Đáp án A
+- Căn cứ vào đây là mệnh đề trạng ngữ chỉ thời gian: Before S + V (quá khứ đơn), S + V (quá
+khứ hoàn thành).
+Vế không chứa “before” chia thì quá khứ hoàn thành =&gt; Vế còn lại chia thì quá đơn.
+- Dịch: Tôi đã chuẩn bị bữa tối trước khi tôi đi làm.</t>
+  </si>
+  <si>
+    <t>- Đáp án A
+- Căn cứ vào đây là mệnh đề trạng ngữ chỉ thời gian: When S + V (quá khứ đơn), S + V (quá khứ đơn). (diễn tả hai hành động xảy ra nối tiếp nhau trong quá khứ).
+- Dịch: Khi cô ấy bước vào hội trường, cô ấy đã dang ta ra với khán giả, cười và cúi đầu.</t>
+  </si>
+  <si>
+    <t>-Đáp án C
+- Căn cứ vào đây là mệnh đề trạng ngữ chỉ thời gian: It is the first time S + V: đó là lần đầu tiên ai đó làm gì -&gt; chia hiện tại hoàn thành vì diễn tả một hành động từ trong quá khứ tính đến thời điểm hiện tại thì như thế nào
+- Dịch: Tôi chưa từng chơi cầu lông trước đây. Đây là lần đầu tiên tôi chơi cầu lông</t>
+  </si>
+  <si>
+    <t>- Đáp án C
+- Căn cứ vào đây là mệnh đề trạng ngữ chỉ thời gian: When S + V (quá khứ đơn), S + V (quá khứ tiếp diễn).
+- Dịch: Khi tôi nhìn thấy anh ấy lần cuối, anh ấy đang sống ở London.</t>
+  </si>
+  <si>
+    <t>- Đáp án D
+- Dịch: Tôi đã ngồi xuống bàn và tự hỏi không biết lá thư của Ba đã đến nơi chưa. Tôi đã viết thư để bảo Ba gửi tiền cho tôi ngay lập tức.
++ Căn cứ vào động từ “sat” thì các động từ phía sau phải chia thì quá khứ =&gt; loại A
++ Dấu hiệu câu tường thuật: “Wondered + why + S + V(lùi thì)” =&gt; Loại C
++ Ta thấy hành động “lá thư đến” và hành động “viết thư” đều xảy ra trước hành động " ngồi và tự hỏi"
+=&gt; Xảy ra trước quá khứ =&gt; quá khứ hoàn thành</t>
+  </si>
+  <si>
+    <t>to walk - done</t>
+  </si>
+  <si>
+    <t>walking - doing</t>
+  </si>
+  <si>
+    <t>walk - to be doing</t>
+  </si>
+  <si>
+    <t>having walked - do</t>
+  </si>
+  <si>
+    <t>Without delaying - to gather</t>
+  </si>
+  <si>
+    <t>By not delaying - from gathering</t>
+  </si>
+  <si>
+    <t>In delaying - for gathering</t>
+  </si>
+  <si>
+    <t>Having delayed - without gathering</t>
+  </si>
+  <si>
+    <t>jumping - talking</t>
+  </si>
+  <si>
+    <t>to jump - being talked</t>
+  </si>
+  <si>
+    <t>having jumped - to talk</t>
+  </si>
+  <si>
+    <t>to be jumping - talk</t>
+  </si>
+  <si>
+    <t>to go - to go</t>
+  </si>
+  <si>
+    <t>having gone - go</t>
+  </si>
+  <si>
+    <t>gone - going</t>
+  </si>
+  <si>
+    <t>going - going</t>
+  </si>
+  <si>
+    <t>to travel - have flown</t>
+  </si>
+  <si>
+    <t>having travelled - being flown</t>
+  </si>
+  <si>
+    <t>travelling - flying</t>
+  </si>
+  <si>
+    <t>travelled - be flying</t>
+  </si>
+  <si>
+    <t>to be ironed - wearing</t>
+  </si>
+  <si>
+    <t>to have ironed - to wear</t>
+  </si>
+  <si>
+    <t>ironing - on wearing</t>
+  </si>
+  <si>
+    <t>being ironed - to be wearing</t>
+  </si>
+  <si>
+    <t>You know there is no point in ________ about the past - after all, you can’t change it, can you?</t>
+  </si>
+  <si>
+    <t>By Christmas, I _______ for Mr. Smith for six years.</t>
+  </si>
+  <si>
+    <t>will have been working</t>
+  </si>
+  <si>
+    <t>will work</t>
+  </si>
+  <si>
+    <t>will be working</t>
+  </si>
+  <si>
+    <t>-Đáp án A
+*Dịch: Tính tới giáng sinh, tôi sẽ đã làm làm việc cho ông Smit được 6 năm.
+Ta có:
+- By + dấu hiệu của quá khứ -&gt; ta chia thì quá khứ hoàn thành. Xét 4 đáp án không có đáp án nào là thì quá khứ hoàn thành.
+- By + dấu hiệu của tương lai -&gt; ta chia thì tương lai hoàn thành.
+=&gt; Đáp án A
+(Người ta dùng thì tương lai hoàn thành tiếp diễn thay cho thì tương lai hoàn thành để nhấn
+mạnh tính liên tục của hành động.)</t>
+  </si>
+  <si>
+    <t>I will come and see you before I _____ for the States</t>
+  </si>
+  <si>
+    <t>will leave</t>
+  </si>
+  <si>
+    <t>have left</t>
+  </si>
+  <si>
+    <t>shall leave</t>
+  </si>
+  <si>
+    <t>- Đáp án A
+* Dịch: Tôi sẽ đến và gặp bạn trước khi tôi rời khỏi Mỹ.
+=&gt; Diễn tả hành động xảy ra trong tương lai
+=&gt; Sau mệnh đề trạng ngữ chỉ thời gian không chia thì tương lai. Do đó, ta loại B, D
+-&gt; Căn cứ vào nghĩa của câu ta chọn A</t>
+  </si>
+  <si>
+    <t>By the age of 25, he _____ two famous novels.</t>
+  </si>
+  <si>
+    <t>writes</t>
+  </si>
+  <si>
+    <t>-Đáp án D
+– Căn cứ vào đây là mệnh đề trạng ngữ chỉ thời gian:
+By + thời gian quá khứ =&gt; chia thì quá khứ hoàn thành.
+– Dịch: Vào tuổi 25, anh ấy đã viết hai cuốn tiểu thuyết nổi tiếng.</t>
+  </si>
+  <si>
+    <t>When her husband was in the army, Mary _________ to him twice a week</t>
+  </si>
+  <si>
+    <t>was writing</t>
+  </si>
+  <si>
+    <t>- Đáp án B
+– Căn cứ vào đây là mệnh đề trạng ngữ chỉ thời gian: When S + V (quá khứ đơn), S + V (quá khứ đơn): diễn tả hồi ức, thói quen trong quá khứ
+=&gt; Ở đây có thể hiểu rằng trong lúc chồng đang đi lính thì Mary cũng viết thư thường xuyên cho chồng trong thời gian đó, hai hành động cùng diễn ra song song trong một khoảng thời gian ở quá khứ như một thói quen, nên ta chia hai vế cho quá khứ đơn.
+– Dịch: Khi chồng cô ấy ở trong quân đội, Mary viết thư cho anh ấy hai lần một tuần.</t>
+  </si>
+  <si>
+    <t>I have never played football before. This is the first time I _____ playing.</t>
+  </si>
+  <si>
+    <t>- Đáp án C
+– Căn cứ vào đây là mệnh đề trạng ngữ chỉ thời gian:
+This is the first time S + V (hiện tại hoàn thành).
+– Dịch: Tôi chưa bao giờ chơi bóng đá trước đây. Đây là lần đầu tiên tôi thử chơi</t>
+  </si>
+  <si>
+    <t>Since Tom ________________, I have heard nothing from him.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">had left </t>
+  </si>
+  <si>
+    <t>- Đáp án B
+– Căn cứ vào đây là mệnh đề trạng ngữ chỉ thời gian: S + V (hiện tại hoàn thành) since S + V
+(quá khứ đơn).
+– Dịch: Từ khi Tom rời đi, tôi chưa nghe tin tức gì từ anh ấy</t>
+  </si>
+  <si>
+    <t>After I _______________ lunch, I looked for my bag.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">had had </t>
+  </si>
+  <si>
+    <t>will have had</t>
+  </si>
+  <si>
+    <t>have had</t>
+  </si>
+  <si>
+    <t>- Đáp án B
+– Căn cứ vào đây là mệnh đề trạng ngữ chỉ thời gian:
+After S + had Vp2, S + V (quá khứ đơn).
+– Dịch: Sau khi tôi ăn trưa, tôi đã tìm túi của mình.</t>
+  </si>
+  <si>
+    <t>By the end of next year, George _________________ English for two years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">will have learned </t>
+  </si>
+  <si>
+    <t xml:space="preserve">will learn </t>
+  </si>
+  <si>
+    <t>has learned</t>
+  </si>
+  <si>
+    <t>would learn</t>
+  </si>
+  <si>
+    <t>- Đáp án A
+– Căn cứ vào đây là mệnh đề trạng ngữ chỉ thời gian: By + trạng từ của tương lai =&gt; động từ chia
+thì tương lai hoàn thành.
+– Dịch: Vào cuối của năm tới, George đã học tiếng anh trong 2 năm.</t>
+  </si>
+  <si>
+    <t>These were the highest words of praise they _______________from the old man.</t>
+  </si>
+  <si>
+    <t>ever heard</t>
+  </si>
+  <si>
+    <t>had ever had</t>
+  </si>
+  <si>
+    <t>- Đáp án C
+* Dịch nghĩa: Đó là những lời tán dương nhất mà họ nhận được từ người đàn ông đã có tuổi.
+- Căn cứ vào trạng từ "ever" thì động từ "hear" sẽ chia thì hoàn thành. Căn cứ vào động từ "were" thì động từ ở mệnh đề sau phải chia thì quá khứ hoàn thành.</t>
+  </si>
+  <si>
+    <t>He will take the dog out for a walk as soon as he __________________ dinner.</t>
+  </si>
+  <si>
+    <t>finish</t>
+  </si>
+  <si>
+    <t>finishes</t>
+  </si>
+  <si>
+    <t>finishing</t>
+  </si>
+  <si>
+    <t>- Đáp án B
+– Căn cứ vào đây là mệnh đề trạng ngữ chỉ thời gian: As soon as + S + V (hiện tại đơn / hiện tại hoàn thành), S + V (tương lai đơn).
+- Vế không chứa “as soon as” chia thì tương lai đơn =&gt; Vế còn lại chia thì hiện tại đơn/hiện tại hoàn thành.
+– Dịch: Anh ấy sẽ đưa con chó đi dạo ngay khi anh ấy ăn xong.</t>
+  </si>
+  <si>
+    <t>She __________ the children to her, and ________ the words she ________ to the others.</t>
+  </si>
+  <si>
+    <t>drew/said/had said</t>
+  </si>
+  <si>
+    <t>was drawing/said/said</t>
+  </si>
+  <si>
+    <t>had drawn/had said/said</t>
+  </si>
+  <si>
+    <t>draws/is saying/has said</t>
+  </si>
+  <si>
+    <t>- Đáp án A
+* Dịch nghĩa: Cô ta đã dụ dỗ bọn trẻ lại gần cô ta rồi nói những lời mà cô ta đã nói với những đứa trẻ khác.
+=&gt; Căn cứ vào nghĩa của câu ta có 2 hành động xảy ra nối tiếp nhau: “lôi kéo, dụ dỗ” và " nói"
+=&gt; chia thì quá khứ đơn</t>
+  </si>
+  <si>
+    <t>He fell down when he ________________ towards the church.</t>
+  </si>
+  <si>
+    <t>run</t>
+  </si>
+  <si>
+    <t>runs</t>
+  </si>
+  <si>
+    <t>had run</t>
+  </si>
+  <si>
+    <t>- Đáp án C
+- Dịch: Anh ấy đã bị ngã khi anh ấy đang chạy về hướng nhà thờ.
+=&gt; Hành động chạy về hướng nhà thờ là hành động xảy ra trước hành động ngã và vẫn còn
+đang xảy ra nên ta chia thì quá khứ tiếp diễn</t>
+  </si>
+  <si>
+    <t>Within a week she knew the fearful mistake she _______________.</t>
+  </si>
+  <si>
+    <t>has made</t>
+  </si>
+  <si>
+    <t>had made</t>
+  </si>
+  <si>
+    <t>was making</t>
+  </si>
+  <si>
+    <t>- Đáp án C
+– Dịch: Trong vòng một tuần, cô ta đã biết lỗi lầm đáng sợ mà cô ta đã gây ra.
+=&gt; Hành động “gây ra lỗi lầm” xảy ra trước hành động “biết”. Mà hành động “biết” chia ở thì quá khứ đơn thì hành động “nhận ra lỗi lầm” phải chia ở thì quá khứ hoàn thành.
+=&gt; Đáp án: C</t>
+  </si>
+  <si>
+    <t>They _______________ table tennis when their father comes back home.</t>
+  </si>
+  <si>
+    <t>will play</t>
+  </si>
+  <si>
+    <t>will be playing</t>
+  </si>
+  <si>
+    <t>would play</t>
+  </si>
+  <si>
+    <t>- Đáp án B
+* Tạm dịch: Vào lúc bố họ trở về họ sẽ đang chơi bóng bàn.
+=&gt; Căn cứ vào mệnh đề trạng ngữ chỉ thời gian “when their father comes back home” có “comes” chia ở thì hiện tại nên hành động bố về chưa xảy ra.
+=&gt; Tính tới một thời điểm trong tương lai có một hành động sẽ đang diễn ra. =&gt; Chia thì tương lai tiếp diễn.</t>
+  </si>
+  <si>
+    <t>Before she went to bed, she ________________ her homework already.</t>
+  </si>
+  <si>
+    <t>is finishing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">had finished </t>
+  </si>
+  <si>
+    <t>- Đáp án C
+– Căn cứ vào đây là mệnh đề trạng ngữ chỉ thời gian: Before S + V (quá khứ đơn), S + V (quá
+khứ hoàn thành).
+– Dịch: Trước khi cô ấy đi ngủ, cô ấy đã hoàn thành bài tập về nhà rồi.</t>
+  </si>
+  <si>
+    <t>They are staying at the hotel in London. At this time tomorrow, they _____ in Vietnam.</t>
+  </si>
+  <si>
+    <t>will have travelled</t>
+  </si>
+  <si>
+    <t>will travel</t>
+  </si>
+  <si>
+    <t>will be travelling</t>
+  </si>
+  <si>
+    <t>- Đáp án C
+– Căn cứ vào đây là mệnh đề trạng ngữ chỉ thời gian: At this time + thời gian trong tương lai =&gt;
+chia thì tương lai tiếp diễn.
+– Dịch: Họ đang ở khách sạn ở London. Vào thời điểm này ngày mai, họ sẽ đang ở Việt Nam.</t>
+  </si>
+  <si>
+    <t>There ____________ something vaguely familiar about her face but I couldn’t
+remember where I ___________ her before.</t>
+  </si>
+  <si>
+    <t>is/have met</t>
+  </si>
+  <si>
+    <t xml:space="preserve">was/had met </t>
+  </si>
+  <si>
+    <t>will see/meet</t>
+  </si>
+  <si>
+    <t>was/met</t>
+  </si>
+  <si>
+    <t>- Đáp án B
+* Dịch nghĩa: Có một cái gì đó mơ hồ quen thuộc trên khuôn mặt của cô ấy nhưng tôi không thể nhớ tôi đã nhìn thấy cô ấy ở đâu trước đây.
+- “nhìn thấy cô ấy trước đây” xảy ra trước. =&gt; chia thì quá khứ hoàn thành.
+- “thấy quen thuộc về khuôn mặt của cô ấy” xảy ra sau. =&gt; chia thì quá khứ đơn.</t>
+  </si>
+  <si>
+    <t>Another million people ________________unemployed by the time next year</t>
+  </si>
+  <si>
+    <t>will have become</t>
+  </si>
+  <si>
+    <t>will become</t>
+  </si>
+  <si>
+    <t>will be become</t>
+  </si>
+  <si>
+    <t>will be becoming</t>
+  </si>
+  <si>
+    <t>- Đáp án A
+– Căn cứ vào đây là mệnh đề trạng ngữ chỉ thời gian: by the time+ trạng từ của tương lai =&gt; chia
+tương lai hoàn thành.
+– Dịch: Hàng triệu người khác sẽ thất nghiệp vào năm tới.</t>
+  </si>
+  <si>
+    <t>She told me that her family _________ long in that town</t>
+  </si>
+  <si>
+    <t xml:space="preserve">has lived </t>
+  </si>
+  <si>
+    <t>- Đáp án B
+* Dịch nghĩa: Cô ấy đã kể với tôi rằng gia đình của cô ấy đã sống ở thị trấn này lâu rồi.
+- “việc gia đình sống lâu ở thị trấn này” diễn ra trước. =&gt; chia thì quá khứ hoàn thành.</t>
+  </si>
+  <si>
+    <t>By the time he _________________ out of jail, he will have forgotten how to
+function in the real world.</t>
+  </si>
+  <si>
+    <t>is getting</t>
+  </si>
+  <si>
+    <t>-Đáp án C
+– Căn cứ vào đây là mệnh đề trạng ngữ chỉ thời gian:
+By the time S + V (hiện tại đơn), S + V (tương lai hoàn thành).
+– Dịch: Vào thời điểm anh ấy ra tù, anh sẽ quên làm sao sống ở thế giới thực</t>
+  </si>
+  <si>
+    <t>I have been saving money because I _____ buy a computer</t>
+  </si>
+  <si>
+    <t>shall</t>
+  </si>
+  <si>
+    <t>will</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>- Đáp án C
+– Căn cứ vào cách dùng của thì tương lai gần: diễn tả một kế hoạch dự định (đã lên kế hoạch).
+- Kế hoạch từ trước: tiết kiệm tiền.
+– Dịch: Tôi đã tiết kiệm tiền bởi vì tôi sẽ mua máy tính.</t>
+  </si>
+  <si>
+    <t>By 8 o’clock yesterday, the spaceship ____ 20 hours around the earth</t>
+  </si>
+  <si>
+    <t>has been traveling</t>
+  </si>
+  <si>
+    <t>had been traveling</t>
+  </si>
+  <si>
+    <t>- Đáp án C
+– Căn cứ vào “By + mốc thời gian quá khứ” =&gt; chia thì quá khứ hoàn thành. Trong câu này muốn nhấn mạnh tính liên tục của hành động
+– Dịch: Vào thời điểm 9 giờ ngày hôm qua, con tàu vũ trụ đã di chuyển 20 giờ vòng quanh trái đất.</t>
+  </si>
+  <si>
+    <t>Over 20 years ___ but I never forgot the time we first met each other.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">have gone up </t>
+  </si>
+  <si>
+    <t>has gone by</t>
+  </si>
+  <si>
+    <t>has gone out</t>
+  </si>
+  <si>
+    <t>- Đáp án C
+– Căn cứ vào cách dùng của thì hiện tại hoàn thành: Một hành động bắt đầu trong quá khứ và kéo
+dài đến hiện tại.
+Ta có:
+* go up: tăng lên
+* go by: trôi qua (thời gian), tuột mất
+* go out: mất điện/ra ngoài/đi chơi
+– Dịch: Hơn 20 năm đã trôi qua nhưng tôi chưa bao giờ quên lần đầu tiên chúng tôi gặp nhau.</t>
+  </si>
+  <si>
+    <t>The child kept the present that she _________________.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">has been given </t>
+  </si>
+  <si>
+    <t xml:space="preserve">had been given </t>
+  </si>
+  <si>
+    <t>- Đáp án B
+– Căn cứ vào cách dùng của thì quá khứ hoàn thành: Khi hai hành động cùng xảy ra trong quá
+khứ, ta dùng thì quá khứ hoàn thành cho hành động xảy ra trước và quá khứ đơn cho hành
+động xảy ra sau.
+– Dịch: Con bé giữ món quà mà nó được tặng.</t>
+  </si>
+  <si>
+    <t>That pipe ___________ for ages. We must get it mended.</t>
+  </si>
+  <si>
+    <t>has been leaking</t>
+  </si>
+  <si>
+    <t>had been leaked</t>
+  </si>
+  <si>
+    <t>had been leaking</t>
+  </si>
+  <si>
+    <t>- Đáp án A
+* Căn cứ:
+- “for ages” nhấn mạnh tính liên tục của việc “rò rỉ” xảy ra trong nhiều năm =&gt; Chia hiện tại
+hoàn thành tiếp diễn.
+- Dù dịch là “bị rò rỉ” nhưng chúng ta không chia thể bị động cho động từ “leak”. Vì hành động
+“leak” là do ống nước tự nó bị hỏng chứ không phải do cái gì tác động vào.
+* Dịch: Ống dẫn nước đã bị rò rỉ trong suốt nhiều năm; chúng tôi phải nhờ sửa nó.</t>
+  </si>
+  <si>
+    <t>I used my calculator; otherwise it ___________ longer.</t>
+  </si>
+  <si>
+    <t>will take</t>
+  </si>
+  <si>
+    <t>would take</t>
+  </si>
+  <si>
+    <t>took</t>
+  </si>
+  <si>
+    <t>would have taken</t>
+  </si>
+  <si>
+    <t>- Đáp án D
+- Ta có: S + V(quá khứ đơn) + otherwise + S + would/could + have + Vp2
+*Dịch: Tôi đã dùng máy tính còn không thì nó có thể đã phải mất thời gian lâu hơn</t>
+  </si>
+  <si>
+    <t>How many musical notes of the 11,000 tones that the human ear can distinguish ___ in the musical scale?</t>
+  </si>
+  <si>
+    <t>is it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it is </t>
+  </si>
+  <si>
+    <t>are there</t>
+  </si>
+  <si>
+    <t>there are</t>
+  </si>
+  <si>
+    <t>- Đáp án C
+* Dịch: Có bao nhiêu nốt nhạc trong 11000 âm mà tai của con người có thể phân biệt được trong thang âm nhạc?
+- Cấu trúc: How many + N(số nhiều) + are there + in + …..? (có bao nhiêu…?)</t>
+  </si>
+  <si>
+    <t>You ____ to our conversation. It was private.</t>
+  </si>
+  <si>
+    <t>haven’t been listening</t>
+  </si>
+  <si>
+    <t>shouldn’t have been listening</t>
+  </si>
+  <si>
+    <t>couldn’t have been listening</t>
+  </si>
+  <si>
+    <t>hadn’t been listening</t>
+  </si>
+  <si>
+    <t>- Đáp án B
+Ta có:
+* Shouldn’t + have + Vp2: lẽ ra không nên làm nhưng đã làm rồi
+-&gt; Vì là một “conversation” nên hành động “listen” cũng phải diễn ra liên tục trong một thời gian dài suốt cả cuộc trò chuyện đó. Để nhấn mạnh quá trình liên tục của hành động, ra dùng “shouldn’t have been Ving”
+– Dịch: Bạn lẽ ra không nên nghe cuộc trò chuyện của chúng tôi. Cuộc trò chuyện của chúng tôi riêng tư.</t>
+  </si>
+  <si>
+    <t>The President _______ a speech, but in the end he _______ his mind</t>
+  </si>
+  <si>
+    <t>would deliver – had changed</t>
+  </si>
+  <si>
+    <t>was going to deliver – changed</t>
+  </si>
+  <si>
+    <t>delivered – had changed</t>
+  </si>
+  <si>
+    <t>was delivering – changed</t>
+  </si>
+  <si>
+    <t>- Đáp án B
+Dịch nghĩa: Tổng thống định phát biểu một bài diễn văn, nhưng cuối cùng ông ấy đã thay đổi ý định.
+=&gt; Định phát biểu xong lại thôi =&gt; xảy ra nối tiếp nhau =&gt; chia quá khứ đơn =&gt; Loại A,C
+*Đáp án D cũng loại vì chỉ dùng quá khứ tiếp diễn-quá khứ đơn cùng nhau khi diễn tả một hành động đang xảy ra thì có một hành động khác xen vào. Ở đây không thể là ông đang phát biểu thì ông lại thôi; hành động thay đổi là hành động quyết định tại thời điểm nói chứ không phải là hành động xen vào
+=&gt; Diễn tả một dự định ta dùng thì tương lai gần, tuy nhiên do động từ phía sau chia quá khứ đơn nên động từ phía trước phải lùi thì.</t>
+  </si>
+  <si>
+    <t>The Angkor complex _______________ the entire range of Khmer art from the
+9th to the 14th century.</t>
+  </si>
+  <si>
+    <t>represented</t>
+  </si>
+  <si>
+    <t>was represented</t>
+  </si>
+  <si>
+    <t>- Đáp án B
+* Dịch nghĩa: Quần thể Angkor đại diện cho toàn bộ nghệ thuật của người Khơ-me từ thế kỉ thứ 9 đến thế kỉ 14.
+=&gt; Câu mang nghĩa chủ động nên ta loại D
+=&gt; Chủ ngữ “The Angkor complex” ở dạng số ít nên ta loại C
+=&gt; Trong câu có dấu hiệu trạng từ thời gian nhưng “từ thế kỉ thứ 9 đến thế kỉ 14” là bổ nghĩa cho
+" nghệ thuật của người Khơ-me". Từ đó ta loại A.
+=&gt; Đáp án B</t>
   </si>
 </sst>
 </file>
@@ -4721,7 +5438,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4787,6 +5504,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5312,7 +6041,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -5369,10 +6098,10 @@
         <v>69</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>68</v>
@@ -5392,13 +6121,13 @@
         <v>72</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>73</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
@@ -5412,16 +6141,16 @@
         <v>75</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>76</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>2</v>
@@ -5579,1971 +6308,1971 @@
         <v>117</v>
       </c>
       <c r="D22" s="11" t="s">
+        <v>1160</v>
+      </c>
+      <c r="E22" s="11" t="s">
         <v>118</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>119</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>120</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D23" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="E23" s="11" t="s">
         <v>127</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>130</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>131</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>136</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>142</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>144</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>148</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>153</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>159</v>
-      </c>
       <c r="C28" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>164</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>165</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>169</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>170</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>174</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>180</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>184</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>202</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>185</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>189</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>195</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E35" s="3" t="s">
         <v>196</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>200</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>201</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>209</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>213</v>
+        <v>1167</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>234</v>
+        <v>1168</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>235</v>
+        <v>1169</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>236</v>
+        <v>1170</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>237</v>
+        <v>1171</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>265</v>
+        <v>1172</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>266</v>
+        <v>1173</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>267</v>
+        <v>1174</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>268</v>
+        <v>1175</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>278</v>
+        <v>1176</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>279</v>
+        <v>1177</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>280</v>
+        <v>1178</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>281</v>
+        <v>1179</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>282</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>284</v>
+        <v>1181</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>285</v>
+        <v>1182</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>286</v>
+        <v>1183</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>287</v>
+        <v>1184</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>288</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>289</v>
+        <v>263</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>290</v>
+        <v>1186</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>291</v>
+        <v>1187</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>292</v>
+        <v>1188</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>293</v>
+        <v>1189</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>294</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>295</v>
+        <v>264</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>296</v>
+        <v>1191</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>297</v>
+        <v>1192</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>298</v>
+        <v>1193</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>299</v>
+        <v>1194</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>300</v>
+        <v>265</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>301</v>
+        <v>266</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>302</v>
+        <v>1195</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>303</v>
+        <v>1196</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>304</v>
+        <v>1197</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>305</v>
+        <v>1198</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>306</v>
+        <v>267</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>313</v>
+        <v>1199</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>307</v>
+        <v>268</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>308</v>
+        <v>269</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>309</v>
+        <v>270</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>310</v>
+        <v>271</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>311</v>
+        <v>272</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>312</v>
+        <v>273</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>315</v>
+        <v>1200</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>314</v>
+        <v>1201</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>316</v>
+        <v>1202</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>317</v>
+        <v>1203</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>318</v>
+        <v>274</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>379</v>
+        <v>315</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>319</v>
+        <v>275</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>320</v>
+        <v>276</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>321</v>
+        <v>277</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>322</v>
+        <v>278</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>323</v>
+        <v>279</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>378</v>
+        <v>314</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>324</v>
+        <v>1204</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>325</v>
+        <v>1205</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>326</v>
+        <v>1206</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>327</v>
+        <v>1207</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>328</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>380</v>
+        <v>316</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>329</v>
+        <v>1209</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>330</v>
+        <v>1210</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>331</v>
+        <v>1211</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>332</v>
+        <v>1212</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>333</v>
+        <v>280</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>381</v>
+        <v>317</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>334</v>
+        <v>1213</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>335</v>
+        <v>1214</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>336</v>
+        <v>1215</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>337</v>
+        <v>1216</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>338</v>
+        <v>281</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>382</v>
+        <v>318</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>339</v>
+        <v>282</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>340</v>
+        <v>283</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>341</v>
+        <v>284</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>342</v>
+        <v>285</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>343</v>
+        <v>286</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>383</v>
+        <v>319</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>344</v>
+        <v>287</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>345</v>
+        <v>288</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>346</v>
+        <v>289</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>347</v>
+        <v>290</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>348</v>
+        <v>291</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>375</v>
+        <v>311</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>349</v>
+        <v>292</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>350</v>
+        <v>293</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>351</v>
+        <v>294</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>352</v>
+        <v>295</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G61" s="14" t="s">
-        <v>353</v>
+        <v>296</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>374</v>
+        <v>310</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>354</v>
+        <v>297</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>355</v>
+        <v>298</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>356</v>
+        <v>299</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>357</v>
+        <v>300</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>358</v>
+        <v>301</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>376</v>
+        <v>312</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>359</v>
+        <v>1217</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>360</v>
+        <v>1218</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>360</v>
+        <v>1218</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>361</v>
+        <v>1219</v>
       </c>
       <c r="F63" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>362</v>
+        <v>302</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>373</v>
+        <v>309</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>363</v>
+        <v>1220</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>364</v>
+        <v>1221</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>365</v>
+        <v>1222</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>366</v>
+        <v>1223</v>
       </c>
       <c r="F64" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G64" s="12" t="s">
-        <v>367</v>
+        <v>303</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>377</v>
+        <v>313</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>368</v>
+        <v>304</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>369</v>
+        <v>305</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>370</v>
+        <v>306</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>370</v>
+        <v>306</v>
       </c>
       <c r="F65" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>371</v>
+        <v>307</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
-        <v>372</v>
+        <v>308</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>384</v>
+        <v>320</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>385</v>
+        <v>321</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>386</v>
+        <v>322</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>387</v>
+        <v>323</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>388</v>
+        <v>324</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
-        <v>389</v>
+        <v>325</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>390</v>
+        <v>326</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>391</v>
+        <v>327</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>392</v>
+        <v>328</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>393</v>
+        <v>329</v>
       </c>
       <c r="F67" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>394</v>
+        <v>330</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>395</v>
+        <v>331</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>396</v>
+        <v>332</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>397</v>
+        <v>333</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>398</v>
+        <v>334</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>399</v>
+        <v>335</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>400</v>
+        <v>336</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>401</v>
+        <v>337</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>402</v>
+        <v>338</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>403</v>
+        <v>339</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>404</v>
+        <v>340</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>405</v>
+        <v>341</v>
       </c>
       <c r="F69" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>406</v>
+        <v>342</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="210" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>407</v>
+        <v>343</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>408</v>
+        <v>344</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>409</v>
+        <v>345</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>410</v>
+        <v>346</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>411</v>
+        <v>347</v>
       </c>
       <c r="F70" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G70" s="14" t="s">
-        <v>412</v>
+        <v>348</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>413</v>
+        <v>349</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>414</v>
+        <v>350</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>415</v>
+        <v>351</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>416</v>
+        <v>352</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>416</v>
+        <v>352</v>
       </c>
       <c r="F71" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>417</v>
+        <v>353</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>418</v>
+        <v>354</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>419</v>
+        <v>355</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>420</v>
+        <v>356</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>421</v>
+        <v>357</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>422</v>
+        <v>358</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>423</v>
+        <v>359</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>424</v>
+        <v>360</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>425</v>
+        <v>361</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>426</v>
+        <v>362</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>427</v>
+        <v>363</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>428</v>
+        <v>364</v>
       </c>
       <c r="F73" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>429</v>
+        <v>365</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>430</v>
+        <v>366</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>431</v>
+        <v>367</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>432</v>
+        <v>368</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>433</v>
+        <v>369</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>434</v>
+        <v>370</v>
       </c>
       <c r="F74" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>435</v>
+        <v>371</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>436</v>
+        <v>372</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>437</v>
+        <v>373</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>438</v>
+        <v>374</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>439</v>
+        <v>375</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>440</v>
+        <v>376</v>
       </c>
       <c r="F75" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>441</v>
+        <v>377</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>442</v>
+        <v>378</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>443</v>
+        <v>379</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>444</v>
+        <v>380</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>445</v>
+        <v>381</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>445</v>
+        <v>381</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>446</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>447</v>
+        <v>382</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>448</v>
+        <v>1225</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>449</v>
+        <v>1226</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>450</v>
+        <v>383</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>451</v>
+        <v>1227</v>
       </c>
       <c r="F77" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>452</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>453</v>
+        <v>384</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>454</v>
+        <v>385</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>455</v>
+        <v>386</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>456</v>
+        <v>387</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>457</v>
+        <v>388</v>
       </c>
       <c r="F78" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>458</v>
+        <v>389</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>459</v>
+        <v>390</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>460</v>
+        <v>391</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>461</v>
+        <v>392</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>462</v>
+        <v>393</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>463</v>
+        <v>394</v>
       </c>
       <c r="F79" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>464</v>
+        <v>395</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>465</v>
+        <v>396</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>466</v>
+        <v>397</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>466</v>
+        <v>397</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>310</v>
+        <v>271</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>467</v>
+        <v>398</v>
       </c>
       <c r="F80" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>468</v>
+        <v>399</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>469</v>
+        <v>400</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>470</v>
+        <v>401</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>471</v>
+        <v>402</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>471</v>
+        <v>402</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>472</v>
+        <v>403</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>473</v>
+        <v>404</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>474</v>
+        <v>405</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>475</v>
+        <v>406</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>476</v>
+        <v>407</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>477</v>
+        <v>408</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>478</v>
+        <v>409</v>
       </c>
       <c r="F82" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>479</v>
+        <v>410</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>480</v>
+        <v>411</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>481</v>
+        <v>412</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>482</v>
+        <v>413</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>483</v>
+        <v>414</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>484</v>
+        <v>415</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>485</v>
+        <v>416</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>486</v>
+        <v>417</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>487</v>
+        <v>418</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>487</v>
+        <v>418</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>488</v>
+        <v>419</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>489</v>
+        <v>420</v>
       </c>
       <c r="F84" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>490</v>
+        <v>421</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>491</v>
+        <v>422</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>492</v>
+        <v>423</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>493</v>
+        <v>424</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>494</v>
+        <v>425</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>495</v>
+        <v>426</v>
       </c>
       <c r="F85" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>496</v>
+        <v>427</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>497</v>
+        <v>428</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>498</v>
+        <v>429</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>499</v>
+        <v>430</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>500</v>
+        <v>431</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>501</v>
+        <v>432</v>
       </c>
       <c r="F86" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>502</v>
+        <v>433</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>509</v>
+        <v>440</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>503</v>
+        <v>434</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>504</v>
+        <v>435</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>505</v>
+        <v>436</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>506</v>
+        <v>437</v>
       </c>
       <c r="F87" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>507</v>
+        <v>438</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>508</v>
+        <v>439</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>510</v>
+        <v>441</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>511</v>
+        <v>442</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>512</v>
+        <v>443</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>513</v>
+        <v>444</v>
       </c>
       <c r="F88" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>514</v>
+        <v>445</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>515</v>
+        <v>446</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>516</v>
+        <v>447</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>517</v>
+        <v>448</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>518</v>
+        <v>449</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>519</v>
+        <v>450</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>520</v>
+        <v>451</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>536</v>
+        <v>467</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>521</v>
+        <v>452</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>522</v>
+        <v>453</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>523</v>
+        <v>454</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>524</v>
+        <v>455</v>
       </c>
       <c r="F90" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>525</v>
+        <v>456</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>535</v>
+        <v>466</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>526</v>
+        <v>457</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>527</v>
+        <v>458</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>528</v>
+        <v>459</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
-        <v>530</v>
+        <v>461</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>529</v>
+        <v>460</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>531</v>
+        <v>462</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>532</v>
+        <v>463</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>533</v>
+        <v>464</v>
       </c>
       <c r="F92" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>534</v>
+        <v>465</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>538</v>
+        <v>469</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>537</v>
+        <v>468</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>537</v>
+        <v>468</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>539</v>
+        <v>470</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>540</v>
+        <v>471</v>
       </c>
       <c r="F93" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G93" s="14" t="s">
-        <v>541</v>
+        <v>472</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>543</v>
+        <v>474</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>542</v>
+        <v>473</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>544</v>
+        <v>475</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>545</v>
+        <v>476</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>546</v>
+        <v>477</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>547</v>
+        <v>478</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>548</v>
+        <v>479</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>549</v>
+        <v>480</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>550</v>
+        <v>481</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>551</v>
+        <v>482</v>
       </c>
       <c r="E95" s="11" t="s">
-        <v>552</v>
+        <v>483</v>
       </c>
       <c r="F95" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>553</v>
+        <v>484</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>554</v>
+        <v>485</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>555</v>
+        <v>486</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>556</v>
+        <v>487</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>557</v>
+        <v>488</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>558</v>
+        <v>489</v>
       </c>
       <c r="F96" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>559</v>
+        <v>490</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>560</v>
+        <v>491</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>561</v>
+        <v>492</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>562</v>
+        <v>493</v>
       </c>
       <c r="D97" s="11" t="s">
-        <v>563</v>
+        <v>494</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>564</v>
+        <v>495</v>
       </c>
       <c r="F97" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>565</v>
+        <v>496</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>566</v>
+        <v>497</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>567</v>
+        <v>498</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>568</v>
+        <v>499</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>569</v>
+        <v>500</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>570</v>
+        <v>501</v>
       </c>
       <c r="F98" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>571</v>
+        <v>502</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>572</v>
+        <v>503</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>573</v>
+        <v>504</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>574</v>
+        <v>505</v>
       </c>
       <c r="D99" s="11" t="s">
-        <v>575</v>
+        <v>506</v>
       </c>
       <c r="E99" s="11" t="s">
-        <v>577</v>
+        <v>508</v>
       </c>
       <c r="F99" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>576</v>
+        <v>507</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>578</v>
+        <v>509</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>579</v>
+        <v>510</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>580</v>
+        <v>511</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>581</v>
+        <v>512</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>582</v>
+        <v>513</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>583</v>
+        <v>514</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>584</v>
+        <v>515</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>585</v>
+        <v>516</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>586</v>
+        <v>517</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>587</v>
+        <v>518</v>
       </c>
       <c r="E101" s="11" t="s">
-        <v>588</v>
+        <v>519</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>589</v>
+        <v>520</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>590</v>
+        <v>521</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>591</v>
+        <v>522</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>592</v>
+        <v>523</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>593</v>
+        <v>524</v>
       </c>
       <c r="E102" s="11" t="s">
-        <v>593</v>
+        <v>524</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>594</v>
+        <v>525</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>596</v>
+        <v>527</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>597</v>
+        <v>528</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>598</v>
+        <v>529</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>599</v>
+        <v>530</v>
       </c>
       <c r="F103" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>600</v>
+        <v>531</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>601</v>
+        <v>532</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>602</v>
+        <v>533</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>603</v>
+        <v>534</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>604</v>
+        <v>535</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>605</v>
+        <v>536</v>
       </c>
       <c r="F104" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>606</v>
+        <v>537</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>607</v>
+        <v>538</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>608</v>
+        <v>539</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>609</v>
+        <v>540</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>610</v>
+        <v>541</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>611</v>
+        <v>542</v>
       </c>
       <c r="F105" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>612</v>
+        <v>543</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>613</v>
+        <v>544</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>552</v>
+        <v>483</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>614</v>
+        <v>545</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>615</v>
+        <v>546</v>
       </c>
       <c r="F106" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>616</v>
+        <v>547</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>617</v>
+        <v>548</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>618</v>
+        <v>549</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>619</v>
+        <v>550</v>
       </c>
       <c r="D107" s="11" t="s">
-        <v>620</v>
+        <v>551</v>
       </c>
       <c r="E107" s="11" t="s">
-        <v>434</v>
+        <v>370</v>
       </c>
       <c r="F107" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>621</v>
+        <v>552</v>
       </c>
     </row>
   </sheetData>
@@ -7554,37 +8283,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="68.85546875" style="16" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="22" style="3" customWidth="1"/>
-    <col min="6" max="6" width="6.42578125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="99.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" style="26" customWidth="1"/>
+    <col min="7" max="7" width="99.28515625" style="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
@@ -7596,232 +8325,1152 @@
     </row>
     <row r="2" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>622</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>623</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>624</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>625</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>626</v>
-      </c>
-      <c r="F2" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="F2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>658</v>
+      <c r="G2" s="2" t="s">
+        <v>1111</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>627</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>628</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>629</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>630</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>631</v>
-      </c>
-      <c r="F3" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="F3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="15" t="s">
-        <v>659</v>
+      <c r="G3" s="27" t="s">
+        <v>1110</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="210" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>632</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>633</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>634</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>635</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>636</v>
-      </c>
-      <c r="F4" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="F4" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="15" t="s">
-        <v>663</v>
+      <c r="G4" s="27" t="s">
+        <v>1109</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>637</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>638</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>641</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>640</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>639</v>
-      </c>
-      <c r="F5" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="F5" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="15" t="s">
-        <v>660</v>
+      <c r="G5" s="27" t="s">
+        <v>1112</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>642</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>643</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>644</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>645</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>646</v>
-      </c>
-      <c r="F6" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="F6" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="15" t="s">
-        <v>661</v>
+      <c r="G6" s="27" t="s">
+        <v>1107</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>647</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>648</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>649</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>650</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>651</v>
-      </c>
-      <c r="F7" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>579</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="F7" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="15" t="s">
-        <v>652</v>
+      <c r="G7" s="27" t="s">
+        <v>1108</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>653</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>654</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>655</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>656</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>657</v>
-      </c>
-      <c r="F8" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>587</v>
+      </c>
+      <c r="F8" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="G8" s="15" t="s">
-        <v>662</v>
+      <c r="G8" s="25" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>664</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>665</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="E9" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>590</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="15" t="s">
-        <v>668</v>
+      <c r="G9" s="25" t="s">
+        <v>1113</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>670</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>672</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="F10" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="F10" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="15" t="s">
-        <v>674</v>
+      <c r="G10" s="27" t="s">
+        <v>1114</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>675</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>676</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>678</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>679</v>
-      </c>
-      <c r="F11" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="F11" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="27" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>1119</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>1123</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>1132</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>1137</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A17" s="21" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="27" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" s="21" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>613</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>1145</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" s="27" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>1150</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="27" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>651</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="27" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="27" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>1264</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>1264</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>1265</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="G22" s="27" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>1268</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>1269</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>1270</v>
+      </c>
+      <c r="F23" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="G23" s="27" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>680</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>681</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="F24" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="27" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A25" s="16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F25" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="G25" s="27" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="21" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F26" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" s="27" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A27" s="21" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>590</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>783</v>
+      </c>
+      <c r="F27" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="G27" s="27" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="21" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>1284</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>1285</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>1286</v>
+      </c>
+      <c r="F28" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="G28" s="27" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" s="21" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>1291</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>1292</v>
+      </c>
+      <c r="F29" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="G29" s="27" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A30" s="21" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>1295</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>1296</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>1296</v>
+      </c>
+      <c r="F30" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="G30" s="27" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A31" s="16" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>1300</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>594</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>1301</v>
+      </c>
+      <c r="F31" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="G31" s="27" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A32" s="16" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>1306</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>1307</v>
+      </c>
+      <c r="F32" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="G32" s="27" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A33" s="21" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>1311</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>565</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>1312</v>
+      </c>
+      <c r="F33" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="G33" s="27" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A34" s="21" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>689</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>1315</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>1316</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>1317</v>
+      </c>
+      <c r="F34" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="G34" s="27" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A35" s="21" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>1321</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>1322</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G35" s="27" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A36" s="21" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>1326</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>1326</v>
+      </c>
+      <c r="F36" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="G36" s="27" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A37" s="16" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>1331</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>1331</v>
+      </c>
+      <c r="F37" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="G37" s="27" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>1335</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>1336</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>1337</v>
+      </c>
+      <c r="F38" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="G38" s="27" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A39" s="16" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>1341</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>1342</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>1343</v>
+      </c>
+      <c r="F39" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="G39" s="27" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="21" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F40" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="G40" s="27" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>1349</v>
+      </c>
+      <c r="F41" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="G41" s="27" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A42" s="21" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>1353</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>510</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>1354</v>
+      </c>
+      <c r="F42" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="27" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A43" s="21" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>1358</v>
+      </c>
+      <c r="F43" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="27" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A44" s="21" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>1362</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>1363</v>
+      </c>
+      <c r="F44" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" s="27" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A45" s="21" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>1367</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>1367</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>1123</v>
+      </c>
+      <c r="F45" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="G45" s="27" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A46" s="16" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>1371</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>1372</v>
+      </c>
+      <c r="F46" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="G46" s="27" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47" s="21" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>1377</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>1378</v>
+      </c>
+      <c r="F47" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" s="27" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A48" s="16" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>1382</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>1383</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>1384</v>
+      </c>
+      <c r="F48" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="G48" s="27" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A49" s="21" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C49" s="21" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D49" s="21" t="s">
+        <v>1389</v>
+      </c>
+      <c r="E49" s="21" t="s">
+        <v>1390</v>
+      </c>
+      <c r="F49" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="G49" s="27" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A50" s="16" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B50" s="21" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C50" s="21" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>1395</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>1396</v>
+      </c>
+      <c r="F50" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="G50" s="27" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>1399</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>1399</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F51" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="G51" s="27" t="s">
+        <v>1401</v>
       </c>
     </row>
   </sheetData>
@@ -7875,568 +9524,568 @@
     </row>
     <row r="2" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>681</v>
+        <v>603</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>682</v>
+        <v>604</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>683</v>
+        <v>605</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>684</v>
+        <v>606</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>685</v>
+        <v>607</v>
       </c>
       <c r="F2" s="19" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>694</v>
+        <v>616</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>686</v>
+        <v>608</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>526</v>
+        <v>457</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>687</v>
+        <v>609</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>688</v>
+        <v>610</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>689</v>
+        <v>611</v>
       </c>
       <c r="F3" s="19" t="s">
         <v>3</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>703</v>
+        <v>625</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>690</v>
+        <v>612</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>689</v>
+        <v>611</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>691</v>
+        <v>613</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>692</v>
+        <v>614</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>688</v>
+        <v>610</v>
       </c>
       <c r="F4" s="19" t="s">
         <v>4</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>693</v>
+        <v>615</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
-        <v>695</v>
+        <v>617</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>696</v>
+        <v>618</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>688</v>
+        <v>610</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>689</v>
+        <v>611</v>
       </c>
       <c r="F5" s="19" t="s">
         <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>702</v>
+        <v>624</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>697</v>
+        <v>619</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>698</v>
+        <v>620</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>699</v>
+        <v>621</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>700</v>
+        <v>622</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>701</v>
+        <v>623</v>
       </c>
       <c r="F6" s="19" t="s">
         <v>3</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>704</v>
+        <v>626</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
-        <v>705</v>
+        <v>627</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>706</v>
+        <v>628</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>707</v>
+        <v>629</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>708</v>
+        <v>630</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>709</v>
+        <v>631</v>
       </c>
       <c r="F7" s="19" t="s">
         <v>3</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>710</v>
+        <v>632</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>711</v>
+        <v>633</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>688</v>
+        <v>610</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>689</v>
+        <v>611</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>691</v>
+        <v>613</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>526</v>
+        <v>457</v>
       </c>
       <c r="F8" s="19" t="s">
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>712</v>
+        <v>634</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
-        <v>713</v>
+        <v>635</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>714</v>
+        <v>636</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>715</v>
+        <v>637</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>716</v>
+        <v>638</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>717</v>
+        <v>639</v>
       </c>
       <c r="F9" s="19" t="s">
         <v>4</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>718</v>
+        <v>640</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>719</v>
+        <v>641</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>688</v>
+        <v>610</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>689</v>
+        <v>611</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>527</v>
+        <v>458</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>687</v>
+        <v>609</v>
       </c>
       <c r="F10" s="19" t="s">
         <v>1</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>720</v>
+        <v>642</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
-        <v>721</v>
+        <v>643</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>688</v>
+        <v>610</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>689</v>
+        <v>611</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>526</v>
+        <v>457</v>
       </c>
       <c r="F11" s="19" t="s">
         <v>1</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>722</v>
+        <v>644</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
-        <v>723</v>
+        <v>645</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>687</v>
+        <v>609</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>527</v>
+        <v>458</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>689</v>
+        <v>611</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="F12" s="19" t="s">
         <v>3</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>724</v>
+        <v>646</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
-        <v>725</v>
+        <v>647</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>726</v>
+        <v>648</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>727</v>
+        <v>649</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>728</v>
+        <v>650</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>729</v>
+        <v>651</v>
       </c>
       <c r="F13" s="19" t="s">
         <v>3</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>730</v>
+        <v>652</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
-        <v>731</v>
+        <v>653</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>732</v>
+        <v>654</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>733</v>
+        <v>655</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>734</v>
+        <v>656</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>735</v>
+        <v>657</v>
       </c>
       <c r="F14" s="19" t="s">
         <v>1</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>736</v>
+        <v>658</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
-        <v>737</v>
+        <v>659</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>526</v>
+        <v>457</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>689</v>
+        <v>611</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>527</v>
+        <v>458</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>687</v>
+        <v>609</v>
       </c>
       <c r="F15" s="19" t="s">
         <v>3</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>738</v>
+        <v>660</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
-        <v>739</v>
+        <v>661</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>740</v>
+        <v>662</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>741</v>
+        <v>663</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>742</v>
+        <v>664</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>743</v>
+        <v>665</v>
       </c>
       <c r="F16" s="19" t="s">
         <v>1</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>744</v>
+        <v>666</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
-        <v>745</v>
+        <v>667</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>746</v>
+        <v>668</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>747</v>
+        <v>669</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>748</v>
+        <v>670</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>749</v>
+        <v>671</v>
       </c>
       <c r="F17" s="19" t="s">
         <v>1</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>750</v>
+        <v>672</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>751</v>
+        <v>673</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>696</v>
+        <v>618</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>689</v>
+        <v>611</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>688</v>
+        <v>610</v>
       </c>
       <c r="F18" s="19" t="s">
         <v>2</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>752</v>
+        <v>674</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
-        <v>753</v>
+        <v>675</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>696</v>
+        <v>618</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>689</v>
+        <v>611</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>688</v>
+        <v>610</v>
       </c>
       <c r="F19" s="19" t="s">
         <v>3</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>754</v>
+        <v>676</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
-        <v>755</v>
+        <v>677</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>696</v>
+        <v>618</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>688</v>
+        <v>610</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>689</v>
+        <v>611</v>
       </c>
       <c r="F20" s="19" t="s">
         <v>1</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>756</v>
+        <v>678</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
-        <v>757</v>
+        <v>679</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>758</v>
+        <v>680</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>759</v>
+        <v>681</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>760</v>
+        <v>682</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>761</v>
+        <v>683</v>
       </c>
       <c r="F21" s="19" t="s">
         <v>4</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>762</v>
+        <v>684</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
-        <v>763</v>
+        <v>685</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>764</v>
+        <v>686</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>765</v>
+        <v>687</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>766</v>
+        <v>688</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>767</v>
+        <v>689</v>
       </c>
       <c r="F22" s="19" t="s">
         <v>3</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>768</v>
+        <v>690</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A23" s="21" t="s">
-        <v>769</v>
+        <v>691</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>770</v>
+        <v>692</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>689</v>
+        <v>611</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>696</v>
+        <v>618</v>
       </c>
       <c r="F23" s="19" t="s">
         <v>4</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>777</v>
+        <v>699</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
-        <v>771</v>
+        <v>693</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>772</v>
+        <v>694</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>773</v>
+        <v>695</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>774</v>
+        <v>696</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>775</v>
+        <v>697</v>
       </c>
       <c r="F24" s="19" t="s">
         <v>1</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>776</v>
+        <v>698</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
-        <v>778</v>
+        <v>700</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>779</v>
+        <v>701</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>780</v>
+        <v>702</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>781</v>
+        <v>703</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>782</v>
+        <v>704</v>
       </c>
       <c r="F25" s="19" t="s">
         <v>2</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>783</v>
+        <v>705</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
-        <v>784</v>
+        <v>706</v>
       </c>
       <c r="B26" s="19" t="s">
         <v>32</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>689</v>
+        <v>611</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>688</v>
+        <v>610</v>
       </c>
       <c r="E26" s="19" t="s">
         <v>31</v>
@@ -8445,766 +10094,766 @@
         <v>3</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>785</v>
+        <v>707</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
-        <v>786</v>
+        <v>708</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>526</v>
+        <v>457</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>696</v>
+        <v>618</v>
       </c>
       <c r="F27" s="19" t="s">
         <v>3</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>787</v>
+        <v>709</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>788</v>
+        <v>710</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>696</v>
+        <v>618</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>527</v>
+        <v>458</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>689</v>
+        <v>611</v>
       </c>
       <c r="F28" s="19" t="s">
         <v>3</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>789</v>
+        <v>711</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
-        <v>790</v>
+        <v>712</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>696</v>
+        <v>618</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="F29" s="19" t="s">
         <v>4</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>791</v>
+        <v>713</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="21" t="s">
-        <v>792</v>
+        <v>714</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>527</v>
+        <v>458</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>687</v>
+        <v>609</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>688</v>
+        <v>610</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>689</v>
+        <v>611</v>
       </c>
       <c r="F30" s="19" t="s">
         <v>4</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>793</v>
+        <v>715</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
-        <v>794</v>
+        <v>716</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>795</v>
+        <v>717</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>796</v>
+        <v>718</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>797</v>
+        <v>719</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>798</v>
+        <v>720</v>
       </c>
       <c r="F31" s="19" t="s">
         <v>3</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>799</v>
+        <v>721</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
-        <v>800</v>
+        <v>722</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>689</v>
+        <v>611</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>688</v>
+        <v>610</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>687</v>
+        <v>609</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>527</v>
+        <v>458</v>
       </c>
       <c r="F32" s="19" t="s">
         <v>2</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>801</v>
+        <v>723</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
-        <v>802</v>
+        <v>724</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>689</v>
+        <v>611</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>688</v>
+        <v>610</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>527</v>
+        <v>458</v>
       </c>
       <c r="F33" s="19" t="s">
         <v>1</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>803</v>
+        <v>725</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
-        <v>804</v>
+        <v>726</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>689</v>
+        <v>611</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>688</v>
+        <v>610</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>527</v>
+        <v>458</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>805</v>
+        <v>727</v>
       </c>
       <c r="F34" s="19" t="s">
         <v>1</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>803</v>
+        <v>725</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
-        <v>806</v>
+        <v>728</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>740</v>
+        <v>662</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>807</v>
+        <v>729</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>808</v>
+        <v>730</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>741</v>
+        <v>663</v>
       </c>
       <c r="F35" s="19" t="s">
         <v>4</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>809</v>
+        <v>731</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
-        <v>810</v>
+        <v>732</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>696</v>
+        <v>618</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>811</v>
+        <v>733</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>812</v>
+        <v>734</v>
       </c>
       <c r="F36" s="19" t="s">
         <v>1</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>813</v>
+        <v>735</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
-        <v>814</v>
+        <v>736</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>815</v>
+        <v>737</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>816</v>
+        <v>738</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>817</v>
+        <v>739</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>818</v>
+        <v>740</v>
       </c>
       <c r="F37" s="19" t="s">
         <v>2</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>819</v>
+        <v>741</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
-        <v>820</v>
+        <v>742</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>821</v>
+        <v>743</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>822</v>
+        <v>744</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>823</v>
+        <v>745</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>824</v>
+        <v>746</v>
       </c>
       <c r="F38" s="19" t="s">
         <v>1</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>825</v>
+        <v>747</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
-        <v>826</v>
+        <v>748</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>827</v>
+        <v>749</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>828</v>
+        <v>750</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>829</v>
+        <v>751</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>830</v>
+        <v>752</v>
       </c>
       <c r="F39" s="19" t="s">
         <v>2</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>831</v>
+        <v>753</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A40" s="16" t="s">
-        <v>832</v>
+        <v>754</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>687</v>
+        <v>609</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>527</v>
+        <v>458</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>688</v>
+        <v>610</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>689</v>
+        <v>611</v>
       </c>
       <c r="F40" s="19" t="s">
         <v>1</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>833</v>
+        <v>755</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
-        <v>834</v>
+        <v>756</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>835</v>
+        <v>757</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>836</v>
+        <v>758</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>837</v>
+        <v>759</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>838</v>
+        <v>760</v>
       </c>
       <c r="F41" s="19" t="s">
         <v>2</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>839</v>
+        <v>761</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" s="16" t="s">
-        <v>840</v>
+        <v>762</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>841</v>
+        <v>763</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>842</v>
+        <v>764</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>843</v>
+        <v>765</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>843</v>
+        <v>765</v>
       </c>
       <c r="F42" s="19" t="s">
         <v>2</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>844</v>
+        <v>766</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
-        <v>845</v>
+        <v>767</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>688</v>
+        <v>610</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>689</v>
+        <v>611</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>527</v>
+        <v>458</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>687</v>
+        <v>609</v>
       </c>
       <c r="F43" s="19" t="s">
         <v>3</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>916</v>
+        <v>838</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A44" s="16" t="s">
-        <v>846</v>
+        <v>768</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>696</v>
+        <v>618</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>689</v>
+        <v>611</v>
       </c>
       <c r="F44" s="19" t="s">
         <v>2</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>847</v>
+        <v>769</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="21" t="s">
-        <v>848</v>
+        <v>770</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>688</v>
+        <v>610</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>689</v>
+        <v>611</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>526</v>
+        <v>457</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>687</v>
+        <v>609</v>
       </c>
       <c r="F45" s="19" t="s">
         <v>1</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>849</v>
+        <v>771</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
-        <v>850</v>
+        <v>772</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>851</v>
+        <v>773</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>852</v>
+        <v>774</v>
       </c>
       <c r="D46" s="19" t="s">
-        <v>853</v>
+        <v>775</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>854</v>
+        <v>776</v>
       </c>
       <c r="F46" s="19" t="s">
         <v>3</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>855</v>
+        <v>777</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A47" s="16" t="s">
-        <v>856</v>
+        <v>778</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>688</v>
+        <v>610</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>689</v>
+        <v>611</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>526</v>
+        <v>457</v>
       </c>
       <c r="F47" s="19" t="s">
         <v>1</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>857</v>
+        <v>779</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A48" s="16" t="s">
-        <v>858</v>
+        <v>780</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>688</v>
+        <v>610</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>689</v>
+        <v>611</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>691</v>
+        <v>613</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="F48" s="19" t="s">
         <v>1</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>859</v>
+        <v>781</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A49" s="16" t="s">
-        <v>860</v>
+        <v>782</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>917</v>
+        <v>839</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>918</v>
+        <v>840</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>861</v>
+        <v>783</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>862</v>
+        <v>784</v>
       </c>
       <c r="F49" s="11" t="s">
         <v>2</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>863</v>
+        <v>785</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" s="16" t="s">
-        <v>864</v>
+        <v>786</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>689</v>
+        <v>611</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>688</v>
+        <v>610</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>527</v>
+        <v>458</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>865</v>
+        <v>787</v>
       </c>
       <c r="F50" s="19" t="s">
         <v>1</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>866</v>
+        <v>788</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="16" t="s">
-        <v>867</v>
+        <v>789</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>868</v>
+        <v>790</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>869</v>
+        <v>791</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>870</v>
+        <v>792</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>871</v>
+        <v>793</v>
       </c>
       <c r="F51" s="11" t="s">
         <v>1</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>872</v>
+        <v>794</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>873</v>
+        <v>795</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>874</v>
+        <v>796</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>875</v>
+        <v>797</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>688</v>
+        <v>610</v>
       </c>
       <c r="E52" s="17" t="s">
-        <v>876</v>
+        <v>798</v>
       </c>
       <c r="F52" s="17" t="s">
         <v>3</v>
       </c>
       <c r="G52" s="18" t="s">
-        <v>877</v>
+        <v>799</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>878</v>
+        <v>800</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>879</v>
+        <v>801</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>880</v>
+        <v>802</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="E53" s="17" t="s">
-        <v>881</v>
+        <v>803</v>
       </c>
       <c r="F53" s="19" t="s">
         <v>3</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>882</v>
+        <v>804</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>883</v>
+        <v>805</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>884</v>
+        <v>806</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>885</v>
+        <v>807</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>886</v>
+        <v>808</v>
       </c>
       <c r="E54" s="17" t="s">
-        <v>887</v>
+        <v>809</v>
       </c>
       <c r="F54" s="19" t="s">
         <v>4</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>888</v>
+        <v>810</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>889</v>
+        <v>811</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>890</v>
+        <v>812</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>891</v>
+        <v>813</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>892</v>
+        <v>814</v>
       </c>
       <c r="E55" s="19" t="s">
-        <v>893</v>
+        <v>815</v>
       </c>
       <c r="F55" s="19" t="s">
         <v>3</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>894</v>
+        <v>816</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>895</v>
+        <v>817</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>896</v>
+        <v>818</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>897</v>
+        <v>819</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>689</v>
+        <v>611</v>
       </c>
       <c r="E56" s="17" t="s">
-        <v>898</v>
+        <v>820</v>
       </c>
       <c r="F56" s="19" t="s">
         <v>3</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>899</v>
+        <v>821</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>900</v>
+        <v>822</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>901</v>
+        <v>823</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>902</v>
+        <v>824</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>903</v>
+        <v>825</v>
       </c>
       <c r="E57" s="19" t="s">
-        <v>904</v>
+        <v>826</v>
       </c>
       <c r="F57" s="19" t="s">
         <v>1</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>905</v>
+        <v>827</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A58" s="16" t="s">
-        <v>906</v>
+        <v>828</v>
       </c>
       <c r="B58" s="19" t="s">
-        <v>688</v>
+        <v>610</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>907</v>
+        <v>829</v>
       </c>
       <c r="D58" s="19" t="s">
-        <v>908</v>
+        <v>830</v>
       </c>
       <c r="E58" s="19" t="s">
-        <v>909</v>
+        <v>831</v>
       </c>
       <c r="F58" s="19" t="s">
         <v>3</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>910</v>
+        <v>832</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>911</v>
+        <v>833</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>912</v>
+        <v>834</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>913</v>
+        <v>835</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>696</v>
+        <v>618</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>914</v>
+        <v>836</v>
       </c>
       <c r="F59" s="19" t="s">
         <v>3</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>915</v>
+        <v>837</v>
       </c>
     </row>
   </sheetData>
@@ -9255,913 +10904,913 @@
     </row>
     <row r="2" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>919</v>
+        <v>841</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>920</v>
+        <v>842</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>921</v>
+        <v>843</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>922</v>
+        <v>844</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>923</v>
+        <v>845</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>924</v>
+        <v>846</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="240" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>925</v>
+        <v>847</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>926</v>
+        <v>848</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>927</v>
+        <v>849</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>928</v>
+        <v>850</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>929</v>
+        <v>851</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>930</v>
+        <v>852</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>931</v>
+        <v>853</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>932</v>
+        <v>854</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>933</v>
+        <v>855</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>934</v>
+        <v>856</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>935</v>
+        <v>857</v>
       </c>
       <c r="F4" s="15" t="s">
         <v>4</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>936</v>
+        <v>858</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>937</v>
+        <v>859</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>938</v>
+        <v>860</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>939</v>
+        <v>861</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>940</v>
+        <v>862</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>941</v>
+        <v>863</v>
       </c>
       <c r="F5" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>942</v>
+        <v>864</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>943</v>
+        <v>865</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>944</v>
+        <v>866</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>945</v>
+        <v>867</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>946</v>
+        <v>868</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>947</v>
+        <v>869</v>
       </c>
       <c r="F6" s="15" t="s">
         <v>2</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>1010</v>
+        <v>924</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>948</v>
+        <v>870</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>949</v>
+        <v>871</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>950</v>
+        <v>872</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>951</v>
+        <v>873</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>952</v>
+        <v>874</v>
       </c>
       <c r="F7" s="15" t="s">
         <v>1</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>953</v>
+        <v>875</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>954</v>
+        <v>876</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>955</v>
+        <v>877</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>956</v>
+        <v>878</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>957</v>
+        <v>879</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>958</v>
+        <v>880</v>
       </c>
       <c r="F8" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>959</v>
+        <v>881</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>960</v>
+        <v>882</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>961</v>
+        <v>883</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>962</v>
+        <v>884</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>963</v>
+        <v>885</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>964</v>
+        <v>886</v>
       </c>
       <c r="F9" s="15" t="s">
         <v>1</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>1011</v>
+        <v>925</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>965</v>
+        <v>887</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>966</v>
+        <v>888</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>967</v>
+        <v>889</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>968</v>
+        <v>890</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>969</v>
+        <v>891</v>
       </c>
       <c r="F10" s="15" t="s">
         <v>1</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>1012</v>
+        <v>926</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>970</v>
+        <v>892</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>971</v>
+        <v>893</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>972</v>
+        <v>894</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>973</v>
+        <v>895</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>974</v>
+        <v>896</v>
       </c>
       <c r="F11" s="15" t="s">
         <v>2</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>975</v>
+        <v>897</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>976</v>
+        <v>898</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>977</v>
+        <v>899</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>978</v>
+        <v>900</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>979</v>
+        <v>901</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>980</v>
+        <v>902</v>
       </c>
       <c r="F12" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>1013</v>
+        <v>927</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>981</v>
+        <v>903</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>982</v>
+        <v>1237</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>983</v>
+        <v>1238</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>984</v>
+        <v>1239</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>985</v>
+        <v>1240</v>
       </c>
       <c r="F13" s="15" t="s">
         <v>2</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>1014</v>
+        <v>928</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>986</v>
+        <v>904</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>987</v>
+        <v>905</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>941</v>
+        <v>863</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>940</v>
+        <v>862</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>988</v>
+        <v>906</v>
       </c>
       <c r="F14" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>1015</v>
+        <v>929</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>989</v>
+        <v>907</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>990</v>
+        <v>908</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>991</v>
+        <v>909</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>992</v>
+        <v>910</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>993</v>
+        <v>911</v>
       </c>
       <c r="F15" s="15" t="s">
         <v>2</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>994</v>
+        <v>912</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="180" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>995</v>
+        <v>913</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>966</v>
+        <v>888</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>967</v>
+        <v>889</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>996</v>
+        <v>914</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>997</v>
+        <v>915</v>
       </c>
       <c r="F16" s="15" t="s">
         <v>1</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>1016</v>
+        <v>930</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>998</v>
+        <v>916</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>999</v>
+        <v>917</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>1000</v>
+        <v>918</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>1001</v>
+        <v>919</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>1002</v>
+        <v>920</v>
       </c>
       <c r="F17" s="15" t="s">
         <v>2</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>1003</v>
+        <v>921</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>1004</v>
+        <v>922</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>1005</v>
+        <v>1241</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>1006</v>
+        <v>1242</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>1007</v>
+        <v>1243</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>1008</v>
+        <v>1244</v>
       </c>
       <c r="F18" s="15" t="s">
         <v>2</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>1009</v>
+        <v>923</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>1017</v>
+        <v>931</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>1018</v>
+        <v>932</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>1019</v>
+        <v>933</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>1020</v>
+        <v>934</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>1021</v>
+        <v>935</v>
       </c>
       <c r="F19" s="15" t="s">
         <v>4</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>1022</v>
+        <v>936</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>1023</v>
+        <v>937</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>1024</v>
+        <v>1245</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>1025</v>
+        <v>1246</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>1026</v>
+        <v>1247</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>1027</v>
+        <v>1248</v>
       </c>
       <c r="F20" s="15" t="s">
         <v>1</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>1028</v>
+        <v>938</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>1029</v>
+        <v>939</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>1030</v>
+        <v>940</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>1031</v>
+        <v>941</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>414</v>
+        <v>350</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>1032</v>
+        <v>942</v>
       </c>
       <c r="F21" s="15" t="s">
         <v>2</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>1033</v>
+        <v>943</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>1034</v>
+        <v>944</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>1035</v>
+        <v>945</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>1036</v>
+        <v>946</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>1037</v>
+        <v>947</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>1038</v>
+        <v>948</v>
       </c>
       <c r="F22" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>1039</v>
+        <v>949</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>1045</v>
+        <v>955</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>1040</v>
+        <v>950</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>1041</v>
+        <v>951</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>1042</v>
+        <v>952</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>1043</v>
+        <v>953</v>
       </c>
       <c r="F23" s="15" t="s">
         <v>2</v>
       </c>
       <c r="G23" s="18" t="s">
-        <v>1044</v>
+        <v>954</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>1046</v>
+        <v>956</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>1047</v>
+        <v>957</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>1048</v>
+        <v>958</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>1049</v>
+        <v>959</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>1050</v>
+        <v>960</v>
       </c>
       <c r="F24" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>1051</v>
+        <v>961</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
-        <v>1052</v>
+        <v>962</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>1053</v>
+        <v>963</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>1054</v>
+        <v>964</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>1055</v>
+        <v>965</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>1056</v>
+        <v>966</v>
       </c>
       <c r="F25" s="15" t="s">
         <v>2</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>1057</v>
+        <v>967</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>1058</v>
+        <v>968</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>1059</v>
+        <v>969</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>1060</v>
+        <v>970</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>1061</v>
+        <v>971</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>1062</v>
+        <v>972</v>
       </c>
       <c r="F26" s="15" t="s">
         <v>4</v>
       </c>
       <c r="G26" s="18" t="s">
-        <v>1063</v>
+        <v>973</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
-        <v>1064</v>
+        <v>974</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>1065</v>
+        <v>975</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>1066</v>
+        <v>976</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>1067</v>
+        <v>977</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>1068</v>
+        <v>978</v>
       </c>
       <c r="F27" s="15" t="s">
         <v>1</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>1069</v>
+        <v>979</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>1070</v>
+        <v>980</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>1071</v>
+        <v>981</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>1072</v>
+        <v>982</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>1073</v>
+        <v>983</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>1074</v>
+        <v>984</v>
       </c>
       <c r="F28" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G28" s="18" t="s">
-        <v>1075</v>
+        <v>985</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>1076</v>
+        <v>986</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>1077</v>
+        <v>987</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>1078</v>
+        <v>988</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>1079</v>
+        <v>989</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>1080</v>
+        <v>990</v>
       </c>
       <c r="F29" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G29" s="18" t="s">
-        <v>1081</v>
+        <v>991</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>1082</v>
+        <v>992</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>1083</v>
+        <v>993</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>1084</v>
+        <v>994</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>1085</v>
+        <v>995</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>1086</v>
+        <v>996</v>
       </c>
       <c r="F30" s="15" t="s">
         <v>1</v>
       </c>
       <c r="G30" s="18" t="s">
-        <v>1087</v>
+        <v>997</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
-        <v>1088</v>
+        <v>998</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>1089</v>
+        <v>999</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>1090</v>
+        <v>1000</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>1091</v>
+        <v>1001</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>1092</v>
+        <v>1002</v>
       </c>
       <c r="F31" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G31" s="18" t="s">
-        <v>1093</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>1105</v>
+        <v>1015</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>1094</v>
+        <v>1004</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>805</v>
+        <v>727</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>1095</v>
+        <v>1005</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>1096</v>
+        <v>1006</v>
       </c>
       <c r="F32" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G32" s="18" t="s">
-        <v>1097</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
-        <v>1098</v>
+        <v>1008</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>1099</v>
+        <v>1009</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>1100</v>
+        <v>1010</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>1101</v>
+        <v>1011</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>1102</v>
+        <v>1012</v>
       </c>
       <c r="F33" s="15" t="s">
         <v>2</v>
       </c>
       <c r="G33" s="18" t="s">
-        <v>1103</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>1104</v>
+        <v>1014</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>1106</v>
+        <v>1016</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>1107</v>
+        <v>1017</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>1108</v>
+        <v>1018</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>1109</v>
+        <v>1019</v>
       </c>
       <c r="F34" s="15" t="s">
         <v>1</v>
       </c>
       <c r="G34" s="18" t="s">
-        <v>1110</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
-        <v>1111</v>
+        <v>1021</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>1112</v>
+        <v>1022</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>1113</v>
+        <v>1023</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>1114</v>
+        <v>1024</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>1115</v>
+        <v>1025</v>
       </c>
       <c r="F35" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G35" s="18" t="s">
-        <v>1116</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>1117</v>
+        <v>1027</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>1118</v>
+        <v>1028</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>1119</v>
+        <v>1029</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>1120</v>
+        <v>1030</v>
       </c>
       <c r="E36" s="17" t="s">
-        <v>1121</v>
+        <v>1031</v>
       </c>
       <c r="F36" s="15" t="s">
         <v>2</v>
       </c>
       <c r="G36" s="18" t="s">
-        <v>1122</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>1123</v>
+        <v>1033</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>1124</v>
+        <v>1034</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>1125</v>
+        <v>1035</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>1126</v>
+        <v>1036</v>
       </c>
       <c r="E37" s="17" t="s">
-        <v>1127</v>
+        <v>1037</v>
       </c>
       <c r="F37" s="15" t="s">
         <v>2</v>
       </c>
       <c r="G37" s="18" t="s">
-        <v>1128</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
-        <v>1129</v>
+        <v>1039</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>1130</v>
+        <v>1040</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>1115</v>
+        <v>1025</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>1131</v>
+        <v>1041</v>
       </c>
       <c r="E38" s="17" t="s">
-        <v>1132</v>
+        <v>1042</v>
       </c>
       <c r="F38" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G38" s="18" t="s">
-        <v>1133</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
-        <v>1134</v>
+        <v>1044</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>1135</v>
+        <v>1045</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>1136</v>
+        <v>1046</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>1137</v>
+        <v>1047</v>
       </c>
       <c r="E39" s="17" t="s">
-        <v>1138</v>
+        <v>1048</v>
       </c>
       <c r="F39" s="15" t="s">
         <v>4</v>
       </c>
       <c r="G39" s="18" t="s">
-        <v>1139</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
-        <v>1140</v>
+        <v>1050</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>1141</v>
+        <v>1051</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>1142</v>
+        <v>1052</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>1143</v>
+        <v>1053</v>
       </c>
       <c r="E40" s="17" t="s">
-        <v>1144</v>
+        <v>1054</v>
       </c>
       <c r="F40" s="15" t="s">
         <v>4</v>
       </c>
       <c r="G40" s="18" t="s">
-        <v>1145</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>1146</v>
+        <v>1056</v>
       </c>
       <c r="B41" s="17" t="s">
         <v>9</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>1147</v>
+        <v>1057</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>1148</v>
+        <v>1058</v>
       </c>
       <c r="E41" s="15" t="s">
         <v>8</v>
@@ -10170,237 +11819,237 @@
         <v>3</v>
       </c>
       <c r="G41" s="18" t="s">
-        <v>1149</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
-        <v>1150</v>
+        <v>1060</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>1151</v>
+        <v>1061</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>1152</v>
+        <v>1062</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>1153</v>
+        <v>1063</v>
       </c>
       <c r="E42" s="17" t="s">
-        <v>1154</v>
+        <v>1064</v>
       </c>
       <c r="F42" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G42" s="18" t="s">
-        <v>1155</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>1156</v>
+        <v>1066</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>1157</v>
+        <v>1067</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>1158</v>
+        <v>1068</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>1159</v>
+        <v>1069</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>1160</v>
+        <v>1070</v>
       </c>
       <c r="F43" s="15" t="s">
         <v>4</v>
       </c>
       <c r="G43" s="18" t="s">
-        <v>1161</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
-        <v>1162</v>
+        <v>1072</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>1163</v>
+        <v>1249</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>1164</v>
+        <v>1250</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>1165</v>
+        <v>1251</v>
       </c>
       <c r="E44" s="17" t="s">
-        <v>1166</v>
+        <v>1252</v>
       </c>
       <c r="F44" s="15" t="s">
         <v>4</v>
       </c>
       <c r="G44" s="18" t="s">
-        <v>1167</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="15" t="s">
-        <v>1168</v>
+        <v>1074</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>1169</v>
+        <v>1075</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>1170</v>
+        <v>1076</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>1171</v>
+        <v>1077</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>1172</v>
+        <v>1078</v>
       </c>
       <c r="F45" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G45" s="18" t="s">
-        <v>1173</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>1174</v>
+        <v>1080</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>1175</v>
+        <v>1081</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>1176</v>
+        <v>1082</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>1177</v>
+        <v>1083</v>
       </c>
       <c r="E46" s="17" t="s">
-        <v>1178</v>
+        <v>1084</v>
       </c>
       <c r="F46" s="15" t="s">
         <v>2</v>
       </c>
       <c r="G46" s="18" t="s">
-        <v>1179</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>1180</v>
+        <v>1086</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>1181</v>
+        <v>1087</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>1138</v>
+        <v>1048</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>1182</v>
+        <v>1088</v>
       </c>
       <c r="E47" s="17" t="s">
-        <v>1137</v>
+        <v>1047</v>
       </c>
       <c r="F47" s="15" t="s">
         <v>2</v>
       </c>
       <c r="G47" s="18" t="s">
-        <v>1183</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A48" s="15" t="s">
-        <v>1184</v>
+        <v>1090</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>1185</v>
+        <v>1253</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>1186</v>
+        <v>1254</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>1187</v>
+        <v>1255</v>
       </c>
       <c r="E48" s="17" t="s">
-        <v>1188</v>
+        <v>1256</v>
       </c>
       <c r="F48" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G48" s="18" t="s">
-        <v>1189</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" s="15" t="s">
-        <v>1190</v>
+        <v>1092</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>1191</v>
+        <v>1093</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>1192</v>
+        <v>1094</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>1193</v>
+        <v>1095</v>
       </c>
       <c r="E49" s="17" t="s">
-        <v>1194</v>
+        <v>1096</v>
       </c>
       <c r="F49" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G49" s="18" t="s">
-        <v>1195</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A50" s="15" t="s">
-        <v>1196</v>
+        <v>1098</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>1197</v>
+        <v>1257</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>1198</v>
+        <v>1258</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>1199</v>
+        <v>1259</v>
       </c>
       <c r="E50" s="17" t="s">
-        <v>1200</v>
+        <v>1260</v>
       </c>
       <c r="F50" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G50" s="18" t="s">
-        <v>1201</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="15" t="s">
-        <v>1202</v>
+        <v>1261</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>1203</v>
+        <v>1100</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>1204</v>
+        <v>1101</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>1205</v>
+        <v>1102</v>
       </c>
       <c r="E51" s="17" t="s">
-        <v>1206</v>
+        <v>1103</v>
       </c>
       <c r="F51" s="15" t="s">
         <v>4</v>
       </c>
       <c r="G51" s="18" t="s">
-        <v>1207</v>
+        <v>1104</v>
       </c>
     </row>
   </sheetData>
@@ -10413,7 +12062,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
@@ -10448,7 +12097,7 @@
     </row>
     <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>1208</v>
+        <v>1105</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -10459,7 +12108,7 @@
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>1209</v>
+        <v>1106</v>
       </c>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>

--- a/file/exercise.xlsx
+++ b/file/exercise.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1885" uniqueCount="1402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1885" uniqueCount="1404">
   <si>
     <t>question</t>
   </si>
@@ -4899,45 +4899,21 @@
     <t>writes</t>
   </si>
   <si>
-    <t>-Đáp án D
-– Căn cứ vào đây là mệnh đề trạng ngữ chỉ thời gian:
-By + thời gian quá khứ =&gt; chia thì quá khứ hoàn thành.
-– Dịch: Vào tuổi 25, anh ấy đã viết hai cuốn tiểu thuyết nổi tiếng.</t>
-  </si>
-  <si>
     <t>When her husband was in the army, Mary _________ to him twice a week</t>
   </si>
   <si>
     <t>was writing</t>
   </si>
   <si>
-    <t>- Đáp án B
-– Căn cứ vào đây là mệnh đề trạng ngữ chỉ thời gian: When S + V (quá khứ đơn), S + V (quá khứ đơn): diễn tả hồi ức, thói quen trong quá khứ
-=&gt; Ở đây có thể hiểu rằng trong lúc chồng đang đi lính thì Mary cũng viết thư thường xuyên cho chồng trong thời gian đó, hai hành động cùng diễn ra song song trong một khoảng thời gian ở quá khứ như một thói quen, nên ta chia hai vế cho quá khứ đơn.
-– Dịch: Khi chồng cô ấy ở trong quân đội, Mary viết thư cho anh ấy hai lần một tuần.</t>
-  </si>
-  <si>
     <t>I have never played football before. This is the first time I _____ playing.</t>
   </si>
   <si>
-    <t>- Đáp án C
-– Căn cứ vào đây là mệnh đề trạng ngữ chỉ thời gian:
-This is the first time S + V (hiện tại hoàn thành).
-– Dịch: Tôi chưa bao giờ chơi bóng đá trước đây. Đây là lần đầu tiên tôi thử chơi</t>
-  </si>
-  <si>
     <t>Since Tom ________________, I have heard nothing from him.</t>
   </si>
   <si>
     <t xml:space="preserve">had left </t>
   </si>
   <si>
-    <t>- Đáp án B
-– Căn cứ vào đây là mệnh đề trạng ngữ chỉ thời gian: S + V (hiện tại hoàn thành) since S + V
-(quá khứ đơn).
-– Dịch: Từ khi Tom rời đi, tôi chưa nghe tin tức gì từ anh ấy</t>
-  </si>
-  <si>
     <t>After I _______________ lunch, I looked for my bag.</t>
   </si>
   <si>
@@ -4950,12 +4926,6 @@
     <t>have had</t>
   </si>
   <si>
-    <t>- Đáp án B
-– Căn cứ vào đây là mệnh đề trạng ngữ chỉ thời gian:
-After S + had Vp2, S + V (quá khứ đơn).
-– Dịch: Sau khi tôi ăn trưa, tôi đã tìm túi của mình.</t>
-  </si>
-  <si>
     <t>By the end of next year, George _________________ English for two years</t>
   </si>
   <si>
@@ -4969,12 +4939,6 @@
   </si>
   <si>
     <t>would learn</t>
-  </si>
-  <si>
-    <t>- Đáp án A
-– Căn cứ vào đây là mệnh đề trạng ngữ chỉ thời gian: By + trạng từ của tương lai =&gt; động từ chia
-thì tương lai hoàn thành.
-– Dịch: Vào cuối của năm tới, George đã học tiếng anh trong 2 năm.</t>
   </si>
   <si>
     <t>These were the highest words of praise they _______________from the old man.</t>
@@ -5001,12 +4965,6 @@
   </si>
   <si>
     <t>finishing</t>
-  </si>
-  <si>
-    <t>- Đáp án B
-– Căn cứ vào đây là mệnh đề trạng ngữ chỉ thời gian: As soon as + S + V (hiện tại đơn / hiện tại hoàn thành), S + V (tương lai đơn).
-- Vế không chứa “as soon as” chia thì tương lai đơn =&gt; Vế còn lại chia thì hiện tại đơn/hiện tại hoàn thành.
-– Dịch: Anh ấy sẽ đưa con chó đi dạo ngay khi anh ấy ăn xong.</t>
   </si>
   <si>
     <t>She __________ the children to her, and ________ the words she ________ to the others.</t>
@@ -5060,12 +5018,6 @@
     <t>was making</t>
   </si>
   <si>
-    <t>- Đáp án C
-– Dịch: Trong vòng một tuần, cô ta đã biết lỗi lầm đáng sợ mà cô ta đã gây ra.
-=&gt; Hành động “gây ra lỗi lầm” xảy ra trước hành động “biết”. Mà hành động “biết” chia ở thì quá khứ đơn thì hành động “nhận ra lỗi lầm” phải chia ở thì quá khứ hoàn thành.
-=&gt; Đáp án: C</t>
-  </si>
-  <si>
     <t>They _______________ table tennis when their father comes back home.</t>
   </si>
   <si>
@@ -5093,12 +5045,6 @@
     <t xml:space="preserve">had finished </t>
   </si>
   <si>
-    <t>- Đáp án C
-– Căn cứ vào đây là mệnh đề trạng ngữ chỉ thời gian: Before S + V (quá khứ đơn), S + V (quá
-khứ hoàn thành).
-– Dịch: Trước khi cô ấy đi ngủ, cô ấy đã hoàn thành bài tập về nhà rồi.</t>
-  </si>
-  <si>
     <t>They are staying at the hotel in London. At this time tomorrow, they _____ in Vietnam.</t>
   </si>
   <si>
@@ -5109,12 +5055,6 @@
   </si>
   <si>
     <t>will be travelling</t>
-  </si>
-  <si>
-    <t>- Đáp án C
-– Căn cứ vào đây là mệnh đề trạng ngữ chỉ thời gian: At this time + thời gian trong tương lai =&gt;
-chia thì tương lai tiếp diễn.
-– Dịch: Họ đang ở khách sạn ở London. Vào thời điểm này ngày mai, họ sẽ đang ở Việt Nam.</t>
   </si>
   <si>
     <t>There ____________ something vaguely familiar about her face but I couldn’t
@@ -5154,12 +5094,6 @@
     <t>will be becoming</t>
   </si>
   <si>
-    <t>- Đáp án A
-– Căn cứ vào đây là mệnh đề trạng ngữ chỉ thời gian: by the time+ trạng từ của tương lai =&gt; chia
-tương lai hoàn thành.
-– Dịch: Hàng triệu người khác sẽ thất nghiệp vào năm tới.</t>
-  </si>
-  <si>
     <t>She told me that her family _________ long in that town</t>
   </si>
   <si>
@@ -5178,12 +5112,6 @@
     <t>is getting</t>
   </si>
   <si>
-    <t>-Đáp án C
-– Căn cứ vào đây là mệnh đề trạng ngữ chỉ thời gian:
-By the time S + V (hiện tại đơn), S + V (tương lai hoàn thành).
-– Dịch: Vào thời điểm anh ấy ra tù, anh sẽ quên làm sao sống ở thế giới thực</t>
-  </si>
-  <si>
     <t>I have been saving money because I _____ buy a computer</t>
   </si>
   <si>
@@ -5196,12 +5124,6 @@
     <t>would</t>
   </si>
   <si>
-    <t>- Đáp án C
-– Căn cứ vào cách dùng của thì tương lai gần: diễn tả một kế hoạch dự định (đã lên kế hoạch).
-- Kế hoạch từ trước: tiết kiệm tiền.
-– Dịch: Tôi đã tiết kiệm tiền bởi vì tôi sẽ mua máy tính.</t>
-  </si>
-  <si>
     <t>By 8 o’clock yesterday, the spaceship ____ 20 hours around the earth</t>
   </si>
   <si>
@@ -5211,11 +5133,6 @@
     <t>had been traveling</t>
   </si>
   <si>
-    <t>- Đáp án C
-– Căn cứ vào “By + mốc thời gian quá khứ” =&gt; chia thì quá khứ hoàn thành. Trong câu này muốn nhấn mạnh tính liên tục của hành động
-– Dịch: Vào thời điểm 9 giờ ngày hôm qua, con tàu vũ trụ đã di chuyển 20 giờ vòng quanh trái đất.</t>
-  </si>
-  <si>
     <t>Over 20 years ___ but I never forgot the time we first met each other.</t>
   </si>
   <si>
@@ -5228,16 +5145,6 @@
     <t>has gone out</t>
   </si>
   <si>
-    <t>- Đáp án C
-– Căn cứ vào cách dùng của thì hiện tại hoàn thành: Một hành động bắt đầu trong quá khứ và kéo
-dài đến hiện tại.
-Ta có:
-* go up: tăng lên
-* go by: trôi qua (thời gian), tuột mất
-* go out: mất điện/ra ngoài/đi chơi
-– Dịch: Hơn 20 năm đã trôi qua nhưng tôi chưa bao giờ quên lần đầu tiên chúng tôi gặp nhau.</t>
-  </si>
-  <si>
     <t>The child kept the present that she _________________.</t>
   </si>
   <si>
@@ -5245,13 +5152,6 @@
   </si>
   <si>
     <t xml:space="preserve">had been given </t>
-  </si>
-  <si>
-    <t>- Đáp án B
-– Căn cứ vào cách dùng của thì quá khứ hoàn thành: Khi hai hành động cùng xảy ra trong quá
-khứ, ta dùng thì quá khứ hoàn thành cho hành động xảy ra trước và quá khứ đơn cho hành
-động xảy ra sau.
-– Dịch: Con bé giữ món quà mà nó được tặng.</t>
   </si>
   <si>
     <t>That pipe ___________ for ages. We must get it mended.</t>
@@ -5330,33 +5230,7 @@
     <t>hadn’t been listening</t>
   </si>
   <si>
-    <t>- Đáp án B
-Ta có:
-* Shouldn’t + have + Vp2: lẽ ra không nên làm nhưng đã làm rồi
--&gt; Vì là một “conversation” nên hành động “listen” cũng phải diễn ra liên tục trong một thời gian dài suốt cả cuộc trò chuyện đó. Để nhấn mạnh quá trình liên tục của hành động, ra dùng “shouldn’t have been Ving”
-– Dịch: Bạn lẽ ra không nên nghe cuộc trò chuyện của chúng tôi. Cuộc trò chuyện của chúng tôi riêng tư.</t>
-  </si>
-  <si>
     <t>The President _______ a speech, but in the end he _______ his mind</t>
-  </si>
-  <si>
-    <t>would deliver – had changed</t>
-  </si>
-  <si>
-    <t>was going to deliver – changed</t>
-  </si>
-  <si>
-    <t>delivered – had changed</t>
-  </si>
-  <si>
-    <t>was delivering – changed</t>
-  </si>
-  <si>
-    <t>- Đáp án B
-Dịch nghĩa: Tổng thống định phát biểu một bài diễn văn, nhưng cuối cùng ông ấy đã thay đổi ý định.
-=&gt; Định phát biểu xong lại thôi =&gt; xảy ra nối tiếp nhau =&gt; chia quá khứ đơn =&gt; Loại A,C
-*Đáp án D cũng loại vì chỉ dùng quá khứ tiếp diễn-quá khứ đơn cùng nhau khi diễn tả một hành động đang xảy ra thì có một hành động khác xen vào. Ở đây không thể là ông đang phát biểu thì ông lại thôi; hành động thay đổi là hành động quyết định tại thời điểm nói chứ không phải là hành động xen vào
-=&gt; Diễn tả một dự định ta dùng thì tương lai gần, tuy nhiên do động từ phía sau chia quá khứ đơn nên động từ phía trước phải lùi thì.</t>
   </si>
   <si>
     <t>The Angkor complex _______________ the entire range of Khmer art from the
@@ -5376,6 +5250,138 @@
 =&gt; Trong câu có dấu hiệu trạng từ thời gian nhưng “từ thế kỉ thứ 9 đến thế kỉ 14” là bổ nghĩa cho
 " nghệ thuật của người Khơ-me". Từ đó ta loại A.
 =&gt; Đáp án B</t>
+  </si>
+  <si>
+    <t>would deliver _ had changed</t>
+  </si>
+  <si>
+    <t>was going to deliver _ changed</t>
+  </si>
+  <si>
+    <t>delivered _ had changed</t>
+  </si>
+  <si>
+    <t>was delivering _ changed</t>
+  </si>
+  <si>
+    <t>has been leaked</t>
+  </si>
+  <si>
+    <t>-Đáp án D
+- Căn cứ vào đây là mệnh đề trạng ngữ chỉ thời gian:
+By + thời gian quá khứ =&gt; chia thì quá khứ hoàn thành.
+- Dịch: Vào tuổi 25, anh ấy đã viết hai cuốn tiểu thuyết nổi tiếng.</t>
+  </si>
+  <si>
+    <t>- Đáp án B
+- Căn cứ vào đây là mệnh đề trạng ngữ chỉ thời gian: When S + V (quá khứ đơn), S + V (quá khứ đơn): diễn tả hồi ức, thói quen trong quá khứ
+=&gt; Ở đây có thể hiểu rằng trong lúc chồng đang đi lính thì Mary cũng viết thư thường xuyên cho chồng trong thời gian đó, hai hành động cùng diễn ra song song trong một khoảng thời gian ở quá khứ như một thói quen, nên ta chia hai vế cho quá khứ đơn.
+- Dịch: Khi chồng cô ấy ở trong quân đội, Mary viết thư cho anh ấy hai lần một tuần.</t>
+  </si>
+  <si>
+    <t>- Đáp án C
+- Căn cứ vào đây là mệnh đề trạng ngữ chỉ thời gian:
+This is the first time S + V (hiện tại hoàn thành).
+- Dịch: Tôi chưa bao giờ chơi bóng đá trước đây. Đây là lần đầu tiên tôi thử chơi</t>
+  </si>
+  <si>
+    <t>- Đáp án B
+- Căn cứ vào đây là mệnh đề trạng ngữ chỉ thời gian: S + V (hiện tại hoàn thành) since S + V
+(quá khứ đơn).
+- Dịch: Từ khi Tom rời đi, tôi chưa nghe tin tức gì từ anh ấy</t>
+  </si>
+  <si>
+    <t>- Đáp án B
+- Căn cứ vào đây là mệnh đề trạng ngữ chỉ thời gian:
+After S + had Vp2, S + V (quá khứ đơn).
+- Dịch: Sau khi tôi ăn trưa, tôi đã tìm túi của mình.</t>
+  </si>
+  <si>
+    <t>- Đáp án A
+- Căn cứ vào đây là mệnh đề trạng ngữ chỉ thời gian: By + trạng từ của tương lai =&gt; động từ chia
+thì tương lai hoàn thành.
+- Dịch: Vào cuối của năm tới, George đã học tiếng anh trong 2 năm.</t>
+  </si>
+  <si>
+    <t>- Đáp án B
+- Căn cứ vào đây là mệnh đề trạng ngữ chỉ thời gian: As soon as + S + V (hiện tại đơn / hiện tại hoàn thành), S + V (tương lai đơn).
+- Vế không chứa “as soon as” chia thì tương lai đơn =&gt; Vế còn lại chia thì hiện tại đơn/hiện tại hoàn thành.
+- Dịch: Anh ấy sẽ đưa con chó đi dạo ngay khi anh ấy ăn xong.</t>
+  </si>
+  <si>
+    <t>- Đáp án C
+- Dịch: Trong vòng một tuần, cô ta đã biết lỗi lầm đáng sợ mà cô ta đã gây ra.
+=&gt; Hành động “gây ra lỗi lầm” xảy ra trước hành động “biết”. Mà hành động “biết” chia ở thì quá khứ đơn thì hành động “nhận ra lỗi lầm” phải chia ở thì quá khứ hoàn thành.
+=&gt; Đáp án: C</t>
+  </si>
+  <si>
+    <t>- Đáp án C
+- Căn cứ vào đây là mệnh đề trạng ngữ chỉ thời gian: Before S + V (quá khứ đơn), S + V (quá
+khứ hoàn thành).
+- Dịch: Trước khi cô ấy đi ngủ, cô ấy đã hoàn thành bài tập về nhà rồi.</t>
+  </si>
+  <si>
+    <t>- Đáp án C
+- Căn cứ vào đây là mệnh đề trạng ngữ chỉ thời gian: At this time + thời gian trong tương lai =&gt;
+chia thì tương lai tiếp diễn.
+- Dịch: Họ đang ở khách sạn ở London. Vào thời điểm này ngày mai, họ sẽ đang ở Việt Nam.</t>
+  </si>
+  <si>
+    <t>- Đáp án A
+- Căn cứ vào đây là mệnh đề trạng ngữ chỉ thời gian: by the time+ trạng từ của tương lai =&gt; chia
+tương lai hoàn thành.
+- Dịch: Hàng triệu người khác sẽ thất nghiệp vào năm tới.</t>
+  </si>
+  <si>
+    <t>-Đáp án C
+- Căn cứ vào đây là mệnh đề trạng ngữ chỉ thời gian:
+By the time S + V (hiện tại đơn), S + V (tương lai hoàn thành).
+- Dịch: Vào thời điểm anh ấy ra tù, anh sẽ quên làm sao sống ở thế giới thực</t>
+  </si>
+  <si>
+    <t>- Đáp án C
+- Căn cứ vào cách dùng của thì tương lai gần: diễn tả một kế hoạch dự định (đã lên kế hoạch).
+- Kế hoạch từ trước: tiết kiệm tiền.
+- Dịch: Tôi đã tiết kiệm tiền bởi vì tôi sẽ mua máy tính.</t>
+  </si>
+  <si>
+    <t>- Đáp án C
+- Căn cứ vào “By + mốc thời gian quá khứ” =&gt; chia thì quá khứ hoàn thành. Trong câu này muốn nhấn mạnh tính liên tục của hành động
+- Dịch: Vào thời điểm 9 giờ ngày hôm qua, con tàu vũ trụ đã di chuyển 20 giờ vòng quanh trái đất.</t>
+  </si>
+  <si>
+    <t>- Đáp án C
+- Căn cứ vào cách dùng của thì hiện tại hoàn thành: Một hành động bắt đầu trong quá khứ và kéo
+dài đến hiện tại.
+Ta có:
+* go up: tăng lên
+* go by: trôi qua (thời gian), tuột mất
+* go out: mất điện/ra ngoài/đi chơi
+- Dịch: Hơn 20 năm đã trôi qua nhưng tôi chưa bao giờ quên lần đầu tiên chúng tôi gặp nhau.</t>
+  </si>
+  <si>
+    <t>- Đáp án B
+- Căn cứ vào cách dùng của thì quá khứ hoàn thành: Khi hai hành động cùng xảy ra trong quá
+khứ, ta dùng thì quá khứ hoàn thành cho hành động xảy ra trước và quá khứ đơn cho hành
+động xảy ra sau.
+- Dịch: Con bé giữ món quà mà nó được tặng.</t>
+  </si>
+  <si>
+    <t>- Đáp án B
+Ta có:
+* Shouldn’t + have + Vp2: lẽ ra không nên làm nhưng đã làm rồi
+-&gt; Vì là một “conversation” nên hành động “listen” cũng phải diễn ra liên tục trong một thời gian dài suốt cả cuộc trò chuyện đó. Để nhấn mạnh quá trình liên tục của hành động, ra dùng “shouldn’t have been Ving”
+- Dịch: Bạn lẽ ra không nên nghe cuộc trò chuyện của chúng tôi. Cuộc trò chuyện của chúng tôi riêng tư.</t>
+  </si>
+  <si>
+    <t>- Đáp án B
+- Dịch nghĩa: Tổng thống định phát biểu một bài diễn văn, nhưng cuối cùng ông ấy đã thay đổi ý định.
+=&gt; Định phát biểu xong lại thôi =&gt; xảy ra nối tiếp nhau =&gt; chia quá khứ đơn =&gt; Loại A,C
+*Đáp án D cũng loại vì chỉ dùng quá khứ tiếp diễn-quá khứ đơn cùng nhau khi diễn tả một hành động đang xảy ra thì có một hành động khác xen vào. Ở đây không thể là ông đang phát biểu thì ông lại thôi; hành động thay đổi là hành động quyết định tại thời điểm nói chứ không phải là hành động xen vào
+=&gt; Diễn tả một dự định ta dùng thì tương lai gần, tuy nhiên do động từ phía sau chia quá khứ đơn nên động từ phía trước phải lùi thì.</t>
+  </si>
+  <si>
+    <t>are preparing</t>
   </si>
 </sst>
 </file>
@@ -5438,7 +5444,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -5516,6 +5522,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5799,8 +5809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G107"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1" sqref="A1:G1"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8285,8 +8295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8560,8 +8570,8 @@
       <c r="B12" s="1" t="s">
         <v>1117</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>1117</v>
+      <c r="C12" s="29" t="s">
+        <v>1403</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>1118</v>
@@ -8849,15 +8859,15 @@
         <v>4</v>
       </c>
       <c r="G24" s="27" t="s">
-        <v>1274</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>1275</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>1276</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>680</v>
@@ -8872,12 +8882,12 @@
         <v>2</v>
       </c>
       <c r="G25" s="27" t="s">
-        <v>1277</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="21" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>1139</v>
@@ -8895,15 +8905,15 @@
         <v>3</v>
       </c>
       <c r="G26" s="27" t="s">
-        <v>1279</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>15</v>
@@ -8918,291 +8928,291 @@
         <v>2</v>
       </c>
       <c r="G27" s="27" t="s">
-        <v>1282</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>223</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>1284</v>
+        <v>1280</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
       <c r="F28" s="26" t="s">
         <v>2</v>
       </c>
       <c r="G28" s="27" t="s">
-        <v>1287</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="21" t="s">
-        <v>1288</v>
+        <v>1283</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>1289</v>
+        <v>1284</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>1290</v>
+        <v>1285</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>1292</v>
+        <v>1287</v>
       </c>
       <c r="F29" s="26" t="s">
         <v>1</v>
       </c>
       <c r="G29" s="27" t="s">
-        <v>1293</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="21" t="s">
-        <v>1294</v>
+        <v>1288</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>1295</v>
+        <v>1289</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>1295</v>
+        <v>1289</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>1296</v>
+        <v>1290</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>1296</v>
+        <v>1290</v>
       </c>
       <c r="F30" s="26" t="s">
         <v>3</v>
       </c>
       <c r="G30" s="27" t="s">
-        <v>1297</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
-        <v>1298</v>
+        <v>1292</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>1299</v>
+        <v>1293</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
       <c r="D31" s="12" t="s">
         <v>594</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
       <c r="F31" s="26" t="s">
         <v>2</v>
       </c>
       <c r="G31" s="27" t="s">
-        <v>1302</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
-        <v>1303</v>
+        <v>1296</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>1304</v>
+        <v>1297</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>1305</v>
+        <v>1298</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>1306</v>
+        <v>1299</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>1307</v>
+        <v>1300</v>
       </c>
       <c r="F32" s="26" t="s">
         <v>1</v>
       </c>
       <c r="G32" s="27" t="s">
-        <v>1308</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="21" t="s">
-        <v>1309</v>
+        <v>1302</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>1310</v>
+        <v>1303</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>1311</v>
+        <v>1304</v>
       </c>
       <c r="D33" s="12" t="s">
         <v>565</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>1312</v>
+        <v>1305</v>
       </c>
       <c r="F33" s="26" t="s">
         <v>3</v>
       </c>
       <c r="G33" s="27" t="s">
-        <v>1313</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A34" s="21" t="s">
-        <v>1314</v>
+        <v>1307</v>
       </c>
       <c r="B34" s="12" t="s">
         <v>689</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>1315</v>
+        <v>1308</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>1316</v>
+        <v>1309</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>1317</v>
+        <v>1310</v>
       </c>
       <c r="F34" s="26" t="s">
         <v>3</v>
       </c>
       <c r="G34" s="27" t="s">
-        <v>1318</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A35" s="21" t="s">
-        <v>1319</v>
+        <v>1311</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>1320</v>
+        <v>1312</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>1321</v>
+        <v>1313</v>
       </c>
       <c r="D35" s="12" t="s">
         <v>25</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>1322</v>
+        <v>1314</v>
       </c>
       <c r="F35" s="11" t="s">
         <v>2</v>
       </c>
       <c r="G35" s="27" t="s">
-        <v>1323</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="21" t="s">
-        <v>1324</v>
+        <v>1316</v>
       </c>
       <c r="B36" s="12" t="s">
         <v>375</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>1325</v>
+        <v>1317</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>1326</v>
+        <v>1318</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>1326</v>
+        <v>1318</v>
       </c>
       <c r="F36" s="26" t="s">
         <v>3</v>
       </c>
       <c r="G36" s="27" t="s">
-        <v>1327</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
-        <v>1328</v>
+        <v>1319</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>1329</v>
+        <v>1320</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>1330</v>
+        <v>1321</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
       <c r="F37" s="26" t="s">
         <v>3</v>
       </c>
       <c r="G37" s="27" t="s">
-        <v>1332</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>1333</v>
+        <v>1323</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>1334</v>
+        <v>1324</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>1335</v>
+        <v>1325</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>1336</v>
+        <v>1326</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>1337</v>
+        <v>1327</v>
       </c>
       <c r="F38" s="26" t="s">
         <v>2</v>
       </c>
       <c r="G38" s="27" t="s">
-        <v>1338</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
-        <v>1339</v>
+        <v>1329</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>1340</v>
+        <v>1330</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>1341</v>
+        <v>1331</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>1342</v>
+        <v>1332</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>1343</v>
+        <v>1333</v>
       </c>
       <c r="F39" s="26" t="s">
         <v>1</v>
       </c>
       <c r="G39" s="27" t="s">
-        <v>1344</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="21" t="s">
-        <v>1345</v>
+        <v>1334</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>1346</v>
+        <v>1335</v>
       </c>
       <c r="C40" s="12" t="s">
         <v>1126</v>
@@ -9217,12 +9227,12 @@
         <v>2</v>
       </c>
       <c r="G40" s="27" t="s">
-        <v>1347</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>1348</v>
+        <v>1337</v>
       </c>
       <c r="B41" s="12" t="s">
         <v>33</v>
@@ -9234,96 +9244,96 @@
         <v>32</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>1349</v>
+        <v>1338</v>
       </c>
       <c r="F41" s="26" t="s">
         <v>3</v>
       </c>
       <c r="G41" s="27" t="s">
-        <v>1350</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" s="21" t="s">
-        <v>1351</v>
+        <v>1339</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>1352</v>
+        <v>1340</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>1353</v>
+        <v>1341</v>
       </c>
       <c r="D42" s="12" t="s">
         <v>510</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
       <c r="F42" s="26" t="s">
         <v>3</v>
       </c>
       <c r="G42" s="27" t="s">
-        <v>1355</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" s="21" t="s">
-        <v>1356</v>
+        <v>1343</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>1330</v>
+        <v>1321</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>1357</v>
+        <v>1344</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>1358</v>
+        <v>1345</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>1358</v>
+        <v>1345</v>
       </c>
       <c r="F43" s="26" t="s">
         <v>3</v>
       </c>
       <c r="G43" s="27" t="s">
-        <v>1359</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A44" s="21" t="s">
-        <v>1360</v>
+        <v>1346</v>
       </c>
       <c r="B44" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>1361</v>
+        <v>1347</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>1362</v>
+        <v>1348</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>1363</v>
+        <v>1349</v>
       </c>
       <c r="F44" s="26" t="s">
         <v>3</v>
       </c>
       <c r="G44" s="27" t="s">
-        <v>1364</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A45" s="21" t="s">
-        <v>1365</v>
+        <v>1350</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>1366</v>
+        <v>1351</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>1367</v>
+        <v>1352</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>1367</v>
+        <v>1352</v>
       </c>
       <c r="E45" s="12" t="s">
         <v>1123</v>
@@ -9332,145 +9342,145 @@
         <v>2</v>
       </c>
       <c r="G45" s="27" t="s">
-        <v>1368</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
-        <v>1369</v>
+        <v>1353</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>1370</v>
-      </c>
-      <c r="C46" s="12" t="s">
-        <v>1370</v>
-      </c>
-      <c r="D46" s="12" t="s">
-        <v>1371</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>1372</v>
+        <v>1354</v>
+      </c>
+      <c r="C46" s="29" t="s">
+        <v>1384</v>
+      </c>
+      <c r="D46" s="28" t="s">
+        <v>1355</v>
+      </c>
+      <c r="E46" s="28" t="s">
+        <v>1356</v>
       </c>
       <c r="F46" s="26" t="s">
         <v>1</v>
       </c>
       <c r="G46" s="27" t="s">
-        <v>1373</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="21" t="s">
-        <v>1374</v>
+        <v>1358</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>1375</v>
+        <v>1359</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>1376</v>
+        <v>1360</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>1377</v>
+        <v>1361</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>1378</v>
+        <v>1362</v>
       </c>
       <c r="F47" s="26" t="s">
         <v>4</v>
       </c>
       <c r="G47" s="27" t="s">
-        <v>1379</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A48" s="16" t="s">
-        <v>1380</v>
+        <v>1364</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>1381</v>
+        <v>1365</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>1382</v>
+        <v>1366</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>1383</v>
+        <v>1367</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>1384</v>
+        <v>1368</v>
       </c>
       <c r="F48" s="26" t="s">
         <v>3</v>
       </c>
       <c r="G48" s="27" t="s">
-        <v>1385</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A49" s="21" t="s">
-        <v>1386</v>
+        <v>1370</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>1387</v>
+        <v>1371</v>
       </c>
       <c r="C49" s="21" t="s">
-        <v>1388</v>
+        <v>1372</v>
       </c>
       <c r="D49" s="21" t="s">
-        <v>1389</v>
+        <v>1373</v>
       </c>
       <c r="E49" s="21" t="s">
-        <v>1390</v>
+        <v>1374</v>
       </c>
       <c r="F49" s="26" t="s">
         <v>2</v>
       </c>
       <c r="G49" s="27" t="s">
-        <v>1391</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A50" s="16" t="s">
-        <v>1392</v>
+        <v>1375</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>1393</v>
+        <v>1380</v>
       </c>
       <c r="C50" s="21" t="s">
-        <v>1394</v>
+        <v>1381</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>1395</v>
+        <v>1382</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>1396</v>
+        <v>1383</v>
       </c>
       <c r="F50" s="26" t="s">
         <v>2</v>
       </c>
       <c r="G50" s="27" t="s">
-        <v>1397</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>1398</v>
+        <v>1376</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>1399</v>
+        <v>1377</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>1399</v>
+        <v>1377</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>1399</v>
+        <v>1377</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>1400</v>
+        <v>1378</v>
       </c>
       <c r="F51" s="26" t="s">
         <v>2</v>
       </c>
       <c r="G51" s="27" t="s">
-        <v>1401</v>
+        <v>1379</v>
       </c>
     </row>
   </sheetData>
@@ -9483,7 +9493,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
@@ -10866,8 +10876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView topLeftCell="E49" workbookViewId="0">
-      <selection activeCell="G57" sqref="G57"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11270,7 +11280,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>922</v>
       </c>

--- a/file/exercise.xlsx
+++ b/file/exercise.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr showObjects="none" filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="12 thì" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1885" uniqueCount="1404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1885" uniqueCount="1405">
   <si>
     <t>question</t>
   </si>
@@ -5382,6 +5382,9 @@
   </si>
   <si>
     <t>are preparing</t>
+  </si>
+  <si>
+    <t>am going to see</t>
   </si>
 </sst>
 </file>
@@ -5809,8 +5812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G107"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7674,8 +7677,8 @@
       <c r="C81" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>402</v>
+      <c r="D81" s="5" t="s">
+        <v>1404</v>
       </c>
       <c r="E81" s="7" t="s">
         <v>403</v>
@@ -8295,8 +8298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/file/exercise.xlsx
+++ b/file/exercise.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr showObjects="none" filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="12 thì" sheetId="1" r:id="rId1"/>
-    <sheet name="Sự phối thì" sheetId="6" r:id="rId2"/>
-    <sheet name="Hòa hợp giữa chủ ngữ và động tu" sheetId="7" r:id="rId3"/>
-    <sheet name="danh động từ" sheetId="9" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="8" r:id="rId5"/>
+    <sheet name="1.12 thì" sheetId="1" r:id="rId1"/>
+    <sheet name="1.Sự phối thì" sheetId="6" r:id="rId2"/>
+    <sheet name="2.Hòa hợp giữa S và V" sheetId="7" r:id="rId3"/>
+    <sheet name="1.danh động từ" sheetId="9" r:id="rId4"/>
+    <sheet name="2.động từ nguyên mẫu" sheetId="8" r:id="rId5"/>
+    <sheet name="1.câu điều kiện" sheetId="10" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1885" uniqueCount="1405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2347" uniqueCount="1766">
   <si>
     <t>question</t>
   </si>
@@ -5385,6 +5386,1529 @@
   </si>
   <si>
     <t>am going to see</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ________ have enough apples, she’ll make an apple pie this afternoon.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Should she </t>
+  </si>
+  <si>
+    <t xml:space="preserve">If she </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Will she </t>
+  </si>
+  <si>
+    <t>Unless she</t>
+  </si>
+  <si>
+    <t>- Đáp án A
+*Dịch nghĩa: Nếu cô ấy có đủ táo, cô ấy sẽ làm một chiếc bánh táo vào chiều nay.
+Xét các đáp án:
+-A. Should she → Đảo ngữ câu điều kiện loại 1: Should + S + (not) + V(bare), S + Will+V(bare).
+-B. If she → Nếu dùng if she, sau she động từ phải chia là "has".
+-C. Will she → Sai cấu trúc đảo ngữ câu điều kiện loại 1.
+- D. Unless she → Nếu dùng unless she, sau she động từ phải chia là "has"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> If you don’t know how to spell a word, you _______ look it up in the dictionary.</t>
+  </si>
+  <si>
+    <t>- Xét các đáp án:
+-A. must → Nếu bạn không biết cách đánh vần một từ, bạn phải tra từ đó trong từ điển, sai nghĩa.
+-B. will → Nếu bạn không biết cách đánh vần một từ, bạn sẽ tra từ đó trong từ điển, sai nghĩa.
+-C. should → Cấu trúc câu điều kiện loại 1: If + S + V(s/es), S + will/can/shall/should/… + V(nguyên mẫu).
+-D. ought → Chỉ dùng cấu trúc ought to = should: nên làm gì
+*Tạm dịch: Nếu bạn không biết cách phát âm một từ thì bạn nên tra nó trong từ điển</t>
+  </si>
+  <si>
+    <t>If the sun _________, we _________for a walk.</t>
+  </si>
+  <si>
+    <t>- Đáp án A
+* Dịch nghĩa: Nếu mặt trời chiếu sáng chúng ta sẽ đi dạo. (Đây là tình huống có thể xảy ra ở hiện tại hoặc tương lai, nên ta dùng câu điều kiện loại 1).
+- Xét các đáp án:
+-A. shines / will go → Cấu trúc câu điều kiện loại 1: If + S + V(hiện tại đơn), S + will/can/shall + V(nguyên mẫu).
+-B. shone / will go → Sai cấu trúc câu điều kiện loại 1.
+-C. shone / would go → Cấu trúc câu điều kiện loại 2. =&gt; Loại.
+-D. had shone / would go → Cấu trúc câu điều kiện hỗn hợp (Loại 3 + 2). =&gt; Loại.</t>
+  </si>
+  <si>
+    <t>The campfire ________ if it ________ last night.</t>
+  </si>
+  <si>
+    <t>- Đáp án B
+* Dịch nghĩa: Ngọn lửa trại sẽ không bị hủy bỏ nếu đêm qua không trời mưa. (Đây là tình huống
+trái thực tế trong quá khứ, nên ta dùng câu điều kiện loại 3).
+* Xét các đáp án:
+-A. wouldn’t be cancelled/hadn’t rained → Cấu trúc câu điều kiện hỗn hợp (Loại 3 + 2). =&gt; Loại.
+-B. wouldn’t have been cancelled/hadn’t rained → Cấu trúc câu điều kiện loại 3: If + S + V(quá
+khứ hoàn thành), S + would/could/might + have + Vpp.
+-C. would have been cancelled/hadn’t rained → Ngọn lửa trại sẽ bị hủy bỏ nếu đêm qua không trời mưa, sai nghĩa.
+-D. will be cancelled/rains → Sai cấu trúc câu điều kiện loại 3.</t>
+  </si>
+  <si>
+    <t>But for our parents, we ________ successful in life.</t>
+  </si>
+  <si>
+    <t>- Đáp án D
+*Dịch nghĩa: Nếu không có cha mẹ, chúng ta sẽ không bao giờ thành công trong cuộc sống.
+-Xét các đáp án:
+-A. will never be → Câu điều kiện loại 1 không dùng với cấu trúc but for + noun
+-B. would never be → Trong trường hợp này không sử dụng câu điều kiện loại 2
+-C. wouldn’t have → Đây là tình huống trái thực tế trong quá khứ, nên ta dùng câu điều kiện loại 3
+-D. would have never been → Cấu trúc But for + noun thay thế cho cấu trúc ” if …….not”. (chỉ dùng cho câu điều kiện loại 2 và loại 3)</t>
+  </si>
+  <si>
+    <t>If I _______ my wallet at home this morning, I _______ money for lunch now.</t>
+  </si>
+  <si>
+    <t>- Đáp án C
+Dịch nghĩa: Nếu tôi đã không để ví ở nhà sáng nay, tôi đã có tiền ăn trưa ngay bây giờ.
+=&gt; Căn cứ vào trạng từ thời gian “this morning” =&gt; Loại 3
+=&gt; Căn cứ vào trạng từ thời gian “now” =&gt; Loại 2
+=&gt; Đây là câu điều kiện trộn. Do đó, đáp án là C</t>
+  </si>
+  <si>
+    <t>- Đáp án B
+* Dịch nghĩa: Nếu chúng ta đã nghiên cứu các kế hoạch một cách cẩn thận, chúng ta đã không có
+quá nhiều sai lầm nghiêm trọng.
+* Xét các đáp án:
+-A. study → Sai cấu trúc câu điều kiện loại 3.
+-B. had studied → Cấu trúc câu điều kiện loại 3: If + S + V(quá khứ hoàn thành), S +
+would/could/might + have + Vpp.
+-C. studied → Đây là tình huống trái thực tế trong quá khứ, nên ta dùng câu điều kiện loại 3.
+-D. were studying → Sai cấu trúc câu điều kiện loại 3.</t>
+  </si>
+  <si>
+    <t>If we ______________ the plans carefully, we would not have had so many serious mistakes.</t>
+  </si>
+  <si>
+    <t>I will never talk to you again _______ you apologize me _______ your being rude.</t>
+  </si>
+  <si>
+    <t>- Đáp án B
+* Dịch nghĩa: Tôi sẽ không bao giờ nói chuyện với bạn nữa trừ khi bạn xin lỗi tôi vì sự thô lỗ của
+bạn.
+* Xét các đáp án:
+- A. if / for → Tôi sẽ không bao giờ nói chuyện với bạn nữa nếu bạn xin lỗi tôi vì sự thô lỗ của bạn. =&gt;Sai nghĩa.
+-B. unless / for → Ta có: Unless = If … not (Nếu … không hoặc Trừ khi).
+- Mở rộng: Cấu trúc: S + to apologize + (to somebody) for V-ing : xin lỗi ai đó vì đã làm gì..
+-C. or / of → Không sử dụng cấu trúc apologize of.
+-D. whether / or → Không sử dụng cấu trúc apologize or.</t>
+  </si>
+  <si>
+    <t>_____ you work harder, you will be sacked.</t>
+  </si>
+  <si>
+    <t>- Đáp án D
+* Dịch nghĩa: Nếu bạn không làm việc chăm chỉ hơn, bạn sẽ bị sa thải.
+* Ta có cách dùng của “unless” trong câu điều kiện loại 1:
+- Unless = If … not. (Nếu … không hoặc trừ khi).</t>
+  </si>
+  <si>
+    <t>I think you should stop smoking</t>
+  </si>
+  <si>
+    <t>- Đáp án C
+* Dịch nghĩa: Tôi nghĩ bạn nên ngừng hút thuốc. (Đây là tình huống giả định, không thể xảy ra ở
+hiện tại, không có thực ở hiện tại, nên ta dùng câu điều kiện loại 2).
+* Xét các đáp án:
+-A. If I am you, I will stop smoking.→ Không dùng câu điều kiện loại 1.
+-B. If I were you, I will stop smoking. → Sai cấu trúc câu điều kiện loại 2.
+-C. If I were you, I would stop smoking. → Cấu trúc câu điều kiện loại 2: If + S + V(quá khứ), S+ would/could/might + V(nguyên mẫu)
+-D. If I had been you, I would stop smoking.→ Sai cấu trúc câu điều kiện loại 2</t>
+  </si>
+  <si>
+    <t>If you take the ice out of the fridge, it __________.</t>
+  </si>
+  <si>
+    <t>- Đáp án B
+* Dịch nghĩa: Nếu bạn lấy đá ra khỏi tủ lạnh, nó sẽ tan chảy.
+* Xét các đáp án:
+-A. vaporizes /ˈveɪ.pɚ.aɪz/ (v): bốc hơi.
+-B. melts /melt/ (v): tan.
+-C. heats (v): nóng lên.
+-D. disappears /ˌdɪs.əˈpɪr/(v): biến mất.</t>
+  </si>
+  <si>
+    <t>Unless we __________ more snow, we can’t go skiing.</t>
+  </si>
+  <si>
+    <t>- Đáp án B
+* Dịch nghĩa: Nếu chúng ta không có nhiều tuyết hơn, chúng ta không thể đi trượt tuyết.
+* Xét các đáp án:
+-A. will have → Sai cấu trúc câu điều kiện loại 1.
+-B. have → Cấu trúc “unless” thay thế cho cấu trúc ” if … not” (Trừ khi, nếu … không); Cấu trúc câu điều kiện loại 1: If + S + V(s/es), S + will/can/shall + V(nguyên mẫu).
+-C. have had → Sai cấu trúc câu điều kiện loại 1.
+-D. had → Đây là tình huống có thể xảy ra ở hiện tại hoặc tương lai, nên ta dùng câu điều kiện loại 1.</t>
+  </si>
+  <si>
+    <t>You’ll fail the exam _____ you start revising.</t>
+  </si>
+  <si>
+    <t>- Đáp án D
+* Dịch nghĩa: Bạn sẽ thất bại trong kỳ thi nếu bạn không bắt đầu ôn tập.
+* Xét các đáp án:
+-A. if → Bạn sẽ thất bại trong kỳ thi nếu bạn bắt đầu ôn tập. =&gt; Sai nghĩa.
+-B. until → Bạn sẽ thất bại trong kỳ thi đến khi bạn bắt đầu ôn tập. =&gt; Sai nghĩa.
+-C. when → Bạn sẽ thất bại trong kỳ thi khi bạn bắt đầu ôn tập. =&gt; Sai nghĩa.
+-D. unless → Cấu trúc “unless” thay thế cho cấu trúc ” if … not” (Trừ khi, nếu … không); Cấu trúc câu điều kiện loại 1: If + S + V(s/es), S + will/can/shall + V(nguyên mẫu)</t>
+  </si>
+  <si>
+    <t>Unless you wash the car, you _____ not drive it at the weekend.</t>
+  </si>
+  <si>
+    <t>- Đáp án D
+* Dịch nghĩa: Nếu bạn không rửa xe, bạn không thể lái nó vào cuối tuần.
+(Đây là tình huống có thể xảy ra ở hiện tại hoặc tương lai, nên ta dùng câu điều kiện loại 1).
+* Xét các đáp án:
+- A. would → Sai cấu trúc câu điều kiện loại 1.
+-B. could → Sai cấu trúc câu điều kiện loại 1.
+-C. have to → Không có cấu trúc have to not.
+-D. may → Cấu trúc câu điều kiện loại 1: If + S + V(s/es), S + will/can/shall/ may+ V(nguyênmẫu).
+- Mở rộng: Cấu trúc “unless” thay thế cho cấu trúc ” if … not” (Trừ Khi, nếu … không).</t>
+  </si>
+  <si>
+    <t>If Peter _____ his car before the drive, he _____ the problem of out of petrol.</t>
+  </si>
+  <si>
+    <t>- Đáp án B
+* Dịch nghĩa: Nếu Peter đã kiểm tra xe của mình trước khi lái xe, anh ta sẽ không gặp vấn đề hết
+xăng.
+* Xét các đáp án:
+-A. checked / will not get → Sai cấu trúc câu điều kiện.
+-B. had checked / would not have got → Cấu trúc câu điều kiện loại 3: If + S + had + V3, S + would/could/might + have + V3
+-C. checks / will not have got → Sai cấu trúc câu điều kiện loại 3.
+-D. would be checking / will not have got → Sai cấu trúc câu điều kiện loại.</t>
+  </si>
+  <si>
+    <t>Most people you meet will be polite to you _____.</t>
+  </si>
+  <si>
+    <t>- Đáp án A
+* Dịch nghĩa: Hầu hết những người bạn gặp sẽ lịch sự với bạn nếu bạn lịch sự với họ.
+* Xét các đáp án:
+-A. if you are polite to them → Cấu trúc câu điều kiện loại 1: If + S + V(s/es), S + will/can/shall + V(nguyên mẫu)
+-B. if you will be polite to them → Sai cấu trúc câu điều kiện loại 1
+-C. unless you are polite to them → Hầu hết những người bạn gặp sẽ lịch sự với bạn trừ khi bạn lịch sự với họ, vô nghĩa.
+-D. if you were polite to them → Sai cấu trúc câu điều kiện loại 1</t>
+  </si>
+  <si>
+    <t>If you do so, it _____ the matter worse.</t>
+  </si>
+  <si>
+    <t>- Đáp án C
+*Dịch nghĩa: Nếu bạn làm như vậy, điều đó sẽ chỉ làm cho vấn đề tồi tệ hơn.
+* Xét các đáp án:
+-A. makes only → Sai cấu trúc câu điều kiện loại 1.
+-B. would only make → Sai cấu trúc câu điều kiện loại 1.
+-C. will only make → Cấu trúc câu điều kiện loại 1: If + S + V(s/es), S + will/can/shall +V(nguyên mẫu).
+-D. had only made → Sai cấu trúc câu điều kiện loại 1.</t>
+  </si>
+  <si>
+    <t>Hurry up _____ you will miss the bus and be late for school.</t>
+  </si>
+  <si>
+    <t>- Đáp án C
+* Dịch nghĩa: Nhanh lên hoặc bạn sẽ bỏ lỡ xe buýt và bị trễ học.
+* Xét các đáp án:
+-A. if → Nhanh lên nếu bạn sẽ bỏ lỡ xe buýt và bị trễ học, vô nghĩa.
+-B. and → Nhanh lên và bạn sẽ bỏ lỡ xe buýt và bị trễ học, vô nghĩa.
+-C. or → Nhanh lên hoặc bạn sẽ bỏ lỡ xe buýt và bị trễ học.
+-D. as → Nhanh lên vì bạn sẽ bỏ lỡ xe buýt và bị trễ học, vô nghĩa</t>
+  </si>
+  <si>
+    <t>You will get a good seat if you _____ first.</t>
+  </si>
+  <si>
+    <t>- Đáp án A
+* Dịch nghĩa: Bạn sẽ có được một chỗ ngồi tốt nếu bạn đến trước. (Đây là tình huống có thể xảy
+ra ở hiện tại hoặc tương lai, nên ta dùng câu điều kiện loại 1).
+* Xét các đáp án:
+-A. come → Cấu trúc câu điều kiện loại 1: If + S + V(s/es), S + will/can/shall + V(nguyên mẫu).
+-B. came → Sai cấu trúc câu điều kiện loại 1.
+-C. have come → Sai cấu trúc câu điều kiện loại 1.
+-D. will come → Sai cấu trúc câu điều kiện loại 1</t>
+  </si>
+  <si>
+    <t>If Margaret hadn’t been wearing a seat belt, she________ injured</t>
+  </si>
+  <si>
+    <t>- Đáp án D
+* Dịch nghĩa: Nếu Margaret không đeo dây an toàn, cô ấy đã bị thương. (Đây là tình huống trái
+thực tế trong quá khứ, nên ta dùng câu điều kiện loại 3).
+* Xét các đáp án:
+-A. has been → Sai cấu trúc câu điều kiện loại 3.
+-B. would has been → Sai cấu trúc câu điều kiện loại 3.
+-C. would be → Sai cấu trúc câu điều kiện loại 3.
+-D. would have been → Cấu trúc câu điều kiện loại 3: If + S + had + V3, S + would/could/might + have + V3.</t>
+  </si>
+  <si>
+    <t>If I _____ the rain yesterday, I_____ ill.</t>
+  </si>
+  <si>
+    <t>- Đáp án B
+*Dịch nghĩa: Nếu tôi không bị ngấm mưa ngày hôm qua, tôi sẽ không bị ốm.
+*Giải thích:
+- Căn cứ vào trạng từ “yesterday” nên câu này phải viết bằng điều kiện loại 3
+- Công thức của điều kiện loại 3:
+If + S + V(quá khứ hoàn thành), S + would/could + have + Vp2</t>
+  </si>
+  <si>
+    <t>What _________ if there _________ a serious nuclear accident.</t>
+  </si>
+  <si>
+    <t>- Đáp án C
+* Dịch nghĩa: Điều gì sẽ xảy ra nếu có một tai nạn hạt nhân nghiêm trọng? (Đây là tình huống
+giả định, không thể xảy ra ở hiện tại, không có thực ở hiện tại, nên ta dùng câu điều kiện loại 2).
+* Xét các đáp án:
+-A. will happen / was → Sai cấu trúc câu điều kiện loại 2
+-B. happens / were → Sai cấu trúc câu điều kiện loại 2
+-C. would happen / were → Cấu trúc câu điều kiện loại 2: If + S + V(quá khứ), S + would/could/might + V(nguyên mẫu)
+-D. would happen / had been → Không dùng câu điều kiện hỗn hợp loại 3+2 trong tình huốngtrên.</t>
+  </si>
+  <si>
+    <t>If I hadn’t stayed up so late last night, I ____ so tired this morning.</t>
+  </si>
+  <si>
+    <t>- Đáp án D
+* Dịch nghĩa: Nếu tôi không thức khuya đêm qua, sáng nay tôi sẽ không cảm thấy mệt mỏi như
+vậy. (Đây là tình huống trái thực tế trong quá khứ, nên ta dùng câu điều kiện loại 3).
+* Xét các đáp án:
+-A. don’t feel → Sai cấu trúc câu điều kiện loại 3.
+-B. felt → Sai về cấu trúc câu điều kiện loại 3.
+-C. didn’t feel → Sai cấu trúc câu điều kiện loại 3
+-D. wouldn’t have felt → Cấu trúc câu điều kiện loại 3: If + S + had + Vp2, S + would/could/might + have + Vp2.</t>
+  </si>
+  <si>
+    <t>I ________ in terrible trouble right now if you hadn’t helped me.</t>
+  </si>
+  <si>
+    <t>-Đáp án C
+* Dịch nghĩa: Tôi sẽ gặp rắc rối khủng khiếp ngay bây giờ nếu bạn không giúp tôi.
+(Câu điều kiện diễn tả một sự việc đã xảy ra hay không xảy ra trong quá khứ nhưng kết quả còn
+lưu đến hiện tại là câu điều kiện loại hỗn hợp loại 3+2)
+=&gt; Ở đây có dấu hiệu vế đầu là “now” nên ta chia loại hai cho vế này
+* Xét các đáp án:
+-A. am → Sai cấu trúc câu điều kiện loại hỗn hợp loại 3+2.
+-B. will be → Sai cấu trúc câu điều kiện loại hỗn hợp loại 3+2.
+-C. would be → Cấu trúc câu điều kiện loại hỗn hợp loại 3+2: If + S + V (quá khứ phân từ), S + would(n’t) + V (hiện tại).
+-D. would have been → Không dùng câu điều kiện loại 3 trong tình huống trên</t>
+  </si>
+  <si>
+    <t>If I had a computer, I ____ the assignment last night.</t>
+  </si>
+  <si>
+    <t>- Đáp án C
+* Dịch nghĩa: Nếu tôi có một cái máy tính, tôi đã hoàn thành nhiệm vụ tối qua. (Câu điều kiện
+diễn tả giả thiết trái ngược với thực tại, còn kết quả thì trái ngược với quá khứ là câu điều kiện
+loại hỗn hợp loại 2+3).
+* Xét các đáp án:
+-A. finished → Sai cấu trúc câu điều kiện loại hỗn hợp loại 2.
+-B. have finished → Sai cấu trúc câu điều kiện loại hỗn hợp loại 2.
+-C. would have finished → Công thức câu điều kiện loại 2+3: If + S + V(quá khứ đơn), S +
+would + have + Vpp.
+-D. had finished → Cấu trúc câu điều kiện loại hỗn hợp loại 2: If + S + V (quá khứ) , S + would +
+have + V3</t>
+  </si>
+  <si>
+    <t>If you ____ harder, you’d have passed the exam.</t>
+  </si>
+  <si>
+    <t>- Đáp án A
+* Dịch nghĩa: Nếu bạn đã học chăm chỉ hơn, bạn đã vượt qua kỳ thi. (Đây là tình huống trái thực
+tế trong quá khứ, nên ta dùng câu điều kiện loại 3).
+* Xét các đáp án:
+-A. had studied → Cấu trúc câu điều kiện loại 3: If + S + had + V3, S + would/could/might +
+have + V3.
+-B. have studied → Sai cấu trúc câu điều kiện loại 3.
+-C. studied → Không dùng câu điều kiện hỗn hợp loại 2+3 trong tình huống trên.
+-D. study → Sai cấu trúc câu điều kiện loại 3.</t>
+  </si>
+  <si>
+    <t>If you had lots of money, what ____?</t>
+  </si>
+  <si>
+    <t>- Đáp án C
+* Dịch nghĩa: Nếu bạn có nhiều tiền, bạn sẽ làm gì? ( Đây là tình huống giả định, không thể xảy
+ra ở hiện tại, không có thực ở hiện tại, nên ta dùng câu điều kiện loại 2).
+* Xét các đáp án:
+-A. do you do → Sai cấu trúc câu điều kiện loại 2.
+-B. will you do → Sai cấu trúc câu điều kiện loại 2.
+-C. would you do → Cấu trúc câu điều kiện loại 2: If + S + V(quá khứ), S + would/could/might + V(nguyên mẫu).
+-D. have you done → Sai cấu trúc câu điều kiện loại 2</t>
+  </si>
+  <si>
+    <t>I’d ____ out with you if I weren’t so tired.</t>
+  </si>
+  <si>
+    <t>- Đáp án A
+Dịch nghĩa: Tôi sẽ đi chơi với bạn với tôi nếu tôi không quá mệt. (Đây là tình huống giả định,
+không thể xảy ra ở hiện tại, không có thực ở hiện tại, nên ta dùng câu điều kiện loại 2).
+Xét các đáp án:
+-A. go → Cấu trúc câu điều kiện loại 2: If + S + V(quá khứ), S + would/could/might + V(nguyên mẫu)
+-B. went → Căn cứ sau: “would V(nguyên thể)”. =&gt; Chia “went” là sai.
+-C. had gone → Sai cấu trúc câu điều kiện loại 2.
+-D. will go → Sai cấu trúc câu điều kiện loại 2</t>
+  </si>
+  <si>
+    <t>I’m sure your parents would have been happier if you ____ harder before that important exam.</t>
+  </si>
+  <si>
+    <t>- Đáp án D
+* Dịch nghĩa: Tôi chắc rằng cha mẹ bạn sẽ hạnh phúc hơn nếu bạn đã làm việc chăm chỉ hơn
+trước kỳ thi quan trọng đó. (Đây là tình huống trái thực tế trong quá khứ, nên ta dùng câu điều
+kiện loại 3).
+* Xét các đáp án:
+-A. work → Sai cấu trúc câu điều kiện loại 3.
+-B. worked → Khong dùng câu điều kiện hỗn hợp loại 2+3 trong tình huống trên.
+-C. have worked → Sai cấu trúc câu điều kiện loại 3.
+-D. had worked → Cấu trúc câu điều kiện loại 3: If + S + had + V3, S + would/could/might +
+have + V3.</t>
+  </si>
+  <si>
+    <t>Tom ____ so careless if he’d known what would happen.</t>
+  </si>
+  <si>
+    <t>- Đáp án B
+Dịch nghĩa: Tom sẽ không quá bất cẩn nếu anh biết chuyện gì sẽ xảy ra.
+Xét các đáp án:
+-A. would have been → Tom sẽ quá bất cẩn nếu anh biết chuyện gì sẽ xảy ra. =&gt; Sai nghĩa.
+-B. wouldn’t have been → Cấu trúc câu điều kiện loại 3: If + S + had + V3, S + would/could/might + have + V3
+-C. would be → Sai cấu trúc câu điều kiện loại 3.
+-D. wouldn’t be → Sai cấu trúc câu điều kiện loại 3.</t>
+  </si>
+  <si>
+    <t>If she ____ on time, I would have been surprised.</t>
+  </si>
+  <si>
+    <t>- Đáp án C
+* Dịch nghĩa: Nếu cô ấy đến đúng giờ, tôi sẽ rất ngạc nhiên. (Đây là tình huống trái thực tế trong
+quá khứ, nên ta dùng câu điều kiện loại 3).
+* Xét các đáp án:
+-A. arrived → Sai cấu trúc câu điều kiện loại 3.
+-B. have arrived → Sai cấu trúc câu điều kiện loại 3.
+-C. had arrived → Cấu trúc câu điều kiện loại 3: If + S + had + V3, S + would/could/might + have+ V3.
+-D. would arrive → Không dùng câu điều kiện hỗn hợp loại 3+2 trong tình huống trên.</t>
+  </si>
+  <si>
+    <t>We wouldn’t _______ the bus if we’d left home earlier.</t>
+  </si>
+  <si>
+    <t>- Đáp án A
+* Dịch nghĩa: Chúng tôi đã không bỏ lỡ xe buýt nếu chúng tôi rời khỏi nhà sớm hơn.
+* Xét các đáp án:
+-A. have missed → Cấu trúc câu điều kiện loại loại 3 (Điều kiện không có thật trong quá khứ): If+ S + V (quá khứ hoàn thành) , S + would + have + Vpp.
+-B. had missed → Ta có: Mệnh đề chính của câu điều kiện loại 3 chia: “would have Vpp”. =&gt; Sai cấu trúc câu điều kiện loại 3.
+-C. will miss → Sai cấu trúc câu điều kiện loại 3.
+-D. would miss → Sai cấu trúc câu điều kiện loại 3.</t>
+  </si>
+  <si>
+    <t>If John had studied more, he _______ better marks.</t>
+  </si>
+  <si>
+    <t>- Đáp án D
+* Dịch nghĩa: Nếu John đã nghiên cứu nhiều hơn, anh ta đã có điểm cao hơn. (Đây là tình huống trái thực tế trong quá khứ, nên ta dùng câu điều kiện loại 3).
+* Xét các đáp án:
+-A. gets → Sai cấu trúc câu điều kiện loại 3.
+-B. will get → Sai cấu trúc câu điều kiện loại 3.
+-C. would get → Không dùng câu điều kiện hỗn hợp loại 3+2 trong tình huống trên.
+-D. would have got → Cấu trúc câu điều kiện loại 3: If + S + had + V3, S + would/could/might + have + V3.</t>
+  </si>
+  <si>
+    <t>If he had tried harder, he might ____.</t>
+  </si>
+  <si>
+    <t>- Đáp án B
+* Dịch nghĩa: Nếu anh ấy đã cố gắng hơn, anh ấy có thể đã thành công. (Đây là tình huống trái
+thực tế trong quá khứ, nên ta dùng câu điều kiện loại 3).
+* Xét các đáp án:
+-A. succeed → Sai cấu trúc câu điều kiện loại 3.
+-B. have succeeded → Cấu trúc câu điều kiện loại 3: If + S + had + V3, S + would/could/might + have + V3
+-C. be success → Sai cấu trúc câu điều kiện loại 3.
+-D. will succeed → Sai cấu trúc câu điều kiện loại 3</t>
+  </si>
+  <si>
+    <t>If you had saved some money, you ____ so hard up now.</t>
+  </si>
+  <si>
+    <t>-Đáp án C
+* Dịch nghĩa: Nếu bạn đã tiết kiệm được một số tiền, bạn sẽ không quá khó khăn bây giờ.
+(Câu điều kiện diễn tả một sự việc đã xảy ra hay không xảy ra trong quá khứ nhưng kết quả còn
+lưu đến hiện tại là câu điều kiện loại hỗn hợp loại 3+2).
+* Xét các đáp án:
+-A. aren’t→ Sai cấu trúc câu điều kiện hỗn hợp loại 3+2.
+-B. won’t → Sai cấu trúc câu điều kiện hỗn hợp loại 3+2.
+-C. wouldn’t be → Cấu trúc câu điều kiện loại hỗn hợp loại 1: If + S + V (quá khứ phân từ), S +would(n’t) + V (hiện tại).
+-D. wouldn’t have been → Sai cấu trúc câu điều kiện hỗn hợp loại 3+2.</t>
+  </si>
+  <si>
+    <t>Why didn’t you tell me? If you ______ me, I would have helped.</t>
+  </si>
+  <si>
+    <t>- Đáp án D
+* Dịch nghĩa: Tại sao bạn không nói với tôi? Nếu bạn đã nói với tôi, tôi đã có thể giúp đỡ. (Đây
+là tình huống trái thực tế trong quá khứ, nên ta dùng câu điều kiện loại 3).
+* Xét các đáp án:
+-A. tell → Sai cấu trúc câu điều kiện loại 3.
+-B. told → Sai cấu trúc câu điều kiện loại 3.
+-C. have told → Không dùng câu điều kiện hỗn hợp loại 2+3 trong tình huống trên.
+-D. had told → Cấu trúc câu điều kiện loại 3: If + S + had + V3, S + would/could/might + have +V3.</t>
+  </si>
+  <si>
+    <t>If he _______ the money, he wouldn’t be in prison now.</t>
+  </si>
+  <si>
+    <t>- Đáp án A
+* Dịch nghĩa: Nếu anh ta không ăn cắp tiền, anh ta sẽ không ở tù bây giờ. (Câu điều kiện diễn tả một sự việc đã xảy ra hay không xảy ra trong quá khứ nhưng kết quả còn lưu đến hiện tại là câu điều kiện loại hỗn hợp loại 3+2).
+* Xét các đáp án:
+-A. hadn’t stolen → Cấu trúc câu điều kiện loại hỗn hợp loại 1: If + S + V (quá khứ phân từ), S +would(n’t) + V (hiện tại)
+-B. didn’t steal ) → Sai cấu trúc câu điều kiện hỗn hợp loại 3+2.
+-C. had stolen → Nếu anh ta đã ăn cắp tiền, anh ta sẽ không ở tù bây giờ. =&gt; Sai nghĩa.
+-D. stole → Sai cấu trúc câu điều kiện loại 3+2.</t>
+  </si>
+  <si>
+    <t>If Tim _______ so fast, his car wouldn’t have crashed into a tree.</t>
+  </si>
+  <si>
+    <t>- * Dịch nghĩa: Nếu Tim không lái quá nhanh, xe của anh ta đã không đâm vào cây. (Đây là tình
+huống trái thực tế trong quá khứ, nên ta dùng câu điều kiện loại 3).
+* Xét các đáp án:
+-A. didn’t drive → Sai cấu trúc câu điều kiện loại 3.
+-B. hadn’t driven → Cấu trúc câu điều kiện loại 3: If + S + had + V3, S + would/could/might + have + V3.
+-C. haven’t driven → Sai cấu trúc câu điều kiện loại 3/
+-D. drives → Sai cấu trúc câu điều kiện loại 3/</t>
+  </si>
+  <si>
+    <t>What a bad luck! If Nam ____ over, he would have won the race.</t>
+  </si>
+  <si>
+    <t>- Đáp án D
+* Dịch nghĩa: Thật là không may! Nếu Nam không ngã, anh ta đã thắng cuộc đua.
+* Căn cứ vào:
+- Đây là tình huống trái thực tế trong quá khứ, ta dùng câu điều kiện loại 3.
+* Xét các đáp án:
+-A. doesn’t fall → Sai cấu trúc câu điều kiện loại 3.
+-B. didn’t fall → Sai cấu trúc câu điều kiện loại 3.
+-C. hasn’t fallen → Sai cấu trúc câu điều kiện loại 3.
+-D. hadn’t fallen → Cấu trúc câu điều kiện loại 3: If + S + had + V3, S + would/could/might + have + V3.</t>
+  </si>
+  <si>
+    <t>If you ____ me last week, I would have been able to come.</t>
+  </si>
+  <si>
+    <t>- Đáp án B
+* Dịch nghĩa: Nếu bạn đã mời tôi tuần trước, tôi đã có thể đến. (Đây là tình huống trái thực tế
+trong quá khứ, nên ta dùng câu điều kiện loại 3).
+* Xét các đáp án:
+-A. invited → Sai cấu trúc câu điều kiện loại 3.
+-B. had invited → Cấu trúc câu điều kiện loại 3: If + S + had + V3, S + would/could/might + have+ V3
+-C. would invite → Sai cấu trúc câu điều kiện loại 3.
+-D. would have invited → Sai cấu trúc câu điều kiện loại 3.</t>
+  </si>
+  <si>
+    <t>I’m sure your letter hasn’t arrived yet. If it had come, I’m sure I _______ it.</t>
+  </si>
+  <si>
+    <t>- Đáp án C
+* Dịch nghĩa: Tôi chắc chắn rằng thư của bạn chưa đến. Nếu nó đã đến, tôi chắc chắn tôi sẽ đã đã
+chú ý đến nó rồi.
+* Căn cứ vào:
+- Đây là tình huống trái thực tế trong quá khứ, vì vế đầu chia “had Vp2” nên ta dùng câu điều kiện loại 3. Cụ thể hơn: mệnh đề đầu dùng thì hiện tại hoàn thành để diễn tả một hành động vẫn chưa xảy ra từ trong quá khứ kéo dài đến hiện tại =&gt; giả sử hành động đó thì phải là giả sử trong quá khứ =&gt; điều kiện loại 3
+* Xét các đáp án:
+-A. will notice → Sai cấu trúc câu điều kiện loại 3
+-B. noticed → Sai cấu trúc câu điều kiện loại 3
+-C. would have noticed → Cấu trúc câu điều kiện loại 3: If + S + had + Vp2, S + would/could/might + have + Vp2
+-D. would notice → Không dùng câu điều kiện hỗn hợp loại 3+2 trong tình huống trên</t>
+  </si>
+  <si>
+    <t>Why didn’t you phone? If I had known you were coming, I _______ you at the airport.</t>
+  </si>
+  <si>
+    <t>- Đáp án A
+Dịch nghĩa: Tại sao bạn không gọi? Nếu tôi biết bạn đang đến, tôi sẽ gặp bạn tại sân bay.
+* Căn cứ vào:
+- Đây là tình huống trái thực tế trong quá khứ, ta dùng câu điều kiện loại 3.
+* Xét các đáp án:
+-A. would have met → Cấu trúc câu điều kiện loại 3: If + S + had + V3, S + would/could/might +
+have + V3.
+-B. would meet → Không dùng câu điều kiện loại 3+2 trong tình huống trên.
+-C. met → Sai cấu trúc câu điều kiện loại 3.
+-D. had met → Sai cấu trúc câu điều kiện loại 3.</t>
+  </si>
+  <si>
+    <t>It’s a pity you missed the party. If you ____, you would have met my teacher from Australia.</t>
+  </si>
+  <si>
+    <t>- Đáp án D
+* Dịch nghĩa: Thật đáng tiếc bạn đã bỏ lỡ bữa tiệc. Nếu bạn đã đến, bạn đã có thể gặp giáo viên
+của tôi từ Úc.
+* Căn cứ vào:
+- Đây là tình huống trái thực tế trong quá khứ, nên ta dùng câu điều kiện loại 3.
+* Xét các đáp án:
+-A. came → Không dùng câu điều kiện hỗn hợp loại 2+3 trong tình huống trên.
+-B. have come → Sai cấu trúc câu điều kiện loại 3.
+-C. come → Sai cấu trúc câu điều kiện loại 3.
+-D. had come → Cấu trúc câu điều kiện loại 3: If + S + had + V3, S + would/could/might + have+ V3.</t>
+  </si>
+  <si>
+    <t>I wouldn’t have resat the exam if I _______ harder.</t>
+  </si>
+  <si>
+    <t>- Đáp án C
+* Dịch nghĩa: Tôi sẽ không phải làm lại bài kiểm tra nếu tôi đã học chăm chỉ hơn.
+* Xét các đáp án:
+-A. study → Sai cấu trúc câu điều kiện loại 3
+-B. studied → Đây là tình huống trái thực tế trong quá khứ, nên ta dùng câu điều kiện loại 3
+-C. had studied → Cấu trúc câu điều kiện loại 3: If + S + had + V3, S + would/could/might +have + V3
+-D. would have studied → Sai cấu trúc câu điều kiện loại 3</t>
+  </si>
+  <si>
+    <t>If Jane _______, I wouldn’t have been able to move the table.</t>
+  </si>
+  <si>
+    <t>- Đáp án B
+* Dịch nghĩa: Nếu Jane không giúp, tôi sẽ không thể di chuyển cái bàn.
+* Xét các đáp án:
+-A. didn’t help → Sai cấu trúc câu điều kiện loại 3.
+-B. hadn’t helped → Cấu trúc câu điều kiện loại 3: If + S + had + V3, S + would/could/might +have + V3.
+-C. hasn’t helped → Sai cấu trúc câu điều kiện loại 3.
+-D. wouldn’t help → Đây là tình huống trái thực tế trong quá khứ, nên ta dùng câu điều kiện loại 3</t>
+  </si>
+  <si>
+    <t>Unless you _______ me about Sue’s hair, I wouldn’t have noticed.</t>
+  </si>
+  <si>
+    <t>- Đáp án A
+* Dịch nghĩa: Trừ khi bạn nói với tôi về tóc của Sue, tôi sẽ không chú ý. (Đây là tình huống trái
+thực tế trong quá khứ, nên ta dùng câu điều kiện loại 3).
+* Xét các đáp án:
+-A. had told → Cấu trúc “unless” thay thế cho cấu trúc ” if … not” (Trừ khi, nếu … không); Cấu trúc câu điều kiện loại 3: If + S + had + V3, S + would/could/might + have + V3.
+-B. hadn’t told → Sai cấu trúc câu điều kiện loại 3.
+-C. told → Sai cấu trúc câu điều kiện loại 3.
+-D. didn’t tell → Sai cấu trúc câu điều kiện loại 3</t>
+  </si>
+  <si>
+    <t>“If I _______ and my life depended on the solution, I would spend the first 55
+minutes determining the proper question to ask, for once I know the proper question, I could
+solve the problem in less than five minutes.” Albert Einstein</t>
+  </si>
+  <si>
+    <t>- Đáp án D
+* Căn cứ vào cấu trúc câu điều kiện loại 2: If + S + V(quá khứ đơn), S + would + V(nguyên
+thể).
+=&gt; Ta loại A, C
+Ta có cấu trúc: have time to do st: có thời gian để làm gì
+=&gt; Đáp án D
+* Dịch nghĩa:"Nếu tôi có một giờ để giải quyết vấn đề và cuộc sống của tôi phụ thuộc vào giải
+pháp đó, tôi sẽ dành 55 phút đầu tiên để xác định câu hỏi thích hợp, vì một khi tôi biết câu hỏi
+thích hợp, tôi có thể giải quyết vấn đề trong chưa đầy năm phút.", Albert Einstein</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> If he had spent his youth learning anything, he ____ himself for his lack of
+knowledge now.</t>
+  </si>
+  <si>
+    <t>- Đáp án B
+* Căn cứ vào:
+- Mệnh đề “if” chia ở dạng “V(quá khứ hoàn thành)” &amp; mệnh đề chính có trạng từ “now”. =&gt;
+Câu này là câu điều kiện hỗn hợp loại 3+2 (giả thiết trái ngược với quá khứ, nhưng kết quả trái
+ngược với hiện tại).
+- Cấu trúc: If + S + V(quá khứ hoàn thành), S + would/ could + V(nguyên mẫu).
+* Xét các đáp án:
+-A. will not blame. =&gt;Loại vì sai cấu trúc.
+-B. would not blame. =&gt; Dịch nghĩa: Nếu anh ta đã dành cả thanh xuân học bất cứ điều gì, anh ta đã không tự trách mình vì sự thiếu hiểu biết của anh ta bây giờ. =&gt; Hợp nghĩa.
+-C. would not have blamed. Không dùng câu điều kiện loại 3 trong trường hợp trên.
+-D. would blame. =&gt; Dịch nghĩa: Nếu anh ta đã dành cả thanh xuân học bất cứ điều gì, anh ta đã tự trách mình vì sự thiếu hiểu biết của anh ta bây giờ. =&gt; Sai nghĩa.</t>
+  </si>
+  <si>
+    <t>If he ____ this homework to do, he would have gone out with his friends.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> *Căn cứ vào ngữ cảnh của câu, vế sau vì diễn tả một hành động không có thật trong quá khứ nên
+ta dùng điều kiện loại 3: “S + would have Vp2”
+*Vế đầu ta căn cứ vào đại từ chỉ định “this”, cụ thể ở đây là “this homework”-là dấu hiệu của ngữ cảnh hành động này đang ở hiện tại, do đó ta dùng điều kiện loại 2 cho vế này với cấu trúc: “if + S + V(quá khứ đơn)”
+=&gt; Ta dùng điều kiện trộn 2-3 cho câu này
+*Dịch nghĩa: Nếu anh ta không phải làm bài tập về nhà này thì anh ta đã ra ngoài chơi với bạn bè
+rồi.</t>
+  </si>
+  <si>
+    <t>Were my grandfather alive, he ____ learning something new. He was really a
+studious.</t>
+  </si>
+  <si>
+    <t>- Đáp án B
+* Dịch nghĩa: Khi ông tôi còn sống, ông sẽ học được điều gì đó mới. Ông thực sự là một người
+chăm học. (Đây là tình huống giả định, không thể xảy ra ở hiện tại, không có thực ở hiện tại, nên
+ta dùng câu điều kiện loại 2).
+* Xét các đáp án:
+-A. will be → Sai cấu trúc đảo ngữ câu điều kiện loại 2.
+-B. would be → Đảo ngữ câu điều kiện loại 2: Were + S + (not) + Vo, S + Would + Vo
+-C. would have been → Sai cấu trúc đảo ngữ câu điều kiện loại 2.
+-D. will have been → Sai cấu trúc đảo ngữ câu điều kiện loại 2</t>
+  </si>
+  <si>
+    <t>Students will not be allowed into the exam room if they ______ their student cards.</t>
+  </si>
+  <si>
+    <t>- Đáp án A
+*Dịch nghĩa: Học sinh sẽ không được phép vào phòng thi nếu họ không xuất trình thẻ sinh viên.
+*Xét các đáp án:
+-A. don’t produce → Cấu trúc câu điều kiện loại 1: If + S + V(s/es), S + will/can/shall + V(nguyên mẫu)
+-B. didn’t produce → Đây là tình huống có thể xảy ra ở hiện tại hoặc tương lai, nên ta dùng câu điều kiện loại 1
+-C. produced → Học sinh sẽ không được phép vào phòng thi nếu họ xuất trình thẻ sinh viên, vô nghĩa
+-D. hadn’t produced → Sai cấu trúc câu điều kiện loại 1</t>
+  </si>
+  <si>
+    <t>Without your help, I ______ the technical problem with my computer the other day.</t>
+  </si>
+  <si>
+    <t>- Đáp án B
+*Dịch nghĩa: Không có sự giúp đỡ của bạn, tôi không thể giải quyết vấn đề kỹ thuật với máy tính của tôi vào ngày hôm trước.
+*Xét các đáp án:
+-A. wouldn’t solve → Đây là tình huống trái thực tế trong quá khứ, nên ta dùng câu điều kiện loại 3
+-B. couldn’t have solved → đúng
+-C. could solve → Không có sự giúp đỡ của bạn, tôi có thể giải quyết vấn đề kỹ thuật với máy tính của tôi vào ngày hôm trước, vô nghĩa
+-D. can’t solve → Sai cấu trúc câu điều kiện loại 3</t>
+  </si>
+  <si>
+    <t>If Martin were here now, he________________ us to solve this difficult problem.</t>
+  </si>
+  <si>
+    <t>- Đáp án A
+*Dịch nghĩa: Nếu Martin ở đây bây giờ, anh ấy sẽ giúp chúng tôi giải quyết vấn đề khó khăn này.
+*Xét các đáp án:
+-A. would help → Cấu trúc câu điều kiện loại 2: If + S + V(quá khứ), S + would/could/might +V(nguyên mẫu)
+-B. helps → Đây là tình huống giả định, không thể xảy ra ở hiện tại, không có thực ở hiện tại, nên ta dùng câu điều kiện loại 2.
+-C. will help → Sai cấu trúc câu điều kiện loại 2
+-D. has helped → Sai cấu trúc câu điều kiện loại 2</t>
+  </si>
+  <si>
+    <t>If he didn’t have to work today, he_________________ his children to the zoo.</t>
+  </si>
+  <si>
+    <t>- Đáp án C
+*Dịch nghĩa: Nếu hôm nay anh ấy không phải làm việc, anh ấy sẽ đưa con đến sở thú.
+*Xét các đáp án:
+-A. will take → Sai cấu trúc câu điều kiện loại 2
+-B. takes → Đây là tình huống giả định, không thể xảy ra ở hiện tại, không có thực ở hiện tại, nên ta dùng câu điều kiện loại 2
+-C. would take → Cấu trúc câu điều kiện loại 2: If + S + V(quá khứ), S + would/could/might +V(nguyên mẫu)
+-D. has taken → Sai cấu trúc câu điều kiện loại 2</t>
+  </si>
+  <si>
+    <t>If you didn’t have to leave today, I _________ you around the city.</t>
+  </si>
+  <si>
+    <t>- Đáp án D
+*Dịch nghĩa: Nếu bạn không phải rời đi ngay hôm nay, tôi sẽ chỉ cho bạn xung quanh thành phố.
+*Xét các đáp án:
+-A. have shown → Đây là tình huống giả định, không thể xảy ra ở hiện tại, không có thực ở hiện tại, nên ta dùng câu điều kiện loại 2
+-B. showed → Sai cấu trúc câu điều kiện loại 2
+-C. will show → Sai cấu trúc câu điều kiện loại 2
+-D. would show → Cấu trúc câu điều kiện loại 2: If + S + V(quá khứ), S + would/could/might +V(nguyên mẫu)</t>
+  </si>
+  <si>
+    <t>If our teacher were here now, he ______________us with this difficult exercise.</t>
+  </si>
+  <si>
+    <t>- Đáp án D
+*Dịch nghĩa: Nếu giáo viên của chúng tôi ở đây bây giờ, anh ấy sẽ giúp chúng tôi với bài tập khó khăn này.
+*Xét các đáp án:
+-A. has helped → Đây là tình huống giả định, không thể xảy ra ở hiện tại, không có thực ở hiện  tại, nên ta dùng câu điều kiện loại 2
+-B. helps → Sai cấu trúc câu điều kiện loại 2
+-C. will help → Sai cấu trúc câu điều kiện loại 2
+-D. would help → Cấu trúc câu điều kiện loại 2: If + S + V(quá khứ), S + would/could/might +V(nguyên mẫu)</t>
+  </si>
+  <si>
+    <t>If he were younger, he _____ a professional running competition now.</t>
+  </si>
+  <si>
+    <t>- Đáp án D
+*Dịch nghĩa: Nếu anh ấy trẻ hơn, anh ấy đã tham gia một cuộc thi chạy chuyên nghiệp bây giờ.
+*Xét các đáp án:
+-A. will join → Đây là tình huống giả định, không thể xảy ra ở hiện tại, không có thực ở hiện tại, nên ta dùng câu điều kiện loại 2
+-B. had joined → Sai cấu trúc câu điều kiện loại 2
+-C. would have joined → Sai cấu trúc câu điều kiện loại 2
+-D. would join → Cấu trúc câu điều kiện loại 2: If + S + V(quá khứ), S + would/could/might +V(nguyên mẫu)</t>
+  </si>
+  <si>
+    <t>If you watch this film, you ______ about the cultures of Southeast Asian countries.</t>
+  </si>
+  <si>
+    <t>- Đáp án C
+*Dịch nghĩa: Nếu bạn xem bộ phim này, bạn sẽ học về văn hóa của các nước Đông Nam Á.
+*Xét các đáp án:
+-A. learned → Sai cấu trúc câu điều kiện loại 1
+-B. were learning → Sai cấu trúc câu điều kiện loại 1
+-C. will learn → Cấu trúc câu điều kiện loại 1: If + S + V(s/es), S + will/can/shall + V(nguyên mẫu)
+-D. would learn → Đây là tình huống có thể xảy ra ở hiện tại hoặc tương lai, nên ta dùng câu điều kiện loại 1</t>
+  </si>
+  <si>
+    <t>If he were better qualified, he ___________ get the job.</t>
+  </si>
+  <si>
+    <t>- Đáp án D
+*Dịch nghĩa: Nếu anh ta có trình độ tốt hơn, anh ta đã có thể có được công việc.
+*Xét các đáp án:
+-A. will → Đây là tình huống giả định, không thể xảy ra ở hiện tại, không có thực ở hiện tại, nên ta dùng câu điều kiện loại 2
+-B. can → Sai cấu trúc câu điều kiện loại 2
+-C. may → Sai cấu trúc câu điều kiện loại 2
+-D. could → Cấu trúc câu điều kiện loại 2: If + S + V(quá khứ), S + would/could/might +V(nguyên mẫu)</t>
+  </si>
+  <si>
+    <t>If life_________ predictable it would cease to be life, and be without flavor.</t>
+  </si>
+  <si>
+    <t>- Đáp án C
+*Dịch nghĩa: Nếu cuộc sống có thể dự đoán được thì nó sẽ không còn là cuộc sống, và chẳng còn có hương vị gì nữa.
+*Xét các đáp án:
+-A. is → Sai cấu trúc câu điều kiện loại 2
+-B. would be → Sai cấu trúc câu điều kiện loại 2
+-C. were → Cấu trúc câu điều kiện loại 2: If + S + V(quá khứ), S + would/could/might +V(nguyên mẫu)
+-D. had been → Đây là tình huống giả định, không thể xảy ra ở hiện tại, không có thực ở hiện tại,
+nên ta dùng câu điều kiện loại 2</t>
+  </si>
+  <si>
+    <t>That sounds like a good offer. I ______ it if I ______ you.</t>
+  </si>
+  <si>
+    <t>- Đáp án A
+*Dịch nghĩa: Nghe có vẻ là một đề nghị tốt. Tôi sẽ chấp nhận nó nếu tôi là bạn.
+*Xét các đáp án:
+- A. would accept – were → Cấu trúc câu điều kiện loại 2: If + S + V(quá khứ), S + would/could/might + V(nguyên mẫu).
+-B. accepted - would be → Sai cấu trúc câu điều kiện loại 2.
+-C. accept - will be → Sai cấu trúc câu điều kiện loại 2.
+-D. will accept - were → Đây là tình huống giả định, không thể xảy ra ở hiện tại, không có thực ở hiện tại, nên ta dùng câu điều kiện loại 2.</t>
+  </si>
+  <si>
+    <t>If he improved his IT skills, he ________________ a job.</t>
+  </si>
+  <si>
+    <t>- Đáp án B
+* Dịch nghĩa: Nếu anh ta cải thiện kỹ năng công nghệ thông tin của mình, anh ta sẽ dễ dàng kiếm được một công việc.
+=&gt; Căn cứ vào dấu hiệu “if” và động từ “improved” chia ở quá khứ đơn ở vế đầu, có thể thấy đây là câu điều kiện loại 2 hoặc loại hỗn hợp 2-3. Xét nghĩa và ngữ cảnh câu, ta thấy hai hành động hai vế đều là hành động không có thật ở hiện tại hoặc tương lai, do đó ta dùng với cấu trúc câu điều kiện loại 2 như sau:
+“If + S + V(quá khứ đơn) + O, S + would/could Vo + ….: nếu…thì….”</t>
+  </si>
+  <si>
+    <t>If it had not rained last night, the roads in the city _______so slippery now.</t>
+  </si>
+  <si>
+    <t>- Đáp án B
+*Dịch nghĩa: Nếu đêm qua trời không mưa, đường trong thành phố sẽ không quá trơn.
+*Xét các đáp án:
+-A. must not be → Sai cấu trúc câu điều kiện loại hỗn hợp loại 1.
+-B. would not be → Cấu trúc câu điều kiện loại hỗn hợp loại 1: If + S + V (quá khứ phân từ), S +would(n’t) + V (hiện tại).
+-C. could not have been → Sai cấu trúc câu điều kiện loại hỗn hợp loại 1.
+-D. would not have been → Câu điều kiện diễn tả một sự việc đã xảy ra hay không xảy ra trong quá khứ nhưng kết quả còn lưu đến hiện tại là câu điều kiện loại hỗn hợp loại 1.</t>
+  </si>
+  <si>
+    <t>_______ ten minutes earlier, you would have got a better seat.</t>
+  </si>
+  <si>
+    <t>- Đáp án A
+*Dịch nghĩa: Nếu bạn đến sớm hơn mười phút, bạn sẽ có chỗ ngồi tốt hơn.
+*Xét các đáp án:
+-A. Had you arrived → Đảo ngữ câu điều kiện loại 3: Had + S + (not) + V3/Ved, S + Would have + V3/Ved.
+-B. If you arrived → Sai cấu trúc đảo ngữ câu điều kiện loại 3.
+-C. Were you arrived → Đây là tình huống trái thực tế trong quá khứ, nên ta dùng câu điều kiện loại 3.
+-D. If you hadn’t arrived → Nếu bạn không đến sớm hơn mười phút, bạn sẽ có chỗ ngồi tốt hơn,
+vô nghĩa.</t>
+  </si>
+  <si>
+    <t>If it ______ their encouragement, he could have given it up.</t>
+  </si>
+  <si>
+    <t>- Đáp án A
+*Dịch nghĩa: Nếu không vì sự khích lệ của họ, anh ta có thể đã bỏ cuộc rồi.
+*Giải thích:
+- Căn cứ vào cụm "could have given" nên ta suy ra đây là câu điều kiện loại 3.
+- Điều kiện loại 3 thì mệnh đề if phải chia thì quá khứ hoàn thành. Do đó, ta loại B
+- Cấu trúc: If it hadn’t been for + cụm danh từ, S + would/could + have + Vp2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">must </t>
+  </si>
+  <si>
+    <t xml:space="preserve">shines / will go </t>
+  </si>
+  <si>
+    <t>wouldn’t be cancelled / hadn’t rained 
+rained</t>
+  </si>
+  <si>
+    <t xml:space="preserve">will never be </t>
+  </si>
+  <si>
+    <t>leave / will have</t>
+  </si>
+  <si>
+    <t xml:space="preserve">study </t>
+  </si>
+  <si>
+    <t xml:space="preserve">if / for </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whether </t>
+  </si>
+  <si>
+    <t xml:space="preserve">If I am you, I will stop smoking. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">vaporizes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">will have </t>
+  </si>
+  <si>
+    <t xml:space="preserve">if 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">would </t>
+  </si>
+  <si>
+    <t>checked / will not get</t>
+  </si>
+  <si>
+    <t>if you are polite to them</t>
+  </si>
+  <si>
+    <t xml:space="preserve">makes only </t>
+  </si>
+  <si>
+    <t xml:space="preserve">if </t>
+  </si>
+  <si>
+    <t xml:space="preserve">come </t>
+  </si>
+  <si>
+    <t xml:space="preserve">has been </t>
+  </si>
+  <si>
+    <t xml:space="preserve">had not caught / would have been </t>
+  </si>
+  <si>
+    <t xml:space="preserve">will happen / was </t>
+  </si>
+  <si>
+    <t xml:space="preserve">don’t feel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">am </t>
+  </si>
+  <si>
+    <t xml:space="preserve">finished </t>
+  </si>
+  <si>
+    <t xml:space="preserve">had studied </t>
+  </si>
+  <si>
+    <t xml:space="preserve">do you do </t>
+  </si>
+  <si>
+    <t xml:space="preserve">go </t>
+  </si>
+  <si>
+    <t xml:space="preserve">work </t>
+  </si>
+  <si>
+    <t xml:space="preserve">would have been </t>
+  </si>
+  <si>
+    <t xml:space="preserve">arrived </t>
+  </si>
+  <si>
+    <t xml:space="preserve">have missed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gets </t>
+  </si>
+  <si>
+    <t xml:space="preserve">succeed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">aren’t </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tell </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hadn’t stolen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">didn’t drive </t>
+  </si>
+  <si>
+    <t xml:space="preserve">doesn’t fall </t>
+  </si>
+  <si>
+    <t xml:space="preserve">invited </t>
+  </si>
+  <si>
+    <t xml:space="preserve">will notice </t>
+  </si>
+  <si>
+    <t xml:space="preserve">would have met </t>
+  </si>
+  <si>
+    <t xml:space="preserve">came </t>
+  </si>
+  <si>
+    <t xml:space="preserve">didn’t help </t>
+  </si>
+  <si>
+    <t xml:space="preserve">had told </t>
+  </si>
+  <si>
+    <t xml:space="preserve">have an hour to solve a problem </t>
+  </si>
+  <si>
+    <t xml:space="preserve">will not blame </t>
+  </si>
+  <si>
+    <t xml:space="preserve">had not </t>
+  </si>
+  <si>
+    <t xml:space="preserve">will be </t>
+  </si>
+  <si>
+    <t xml:space="preserve">don’t produce </t>
+  </si>
+  <si>
+    <t xml:space="preserve">wouldn’t solve </t>
+  </si>
+  <si>
+    <t xml:space="preserve">would help </t>
+  </si>
+  <si>
+    <t xml:space="preserve">will take </t>
+  </si>
+  <si>
+    <t xml:space="preserve">have shown </t>
+  </si>
+  <si>
+    <t xml:space="preserve">has helped </t>
+  </si>
+  <si>
+    <t xml:space="preserve">will join </t>
+  </si>
+  <si>
+    <t xml:space="preserve">learned </t>
+  </si>
+  <si>
+    <t xml:space="preserve">will </t>
+  </si>
+  <si>
+    <t xml:space="preserve">is </t>
+  </si>
+  <si>
+    <t xml:space="preserve">would accept – were </t>
+  </si>
+  <si>
+    <t xml:space="preserve">will easily get </t>
+  </si>
+  <si>
+    <t xml:space="preserve">must not be </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Had you arrived </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hadn’t been for </t>
+  </si>
+  <si>
+    <t>shone / will go</t>
+  </si>
+  <si>
+    <t>wouldn’t have been cancelled / hadn’t</t>
+  </si>
+  <si>
+    <t>would never be</t>
+  </si>
+  <si>
+    <t>didn’t leave / would have</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unless / for </t>
+  </si>
+  <si>
+    <t xml:space="preserve">If </t>
+  </si>
+  <si>
+    <t>If I were you, I will stop smoking.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">melts </t>
+  </si>
+  <si>
+    <t xml:space="preserve">have </t>
+  </si>
+  <si>
+    <t xml:space="preserve">until </t>
+  </si>
+  <si>
+    <t xml:space="preserve">could </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> had checked / would not have got</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> if you will be polite to them</t>
+  </si>
+  <si>
+    <t xml:space="preserve">would only make </t>
+  </si>
+  <si>
+    <t xml:space="preserve">and </t>
+  </si>
+  <si>
+    <t xml:space="preserve">would has been </t>
+  </si>
+  <si>
+    <t>had not caught / would not have been</t>
+  </si>
+  <si>
+    <t>happens / were</t>
+  </si>
+  <si>
+    <t xml:space="preserve">felt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">have finished </t>
+  </si>
+  <si>
+    <t xml:space="preserve">have studied </t>
+  </si>
+  <si>
+    <t xml:space="preserve">will you do </t>
+  </si>
+  <si>
+    <t xml:space="preserve">went </t>
+  </si>
+  <si>
+    <t xml:space="preserve">worked </t>
+  </si>
+  <si>
+    <t xml:space="preserve">wouldn’t have been </t>
+  </si>
+  <si>
+    <t xml:space="preserve">have arrived </t>
+  </si>
+  <si>
+    <t xml:space="preserve">had missed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">will get </t>
+  </si>
+  <si>
+    <t>have succeeded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">won’t </t>
+  </si>
+  <si>
+    <t xml:space="preserve">told </t>
+  </si>
+  <si>
+    <t xml:space="preserve">didn’t steal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hadn’t driven </t>
+  </si>
+  <si>
+    <t xml:space="preserve">didn’t fall </t>
+  </si>
+  <si>
+    <t xml:space="preserve">had invited </t>
+  </si>
+  <si>
+    <t xml:space="preserve">noticed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">would meet </t>
+  </si>
+  <si>
+    <t xml:space="preserve">have come </t>
+  </si>
+  <si>
+    <t xml:space="preserve">studied </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hadn’t helped </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hadn’t told </t>
+  </si>
+  <si>
+    <t>had an hour solving a problem</t>
+  </si>
+  <si>
+    <t>would not blame</t>
+  </si>
+  <si>
+    <t xml:space="preserve">didn’t have </t>
+  </si>
+  <si>
+    <t xml:space="preserve">would be </t>
+  </si>
+  <si>
+    <t xml:space="preserve">didn’t produce </t>
+  </si>
+  <si>
+    <t xml:space="preserve">couldn’t have solved </t>
+  </si>
+  <si>
+    <t xml:space="preserve">helps </t>
+  </si>
+  <si>
+    <t xml:space="preserve">takes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">showed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">had joined </t>
+  </si>
+  <si>
+    <t xml:space="preserve">were learning </t>
+  </si>
+  <si>
+    <t xml:space="preserve">can </t>
+  </si>
+  <si>
+    <t xml:space="preserve">accepted - would be </t>
+  </si>
+  <si>
+    <t>would easily get</t>
+  </si>
+  <si>
+    <t xml:space="preserve">would not be </t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you arrived </t>
+  </si>
+  <si>
+    <t>wouldn’t have been for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">should </t>
+  </si>
+  <si>
+    <t xml:space="preserve">shone / would go </t>
+  </si>
+  <si>
+    <t xml:space="preserve">would have been cancelled / hadn’t rained </t>
+  </si>
+  <si>
+    <t xml:space="preserve">wouldn’t have </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hadn’t left / would have </t>
+  </si>
+  <si>
+    <t xml:space="preserve">or / of </t>
+  </si>
+  <si>
+    <t xml:space="preserve">However </t>
+  </si>
+  <si>
+    <t xml:space="preserve">If I were you, I would stop smoking. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">heats </t>
+  </si>
+  <si>
+    <t xml:space="preserve">have had </t>
+  </si>
+  <si>
+    <t xml:space="preserve">when </t>
+  </si>
+  <si>
+    <t xml:space="preserve">have to </t>
+  </si>
+  <si>
+    <t xml:space="preserve">checks / will not have got </t>
+  </si>
+  <si>
+    <t xml:space="preserve">unless you are polite to them </t>
+  </si>
+  <si>
+    <t xml:space="preserve">will only make </t>
+  </si>
+  <si>
+    <t xml:space="preserve">or </t>
+  </si>
+  <si>
+    <t xml:space="preserve">have not caught / were not </t>
+  </si>
+  <si>
+    <t xml:space="preserve">would happen / were </t>
+  </si>
+  <si>
+    <t xml:space="preserve">didn’t feel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">would have finished </t>
+  </si>
+  <si>
+    <t xml:space="preserve">would you do </t>
+  </si>
+  <si>
+    <t xml:space="preserve">had gone </t>
+  </si>
+  <si>
+    <t xml:space="preserve">have worked </t>
+  </si>
+  <si>
+    <t xml:space="preserve">had arrived </t>
+  </si>
+  <si>
+    <t xml:space="preserve">will miss </t>
+  </si>
+  <si>
+    <t xml:space="preserve">would get </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> be success </t>
+  </si>
+  <si>
+    <t xml:space="preserve">wouldn’t be </t>
+  </si>
+  <si>
+    <t xml:space="preserve">have told </t>
+  </si>
+  <si>
+    <t xml:space="preserve">had stolen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">haven’t driven </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hasn’t fallen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">would invite </t>
+  </si>
+  <si>
+    <t xml:space="preserve">would have noticed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">met </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hasn’t helped </t>
+  </si>
+  <si>
+    <t xml:space="preserve">had had an hour to solve a problem </t>
+  </si>
+  <si>
+    <t xml:space="preserve">would not have blamed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">produced </t>
+  </si>
+  <si>
+    <t xml:space="preserve">could solve </t>
+  </si>
+  <si>
+    <t xml:space="preserve">will help </t>
+  </si>
+  <si>
+    <t xml:space="preserve">would take </t>
+  </si>
+  <si>
+    <t xml:space="preserve">will show </t>
+  </si>
+  <si>
+    <t xml:space="preserve">would have joined </t>
+  </si>
+  <si>
+    <t xml:space="preserve">may </t>
+  </si>
+  <si>
+    <t xml:space="preserve">were </t>
+  </si>
+  <si>
+    <t xml:space="preserve">accept - will be </t>
+  </si>
+  <si>
+    <t xml:space="preserve">will easily have got </t>
+  </si>
+  <si>
+    <t xml:space="preserve">could not have been </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Were you arrived </t>
+  </si>
+  <si>
+    <t xml:space="preserve">had been for </t>
+  </si>
+  <si>
+    <t>ought</t>
+  </si>
+  <si>
+    <t>had shone / would go</t>
+  </si>
+  <si>
+    <t>will be cancelled / rains</t>
+  </si>
+  <si>
+    <t>would have never been</t>
+  </si>
+  <si>
+    <t>hadn’t left / would have had</t>
+  </si>
+  <si>
+    <t>were studying</t>
+  </si>
+  <si>
+    <t>whether / or</t>
+  </si>
+  <si>
+    <t>Unless</t>
+  </si>
+  <si>
+    <t>If I had been you, I would stop smoking.</t>
+  </si>
+  <si>
+    <t>disappears</t>
+  </si>
+  <si>
+    <t>unless</t>
+  </si>
+  <si>
+    <t>may</t>
+  </si>
+  <si>
+    <t>would be checking / will not have got</t>
+  </si>
+  <si>
+    <t>if you were polite to them</t>
+  </si>
+  <si>
+    <t>had only made</t>
+  </si>
+  <si>
+    <t>as</t>
+  </si>
+  <si>
+    <t>will come</t>
+  </si>
+  <si>
+    <t>have not caught / would have been</t>
+  </si>
+  <si>
+    <t>would happen / had been</t>
+  </si>
+  <si>
+    <t>wouldn’t have felt</t>
+  </si>
+  <si>
+    <t>have you done</t>
+  </si>
+  <si>
+    <t>had worked</t>
+  </si>
+  <si>
+    <t>wouldn’t be</t>
+  </si>
+  <si>
+    <t>would arrive</t>
+  </si>
+  <si>
+    <t>would miss</t>
+  </si>
+  <si>
+    <t>would have got</t>
+  </si>
+  <si>
+    <t>will succeed</t>
+  </si>
+  <si>
+    <t>wouldn’t have been</t>
+  </si>
+  <si>
+    <t>had told</t>
+  </si>
+  <si>
+    <t>stole</t>
+  </si>
+  <si>
+    <t>drives</t>
+  </si>
+  <si>
+    <t>hadn’t fallen</t>
+  </si>
+  <si>
+    <t>would have invited</t>
+  </si>
+  <si>
+    <t>would notice</t>
+  </si>
+  <si>
+    <t>had met</t>
+  </si>
+  <si>
+    <t>had come</t>
+  </si>
+  <si>
+    <t>would have studied</t>
+  </si>
+  <si>
+    <t>wouldn’t help</t>
+  </si>
+  <si>
+    <t>didn’t tell</t>
+  </si>
+  <si>
+    <t>had an hour to solve a problem</t>
+  </si>
+  <si>
+    <t>would blame</t>
+  </si>
+  <si>
+    <t>hadn’t had</t>
+  </si>
+  <si>
+    <t>hadn’t produced</t>
+  </si>
+  <si>
+    <t>can’t solve</t>
+  </si>
+  <si>
+    <t>has helped</t>
+  </si>
+  <si>
+    <t>has taken</t>
+  </si>
+  <si>
+    <t>would show</t>
+  </si>
+  <si>
+    <t>would help</t>
+  </si>
+  <si>
+    <t>would join</t>
+  </si>
+  <si>
+    <t>could</t>
+  </si>
+  <si>
+    <t>will accept - were</t>
+  </si>
+  <si>
+    <t>would easily have got</t>
+  </si>
+  <si>
+    <t>would not have been</t>
+  </si>
+  <si>
+    <t>If you hadn’t arrived</t>
+  </si>
+  <si>
+    <t>hadn’t been</t>
   </si>
 </sst>
 </file>
@@ -5812,7 +7336,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A77" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
@@ -12134,4 +13658,1543 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="68.5703125" style="16" customWidth="1"/>
+    <col min="2" max="6" width="9.140625" style="26"/>
+    <col min="7" max="7" width="109.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>1408</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>1409</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>1595</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>1660</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>1711</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>1540</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>1602</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>1661</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>1712</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>1541</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>1603</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>1662</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>1713</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>1604</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>1663</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>1543</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>1605</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>1664</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>1715</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>1544</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>1563</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>1640</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>1716</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>1606</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>1665</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>1717</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>1546</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>1607</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>1666</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>1718</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>1608</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>1667</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>1719</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>1609</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>1668</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>1720</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A13" s="21" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>1549</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>1610</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>1669</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>1550</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>1611</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>1670</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>1721</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>1551</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>1612</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>1671</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>1722</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>1613</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>1672</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>1723</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A17" s="21" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>1614</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>1673</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>1724</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A18" s="21" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>1554</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>1615</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>1674</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>1725</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>1616</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>1675</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>1726</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A20" s="21" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>1580</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>1639</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>1727</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A21" s="21" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>1557</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>1617</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>1646</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A22" s="21" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>1558</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>1618</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>1676</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>1728</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A23" s="21" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>1619</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A24" s="21" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>1560</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>1620</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>1678</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>1730</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="A25" s="21" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>1561</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>1586</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>1646</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="A26" s="21" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>1562</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>1621</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>1679</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>596</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A27" s="21" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>1563</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>1622</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>1640</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G27" s="18" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A28" s="21" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>1564</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>1623</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>1680</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>1731</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" s="18" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A29" s="21" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>1565</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>1624</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>1681</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G29" s="18" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="A30" s="21" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>1566</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>1625</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>1682</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>1732</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30" s="18" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A31" s="21" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>1626</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>1646</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>1733</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G31" s="18" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A32" s="21" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>1627</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>1683</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>1734</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" s="18" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A33" s="21" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>1684</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>1735</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G33" s="18" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A34" s="21" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>1629</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>1685</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>1736</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G34" s="18" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A35" s="21" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>1630</v>
+      </c>
+      <c r="D35" s="26" t="s">
+        <v>1686</v>
+      </c>
+      <c r="E35" s="26" t="s">
+        <v>1737</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G35" s="18" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A36" s="21" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>1572</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>1631</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>1687</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>1738</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G36" s="18" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A37" s="21" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>1573</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>1632</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>1688</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>1739</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G37" s="18" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A38" s="21" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>1574</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>1633</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>1689</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>1740</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G38" s="18" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A39" s="21" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>1690</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>1741</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G39" s="18" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A40" s="21" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>1576</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>1635</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>1691</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>1742</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G40" s="18" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A41" s="21" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>1577</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>1636</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>1692</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>1743</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G41" s="18" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="180" x14ac:dyDescent="0.25">
+      <c r="A42" s="21" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>1637</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>1693</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>1744</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="18" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="A43" s="21" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>1638</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>1694</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>1745</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G43" s="18" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="A44" s="21" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>1639</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>1556</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>1746</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" s="18" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A45" s="21" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>1544</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>1640</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>1563</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>1747</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G45" s="18" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A46" s="21" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>1641</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>1695</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>1748</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G46" s="18" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A47" s="21" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>1642</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>1632</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>1749</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G47" s="18" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C48" s="26" t="s">
+        <v>1643</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>1696</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>1750</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" s="18" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="195" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C49" s="26" t="s">
+        <v>1644</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>1751</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G49" s="18" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A50" s="21" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>1585</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>1645</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>1280</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>1752</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G50" s="18" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>1586</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>1646</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>1567</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G51" s="18" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A52" s="21" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>1587</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>1647</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>1698</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>1753</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G52" s="18" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A53" s="21" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>1588</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>1648</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>1699</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>1754</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G53" s="18" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A54" s="21" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>1589</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>1649</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>1700</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>1755</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G54" s="18" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A55" s="21" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>1590</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>1650</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>1701</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>1756</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G55" s="18" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A56" s="21" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>1651</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>1702</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>1757</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G56" s="18" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A57" s="21" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>1592</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>1649</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>1700</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>1758</v>
+      </c>
+      <c r="F57" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G57" s="18" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A58" s="21" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>1593</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>1703</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>1759</v>
+      </c>
+      <c r="F58" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" s="18" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A59" s="21" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>1594</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>1653</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>1285</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>1287</v>
+      </c>
+      <c r="F59" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G59" s="18" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A60" s="21" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>1595</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>1654</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>1704</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>1760</v>
+      </c>
+      <c r="F60" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G60" s="18" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A61" s="21" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>1596</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>1646</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>1705</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="F61" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G61" s="18" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A62" s="21" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>1597</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>1655</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>1706</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>1761</v>
+      </c>
+      <c r="F62" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G62" s="18" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A63" s="21" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>1598</v>
+      </c>
+      <c r="C63" s="26" t="s">
+        <v>1656</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>1707</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>1762</v>
+      </c>
+      <c r="F63" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G63" s="18" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A64" s="21" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>1599</v>
+      </c>
+      <c r="C64" s="26" t="s">
+        <v>1657</v>
+      </c>
+      <c r="D64" s="26" t="s">
+        <v>1708</v>
+      </c>
+      <c r="E64" s="26" t="s">
+        <v>1763</v>
+      </c>
+      <c r="F64" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G64" s="18" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A65" s="21" t="s">
+        <v>1535</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>1658</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>1709</v>
+      </c>
+      <c r="E65" s="11" t="s">
+        <v>1764</v>
+      </c>
+      <c r="F65" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G65" s="18" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A66" s="21" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>1601</v>
+      </c>
+      <c r="C66" s="26" t="s">
+        <v>1659</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>1710</v>
+      </c>
+      <c r="E66" s="11" t="s">
+        <v>1765</v>
+      </c>
+      <c r="F66" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G66" s="18" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/file/exercise.xlsx
+++ b/file/exercise.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr showObjects="none" filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="1.12 thì" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2347" uniqueCount="1766">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2347" uniqueCount="1767">
   <si>
     <t>question</t>
   </si>
@@ -6909,6 +6909,9 @@
   </si>
   <si>
     <t>hadn’t been</t>
+  </si>
+  <si>
+    <t>have caused</t>
   </si>
 </sst>
 </file>
@@ -7336,8 +7339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G107"/>
   <sheetViews>
-    <sheetView topLeftCell="A77" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D81" sqref="D81"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8209,11 +8212,11 @@
       <c r="B38" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>208</v>
+      <c r="C38" s="5" t="s">
+        <v>1766</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>1766</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>209</v>
@@ -13664,8 +13667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
